--- a/files/p19.xlsx
+++ b/files/p19.xlsx
@@ -3518,9 +3518,12 @@
       <sheetName val="all-items"/>
       <sheetName val="recipes"/>
       <sheetName val="participants"/>
+      <sheetName val="inventory"/>
+      <sheetName val="places"/>
+      <sheetName val="type"/>
+      <sheetName val="all-items-raw"/>
+      <sheetName val="places_copy"/>
       <sheetName val="participants_raw"/>
-      <sheetName val="inventory"/>
-      <sheetName val="all-items-raw"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3533,14 +3536,56 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="10">
+        <row r="2">
+          <cell r="F2" t="str">
+            <v>bellPepper</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="12">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>asparragus</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>babyBottle</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>aluminumFoil</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>aluminumFoil</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>aubergine</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>plasticBag</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18">
         <row r="2">
           <cell r="A2" t="str">
@@ -3617,6 +3662,7 @@
           <cell r="C6" t="str">
             <v>cheese</v>
           </cell>
+          <cell r="D6"/>
           <cell r="F6" t="str">
             <v>bellPepper</v>
           </cell>
@@ -3688,6 +3734,7 @@
           <cell r="C10" t="str">
             <v>cloth</v>
           </cell>
+          <cell r="D10"/>
           <cell r="F10" t="str">
             <v>bowl_bl_l</v>
           </cell>
@@ -3705,6 +3752,7 @@
           <cell r="C11" t="str">
             <v>colander</v>
           </cell>
+          <cell r="D11"/>
           <cell r="F11" t="str">
             <v>bowl_bl_s</v>
           </cell>
@@ -3913,6 +3961,7 @@
           <cell r="H22" t="str">
             <v>cookingSpoon</v>
           </cell>
+          <cell r="I22"/>
         </row>
         <row r="23">
           <cell r="A23" t="str">
@@ -3961,6 +4010,7 @@
           <cell r="H25" t="str">
             <v>coriander</v>
           </cell>
+          <cell r="I25"/>
         </row>
         <row r="26">
           <cell r="A26" t="str">
@@ -4063,6 +4113,7 @@
           <cell r="C31" t="str">
             <v>food</v>
           </cell>
+          <cell r="D31"/>
           <cell r="F31" t="str">
             <v>cpB_b_ov_4</v>
           </cell>
@@ -4143,6 +4194,7 @@
           <cell r="H35" t="str">
             <v>cup</v>
           </cell>
+          <cell r="I35"/>
         </row>
         <row r="36">
           <cell r="A36" t="str">
@@ -4157,6 +4209,7 @@
           <cell r="H36" t="str">
             <v>dishTray</v>
           </cell>
+          <cell r="I36"/>
         </row>
         <row r="37">
           <cell r="A37" t="str">
@@ -4171,6 +4224,7 @@
           <cell r="H37" t="str">
             <v>dishWasher</v>
           </cell>
+          <cell r="I37"/>
         </row>
         <row r="38">
           <cell r="A38" t="str">
@@ -4278,6 +4332,7 @@
           <cell r="H44" t="str">
             <v>food</v>
           </cell>
+          <cell r="I44"/>
         </row>
         <row r="45">
           <cell r="A45" t="str">
@@ -4346,6 +4401,7 @@
           <cell r="C48" t="str">
             <v>onion</v>
           </cell>
+          <cell r="D48"/>
           <cell r="F48" t="str">
             <v>freezer</v>
           </cell>
@@ -4360,6 +4416,7 @@
           <cell r="C49" t="str">
             <v>oven</v>
           </cell>
+          <cell r="D49"/>
           <cell r="F49" t="str">
             <v>fridge</v>
           </cell>
@@ -4374,6 +4431,7 @@
           <cell r="C50" t="str">
             <v>ovenGloves</v>
           </cell>
+          <cell r="D50"/>
           <cell r="F50" t="str">
             <v>ginger_1</v>
           </cell>
@@ -4513,6 +4571,7 @@
           <cell r="H58" t="str">
             <v>oven</v>
           </cell>
+          <cell r="I58"/>
         </row>
         <row r="59">
           <cell r="A59" t="str">
@@ -4527,6 +4586,7 @@
           <cell r="H59" t="str">
             <v>ovenGloves</v>
           </cell>
+          <cell r="I59"/>
         </row>
         <row r="60">
           <cell r="A60" t="str">
@@ -4705,6 +4765,7 @@
           <cell r="C70" t="str">
             <v>towel</v>
           </cell>
+          <cell r="D70"/>
           <cell r="F70" t="str">
             <v>rSource</v>
           </cell>
@@ -4883,6 +4944,7 @@
           <cell r="H81" t="str">
             <v>trashB</v>
           </cell>
+          <cell r="I81"/>
         </row>
         <row r="82">
           <cell r="F82" t="str">
@@ -4913,6 +4975,7 @@
           <cell r="H84" t="str">
             <v>water</v>
           </cell>
+          <cell r="I84"/>
         </row>
         <row r="85">
           <cell r="F85" t="str">
@@ -4923,7 +4986,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="19">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>plasticBag</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="20">
         <row r="2">
           <cell r="A2" t="str">
@@ -4949,18 +5018,18 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>apron</v>
+            <v>artichoke</v>
           </cell>
           <cell r="B4" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C4" t="str">
-            <v>protect</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>artichoke</v>
+            <v>asparagus</v>
           </cell>
           <cell r="B5" t="str">
             <v>c</v>
@@ -4971,7 +5040,7 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>asparagus</v>
+            <v>aubergine</v>
           </cell>
           <cell r="B6" t="str">
             <v>c</v>
@@ -4982,7 +5051,7 @@
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>aubergine</v>
+            <v>avocado</v>
           </cell>
           <cell r="B7" t="str">
             <v>c</v>
@@ -4993,29 +5062,29 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>avocado</v>
+            <v>bacon</v>
           </cell>
           <cell r="B8" t="str">
             <v>c</v>
           </cell>
           <cell r="C8" t="str">
-            <v>produce</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>bacon</v>
+            <v>bag</v>
           </cell>
           <cell r="B9" t="str">
             <v>c</v>
           </cell>
           <cell r="C9" t="str">
-            <v>proteins</v>
+            <v>disposables</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>bag</v>
+            <v>bagFreezer</v>
           </cell>
           <cell r="B10" t="str">
             <v>c</v>
@@ -5026,7 +5095,7 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>bagFreezer</v>
+            <v>bakingPaper</v>
           </cell>
           <cell r="B11" t="str">
             <v>c</v>
@@ -5037,106 +5106,106 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>bakingPaper</v>
+            <v>bakingPwd</v>
           </cell>
           <cell r="B12" t="str">
             <v>c</v>
           </cell>
           <cell r="C12" t="str">
-            <v>disposables</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>bakingPwd</v>
+            <v>basil</v>
           </cell>
           <cell r="B13" t="str">
             <v>c</v>
           </cell>
           <cell r="C13" t="str">
-            <v>cereals</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>basil</v>
+            <v>basilPwd</v>
           </cell>
           <cell r="B14" t="str">
             <v>c</v>
           </cell>
           <cell r="C14" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>basilPwd</v>
+            <v>beans</v>
           </cell>
           <cell r="B15" t="str">
             <v>c</v>
           </cell>
           <cell r="C15" t="str">
-            <v>spice</v>
+            <v>legumes</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>beans</v>
+            <v>beanSprouts</v>
           </cell>
           <cell r="B16" t="str">
             <v>c</v>
           </cell>
           <cell r="C16" t="str">
-            <v>legumes</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>beanSprouts</v>
+            <v>beef</v>
           </cell>
           <cell r="B17" t="str">
             <v>c</v>
           </cell>
           <cell r="C17" t="str">
-            <v>produce</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>beef</v>
+            <v>beer</v>
           </cell>
           <cell r="B18" t="str">
             <v>c</v>
           </cell>
           <cell r="C18" t="str">
-            <v>proteins</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>beer</v>
+            <v>bellPepper</v>
           </cell>
           <cell r="B19" t="str">
             <v>c</v>
           </cell>
           <cell r="C19" t="str">
-            <v>drinks</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>bellPepper</v>
+            <v>blackPepper</v>
           </cell>
           <cell r="B20" t="str">
             <v>c</v>
           </cell>
           <cell r="C20" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>blackPepper</v>
+            <v>bouillon</v>
           </cell>
           <cell r="B21" t="str">
             <v>c</v>
@@ -5147,106 +5216,106 @@
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>blender</v>
+            <v>bread</v>
           </cell>
           <cell r="B22" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C22" t="str">
-            <v>prepare</v>
+            <v>breads</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>bottle</v>
+            <v>butter</v>
           </cell>
           <cell r="B23" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C23" t="str">
-            <v>contain</v>
+            <v>oils&amp;fats</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>bouillon</v>
+            <v>butternutSquash</v>
           </cell>
           <cell r="B24" t="str">
             <v>c</v>
           </cell>
           <cell r="C24" t="str">
-            <v>spice</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>bowl</v>
+            <v>cabbage</v>
           </cell>
           <cell r="B25" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C25" t="str">
-            <v>contain</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>boxCondiments</v>
+            <v>cake</v>
           </cell>
           <cell r="B26" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C26" t="str">
-            <v>contain</v>
+            <v>breads</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>bread</v>
+            <v>cardamon</v>
           </cell>
           <cell r="B27" t="str">
             <v>c</v>
           </cell>
           <cell r="C27" t="str">
-            <v>breads</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>brush</v>
+            <v>caribeanSpices</v>
           </cell>
           <cell r="B28" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C28" t="str">
-            <v>clean</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>bucket</v>
+            <v>carrots</v>
           </cell>
           <cell r="B29" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C29" t="str">
-            <v>contain</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>butter</v>
+            <v>cayenne</v>
           </cell>
           <cell r="B30" t="str">
             <v>c</v>
           </cell>
           <cell r="C30" t="str">
-            <v>oils&amp;fats</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>butternutSquash</v>
+            <v>celery</v>
           </cell>
           <cell r="B31" t="str">
             <v>c</v>
@@ -5257,51 +5326,51 @@
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>cabbage</v>
+            <v>cheese</v>
           </cell>
           <cell r="B32" t="str">
             <v>c</v>
           </cell>
           <cell r="C32" t="str">
-            <v>produce</v>
+            <v>dairy</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>cake</v>
+            <v>chicken</v>
           </cell>
           <cell r="B33" t="str">
             <v>c</v>
           </cell>
           <cell r="C33" t="str">
-            <v>breads</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>canOpener</v>
+            <v>chickpeas</v>
           </cell>
           <cell r="B34" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C34" t="str">
-            <v>prepare</v>
+            <v>legumes</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>cardamon</v>
+            <v>chillies</v>
           </cell>
           <cell r="B35" t="str">
             <v>c</v>
           </cell>
           <cell r="C35" t="str">
-            <v>spice</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>caribeanSpices</v>
+            <v>chilliesFlakes</v>
           </cell>
           <cell r="B36" t="str">
             <v>c</v>
@@ -5312,29 +5381,29 @@
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>carrots</v>
+            <v>chilliesPwd</v>
           </cell>
           <cell r="B37" t="str">
             <v>c</v>
           </cell>
           <cell r="C37" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>case</v>
+            <v>chineseGreens</v>
           </cell>
           <cell r="B38" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C38" t="str">
-            <v>noCooking</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>cayenne</v>
+            <v>chineseSpice</v>
           </cell>
           <cell r="B39" t="str">
             <v>c</v>
@@ -5345,106 +5414,106 @@
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>celery</v>
+            <v>chips</v>
           </cell>
           <cell r="B40" t="str">
             <v>c</v>
           </cell>
           <cell r="C40" t="str">
-            <v>produce</v>
+            <v>breads</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>charger</v>
+            <v>chives</v>
           </cell>
           <cell r="B41" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C41" t="str">
-            <v>noCooking</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>cheese</v>
+            <v>chorizo</v>
           </cell>
           <cell r="B42" t="str">
             <v>c</v>
           </cell>
           <cell r="C42" t="str">
-            <v>dairy</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>chicken</v>
+            <v>cider</v>
           </cell>
           <cell r="B43" t="str">
             <v>c</v>
           </cell>
           <cell r="C43" t="str">
-            <v>proteins</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>chickpeas</v>
+            <v>cilantroBase</v>
           </cell>
           <cell r="B44" t="str">
             <v>c</v>
           </cell>
           <cell r="C44" t="str">
-            <v>legumes</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>chillies</v>
+            <v>cinamon</v>
           </cell>
           <cell r="B45" t="str">
             <v>c</v>
           </cell>
           <cell r="C45" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>chilliesFlakes</v>
+            <v>cleaningLiquid</v>
           </cell>
           <cell r="B46" t="str">
             <v>c</v>
           </cell>
           <cell r="C46" t="str">
-            <v>spice</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>chilliesPwd</v>
+            <v>clingFilm</v>
           </cell>
           <cell r="B47" t="str">
             <v>c</v>
           </cell>
           <cell r="C47" t="str">
-            <v>spice</v>
+            <v>disposables</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>chineseGreens</v>
+            <v>cloth</v>
           </cell>
           <cell r="B48" t="str">
             <v>c</v>
           </cell>
           <cell r="C48" t="str">
-            <v>produce</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>chineseSpice</v>
+            <v>cocoa</v>
           </cell>
           <cell r="B49" t="str">
             <v>c</v>
@@ -5455,227 +5524,227 @@
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>chips</v>
+            <v>coconutCream</v>
           </cell>
           <cell r="B50" t="str">
             <v>c</v>
           </cell>
           <cell r="C50" t="str">
-            <v>breads</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>chives</v>
+            <v>coffee</v>
           </cell>
           <cell r="B51" t="str">
             <v>c</v>
           </cell>
           <cell r="C51" t="str">
-            <v>spice</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>chopB</v>
+            <v>coriander</v>
           </cell>
           <cell r="B52" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C52" t="str">
-            <v>prepare</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>chopSticks</v>
+            <v>corianderPwd</v>
           </cell>
           <cell r="B53" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C53" t="str">
-            <v>manipulate</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>chorizo</v>
+            <v>corn</v>
           </cell>
           <cell r="B54" t="str">
             <v>c</v>
           </cell>
           <cell r="C54" t="str">
-            <v>proteins</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>cider</v>
+            <v>cornFlour</v>
           </cell>
           <cell r="B55" t="str">
             <v>c</v>
           </cell>
           <cell r="C55" t="str">
-            <v>drinks</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>cilantroBase</v>
+            <v>courgette</v>
           </cell>
           <cell r="B56" t="str">
             <v>c</v>
           </cell>
           <cell r="C56" t="str">
-            <v>condiment</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>cinamon</v>
+            <v>cream</v>
           </cell>
           <cell r="B57" t="str">
             <v>c</v>
           </cell>
           <cell r="C57" t="str">
-            <v>spice</v>
+            <v>dairy</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>cleaningLiquid</v>
+            <v>cucumber</v>
           </cell>
           <cell r="B58" t="str">
             <v>c</v>
           </cell>
           <cell r="C58" t="str">
-            <v>cleaning</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>clingFilm</v>
+            <v>cumin</v>
           </cell>
           <cell r="B59" t="str">
             <v>c</v>
           </cell>
           <cell r="C59" t="str">
-            <v>disposables</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>cloth</v>
+            <v>curry</v>
           </cell>
           <cell r="B60" t="str">
             <v>c</v>
           </cell>
           <cell r="C60" t="str">
-            <v>cleaning</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>clothes</v>
+            <v>disposables</v>
           </cell>
           <cell r="B61" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C61" t="str">
-            <v>noCooking</v>
+            <v>disposables</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>cocoa</v>
+            <v>dWashL</v>
           </cell>
           <cell r="B62" t="str">
             <v>c</v>
           </cell>
           <cell r="C62" t="str">
-            <v>spice</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>coconutCream</v>
+            <v>eggs</v>
           </cell>
           <cell r="B63" t="str">
             <v>c</v>
           </cell>
           <cell r="C63" t="str">
-            <v>condiment</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>coffee</v>
+            <v>fennel</v>
           </cell>
           <cell r="B64" t="str">
             <v>c</v>
           </cell>
           <cell r="C64" t="str">
-            <v>drinks</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>coffeeMachine</v>
+            <v>fishSauce</v>
           </cell>
           <cell r="B65" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C65" t="str">
-            <v>toHeat</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>colander</v>
+            <v>fiveSpicesSeasoning</v>
           </cell>
           <cell r="B66" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C66" t="str">
-            <v>manipulate</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>computer</v>
+            <v>flour</v>
           </cell>
           <cell r="B67" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C67" t="str">
-            <v>tech</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>container</v>
+            <v>food</v>
           </cell>
           <cell r="B68" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C68" t="str">
-            <v>store</v>
+            <v>food</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>cookingSpoon</v>
+            <v>frozenVegs</v>
           </cell>
           <cell r="B69" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C69" t="str">
-            <v>manipulate</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>coriander</v>
+            <v>garlic</v>
           </cell>
           <cell r="B70" t="str">
             <v>c</v>
@@ -5686,7 +5755,7 @@
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>corianderPwd</v>
+            <v>garlicPwd</v>
           </cell>
           <cell r="B71" t="str">
             <v>c</v>
@@ -5697,271 +5766,271 @@
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>corn</v>
+            <v>ginger</v>
           </cell>
           <cell r="B72" t="str">
             <v>c</v>
           </cell>
           <cell r="C72" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>cornFlour</v>
+            <v>gloves</v>
           </cell>
           <cell r="B73" t="str">
             <v>c</v>
           </cell>
           <cell r="C73" t="str">
-            <v>cereals</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>courgette</v>
+            <v>goyaSeasoning</v>
           </cell>
           <cell r="B74" t="str">
             <v>c</v>
           </cell>
           <cell r="C74" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>cpB</v>
+            <v>greenBeans</v>
           </cell>
           <cell r="B75" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C75" t="str">
-            <v>toStore</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>cream</v>
+            <v>greenPeas</v>
           </cell>
           <cell r="B76" t="str">
             <v>c</v>
           </cell>
           <cell r="C76" t="str">
-            <v>dairy</v>
+            <v>legumes</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>crusher</v>
+            <v>greenSnaps</v>
           </cell>
           <cell r="B77" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C77" t="str">
-            <v>prepare</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>cucumber</v>
+            <v>ham</v>
           </cell>
           <cell r="B78" t="str">
             <v>c</v>
           </cell>
           <cell r="C78" t="str">
-            <v>produce</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>cumin</v>
+            <v>hoisinSauce</v>
           </cell>
           <cell r="B79" t="str">
             <v>c</v>
           </cell>
           <cell r="C79" t="str">
-            <v>spice</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>cup</v>
+            <v>hotSauce</v>
           </cell>
           <cell r="B80" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C80" t="str">
-            <v>contain</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>curry</v>
+            <v>hummus</v>
           </cell>
           <cell r="B81" t="str">
             <v>c</v>
           </cell>
           <cell r="C81" t="str">
-            <v>spice</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>cutlery</v>
+            <v>hWashL</v>
           </cell>
           <cell r="B82" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C82" t="str">
-            <v>manipulate</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>dishTray</v>
+            <v>italianSpices</v>
           </cell>
           <cell r="B83" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C83" t="str">
-            <v>clean</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>dishWasher</v>
+            <v>jam</v>
           </cell>
           <cell r="B84" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C84" t="str">
-            <v xml:space="preserve">toClean </v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>disposables</v>
+            <v>juice</v>
           </cell>
           <cell r="B85" t="str">
             <v>c</v>
           </cell>
           <cell r="C85" t="str">
-            <v>disposables</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>documents</v>
+            <v>kale</v>
           </cell>
           <cell r="B86" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C86" t="str">
-            <v>noCooking</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>dustBrush</v>
+            <v>kitchenRoll</v>
           </cell>
           <cell r="B87" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C87" t="str">
-            <v>clean</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>dustPan</v>
+            <v>kiwi</v>
           </cell>
           <cell r="B88" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C88" t="str">
-            <v>clean</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>dw</v>
+            <v>lard</v>
           </cell>
           <cell r="B89" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C89" t="str">
-            <v>toStore</v>
+            <v>oils&amp;fats</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>dWashL</v>
+            <v>leeks</v>
           </cell>
           <cell r="B90" t="str">
             <v>c</v>
           </cell>
           <cell r="C90" t="str">
-            <v>cleaning</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>eggs</v>
+            <v>lemon</v>
           </cell>
           <cell r="B91" t="str">
             <v>c</v>
           </cell>
           <cell r="C91" t="str">
-            <v>proteins</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>extractorFan</v>
+            <v>lettuce</v>
           </cell>
           <cell r="B92" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C92" t="str">
-            <v>toHeat</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>faucet</v>
+            <v>lighter</v>
           </cell>
           <cell r="B93" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C93" t="str">
-            <v>toDispose</v>
+            <v>stationery</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>fennel</v>
+            <v>lime</v>
           </cell>
           <cell r="B94" t="str">
             <v>c</v>
           </cell>
           <cell r="C94" t="str">
-            <v>spice</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>fireAlarm</v>
+            <v>macarroni</v>
           </cell>
           <cell r="B95" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C95" t="str">
-            <v>toSet</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>fishSauce</v>
+            <v>mappleSyrup</v>
           </cell>
           <cell r="B96" t="str">
             <v>c</v>
@@ -5972,7 +6041,7 @@
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>fiveSpicesSeasoning</v>
+            <v>marjoran</v>
           </cell>
           <cell r="B97" t="str">
             <v>c</v>
@@ -5983,139 +6052,139 @@
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>flour</v>
+            <v>masalaSpices</v>
           </cell>
           <cell r="B98" t="str">
             <v>c</v>
           </cell>
           <cell r="C98" t="str">
-            <v>cereals</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>food</v>
+            <v>milk</v>
           </cell>
           <cell r="B99" t="str">
             <v>c</v>
           </cell>
           <cell r="C99" t="str">
-            <v>food</v>
+            <v>dairy</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>fork</v>
+            <v>mincedMeat</v>
           </cell>
           <cell r="B100" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C100" t="str">
-            <v>manipulate</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>freezer</v>
+            <v>mint</v>
           </cell>
           <cell r="B101" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C101" t="str">
-            <v>toStore</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>fridge</v>
+            <v>mushrooms</v>
           </cell>
           <cell r="B102" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C102" t="str">
-            <v>toStore</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>frozenVegs</v>
+            <v>napkins</v>
           </cell>
           <cell r="B103" t="str">
             <v>c</v>
           </cell>
           <cell r="C103" t="str">
-            <v>produce</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>garlic</v>
+            <v>noodles</v>
           </cell>
           <cell r="B104" t="str">
             <v>c</v>
           </cell>
           <cell r="C104" t="str">
-            <v>produce</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>garlicPwd</v>
+            <v>nuggets</v>
           </cell>
           <cell r="B105" t="str">
             <v>c</v>
           </cell>
           <cell r="C105" t="str">
-            <v>spice</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>ginger</v>
+            <v>nuts</v>
           </cell>
           <cell r="B106" t="str">
             <v>c</v>
           </cell>
           <cell r="C106" t="str">
-            <v>spice</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>glass</v>
+            <v>oil</v>
           </cell>
           <cell r="B107" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C107" t="str">
-            <v>contain</v>
+            <v>oils&amp;fats</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>glassWine</v>
+            <v>oilFlavoured</v>
           </cell>
           <cell r="B108" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C108" t="str">
-            <v>contain</v>
+            <v>oils&amp;fats</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>gloves</v>
+            <v>onion</v>
           </cell>
           <cell r="B109" t="str">
             <v>c</v>
           </cell>
           <cell r="C109" t="str">
-            <v>cleaning</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>goyaSeasoning</v>
+            <v>oregano</v>
           </cell>
           <cell r="B110" t="str">
             <v>c</v>
@@ -6126,128 +6195,128 @@
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>grater</v>
+            <v>oysterSauce</v>
           </cell>
           <cell r="B111" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C111" t="str">
-            <v>prepare</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>greenBeans</v>
+            <v>panko</v>
           </cell>
           <cell r="B112" t="str">
             <v>c</v>
           </cell>
           <cell r="C112" t="str">
-            <v>produce</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>greenPeas</v>
+            <v>paprika</v>
           </cell>
           <cell r="B113" t="str">
             <v>c</v>
           </cell>
           <cell r="C113" t="str">
-            <v>legumes</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114" t="str">
-            <v>greenSnaps</v>
+            <v>pen</v>
           </cell>
           <cell r="B114" t="str">
             <v>c</v>
           </cell>
           <cell r="C114" t="str">
-            <v>produce</v>
+            <v>stationery</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>ham</v>
+            <v>pizza</v>
           </cell>
           <cell r="B115" t="str">
             <v>c</v>
           </cell>
           <cell r="C115" t="str">
-            <v>proteins</v>
+            <v>readyToEat</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>hoisinSauce</v>
+            <v>potatoes</v>
           </cell>
           <cell r="B116" t="str">
             <v>c</v>
           </cell>
           <cell r="C116" t="str">
-            <v>condiment</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117" t="str">
-            <v>holder</v>
+            <v>prawns</v>
           </cell>
           <cell r="B117" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C117" t="str">
-            <v>manipulate</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118" t="str">
-            <v>hotSauce</v>
+            <v>quinoa&amp;rice</v>
           </cell>
           <cell r="B118" t="str">
             <v>c</v>
           </cell>
           <cell r="C118" t="str">
-            <v>condiment</v>
+            <v>readyToEat</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119" t="str">
-            <v>hummus</v>
+            <v>rice</v>
           </cell>
           <cell r="B119" t="str">
             <v>c</v>
           </cell>
           <cell r="C119" t="str">
-            <v>condiment</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120" t="str">
-            <v>hWashL</v>
+            <v>rigatoni</v>
           </cell>
           <cell r="B120" t="str">
             <v>c</v>
           </cell>
           <cell r="C120" t="str">
-            <v>cleaning</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121" t="str">
-            <v>iceRocks</v>
+            <v>rosemary</v>
           </cell>
           <cell r="B121" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C121" t="str">
-            <v>other</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122" t="str">
-            <v>italianSpices</v>
+            <v>salt</v>
           </cell>
           <cell r="B122" t="str">
             <v>c</v>
@@ -6258,51 +6327,51 @@
         </row>
         <row r="123">
           <cell r="A123" t="str">
-            <v>jam</v>
+            <v>sausage</v>
           </cell>
           <cell r="B123" t="str">
             <v>c</v>
           </cell>
           <cell r="C123" t="str">
-            <v>condiment</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124" t="str">
-            <v>jar</v>
+            <v>seasoning</v>
           </cell>
           <cell r="B124" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C124" t="str">
-            <v>contain</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125" t="str">
-            <v>jarBlender</v>
+            <v>seasoningChicken</v>
           </cell>
           <cell r="B125" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C125" t="str">
-            <v>prepare</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126" t="str">
-            <v>jarLid</v>
+            <v>soap</v>
           </cell>
           <cell r="B126" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C126" t="str">
-            <v>contain</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127" t="str">
-            <v>juice</v>
+            <v>soda</v>
           </cell>
           <cell r="B127" t="str">
             <v>c</v>
@@ -6313,95 +6382,95 @@
         </row>
         <row r="128">
           <cell r="A128" t="str">
-            <v>kale</v>
+            <v>soySauce</v>
           </cell>
           <cell r="B128" t="str">
             <v>c</v>
           </cell>
           <cell r="C128" t="str">
-            <v>produce</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>kettle</v>
+            <v>spaghetti</v>
           </cell>
           <cell r="B129" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C129" t="str">
-            <v>heat</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130" t="str">
-            <v>key</v>
+            <v>spice_ui</v>
           </cell>
           <cell r="B130" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C130" t="str">
-            <v>noCooking</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131" t="str">
-            <v>kitchenRoll</v>
+            <v>spinach</v>
           </cell>
           <cell r="B131" t="str">
             <v>c</v>
           </cell>
           <cell r="C131" t="str">
-            <v>cleaning</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132" t="str">
-            <v>kiwi</v>
+            <v>spirit</v>
           </cell>
           <cell r="B132" t="str">
             <v>c</v>
           </cell>
           <cell r="C132" t="str">
-            <v>produce</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133" t="str">
-            <v>knife</v>
+            <v>sponge</v>
           </cell>
           <cell r="B133" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C133" t="str">
-            <v>prepare</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134" t="str">
-            <v>ladle</v>
+            <v>springOnion</v>
           </cell>
           <cell r="B134" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C134" t="str">
-            <v>manipulate</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>lard</v>
+            <v>sugar</v>
           </cell>
           <cell r="B135" t="str">
             <v>c</v>
           </cell>
           <cell r="C135" t="str">
-            <v>oils&amp;fats</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136" t="str">
-            <v>leeks</v>
+            <v>sweetPotatoes</v>
           </cell>
           <cell r="B136" t="str">
             <v>c</v>
@@ -6412,744 +6481,744 @@
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>lemon</v>
+            <v>tahini</v>
           </cell>
           <cell r="B137" t="str">
             <v>c</v>
           </cell>
           <cell r="C137" t="str">
-            <v>produce</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138" t="str">
-            <v>lettuce</v>
+            <v>tea</v>
           </cell>
           <cell r="B138" t="str">
             <v>c</v>
           </cell>
           <cell r="C138" t="str">
-            <v>produce</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>lid</v>
+            <v>thyme</v>
           </cell>
           <cell r="B139" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C139" t="str">
-            <v>contain</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140" t="str">
-            <v>lighter</v>
+            <v>toiletPaper</v>
           </cell>
           <cell r="B140" t="str">
             <v>c</v>
           </cell>
           <cell r="C140" t="str">
-            <v>stationery</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>lightSwitch</v>
+            <v>tomatoes</v>
           </cell>
           <cell r="B141" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C141" t="str">
-            <v>toSet</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142" t="str">
-            <v>lime</v>
+            <v>tomatoesProcessed</v>
           </cell>
           <cell r="B142" t="str">
             <v>c</v>
           </cell>
           <cell r="C142" t="str">
-            <v>produce</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>lunchBag</v>
+            <v>tomatoesSauce</v>
           </cell>
           <cell r="B143" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C143" t="str">
-            <v>store</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144" t="str">
-            <v>macarroni</v>
+            <v>tortillas</v>
           </cell>
           <cell r="B144" t="str">
             <v>c</v>
           </cell>
           <cell r="C144" t="str">
-            <v>cereals</v>
+            <v>breads</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145" t="str">
-            <v>mappleSyrup</v>
+            <v>turmeric</v>
           </cell>
           <cell r="B145" t="str">
             <v>c</v>
           </cell>
           <cell r="C145" t="str">
-            <v>condiment</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146" t="str">
-            <v>marjoran</v>
+            <v>turnip</v>
           </cell>
           <cell r="B146" t="str">
             <v>c</v>
           </cell>
           <cell r="C146" t="str">
-            <v>spice</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147" t="str">
-            <v>masalaSpices</v>
+            <v>vinegar</v>
           </cell>
           <cell r="B147" t="str">
             <v>c</v>
           </cell>
           <cell r="C147" t="str">
-            <v>spice</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148" t="str">
-            <v>measuringJar</v>
+            <v>water</v>
           </cell>
           <cell r="B148" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C148" t="str">
-            <v>measure</v>
+            <v>water</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v>measuringSpoon</v>
+            <v>whitePepper</v>
           </cell>
           <cell r="B149" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C149" t="str">
-            <v>measure</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150" t="str">
-            <v>microwave</v>
+            <v>wine</v>
           </cell>
           <cell r="B150" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C150" t="str">
-            <v>toHeat</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>milk</v>
+            <v>wipes</v>
           </cell>
           <cell r="B151" t="str">
             <v>c</v>
           </cell>
           <cell r="C151" t="str">
-            <v>dairy</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152" t="str">
-            <v>mincedMeat</v>
+            <v>worcestershireSauce</v>
           </cell>
           <cell r="B152" t="str">
             <v>c</v>
           </cell>
           <cell r="C152" t="str">
-            <v>proteins</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>mint</v>
+            <v>yogurt</v>
           </cell>
           <cell r="B153" t="str">
             <v>c</v>
           </cell>
           <cell r="C153" t="str">
-            <v>produce</v>
+            <v>dairy</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154" t="str">
-            <v>mixingBowl</v>
+            <v>coffeeMachine</v>
           </cell>
           <cell r="B154" t="str">
-            <v>u</v>
+            <v>e</v>
           </cell>
           <cell r="C154" t="str">
-            <v>contain</v>
+            <v>toHeat</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155" t="str">
-            <v>mop</v>
+            <v>cpB</v>
           </cell>
           <cell r="B155" t="str">
-            <v>u</v>
+            <v>e</v>
           </cell>
           <cell r="C155" t="str">
-            <v>clean</v>
+            <v>toStore</v>
           </cell>
         </row>
         <row r="156">
           <cell r="A156" t="str">
-            <v>mortar</v>
+            <v>dishWasher</v>
           </cell>
           <cell r="B156" t="str">
-            <v>u</v>
+            <v>e</v>
           </cell>
           <cell r="C156" t="str">
-            <v>prepare</v>
+            <v xml:space="preserve">toClean </v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157" t="str">
-            <v>mushrooms</v>
+            <v>dw</v>
           </cell>
           <cell r="B157" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C157" t="str">
-            <v>produce</v>
+            <v>toStore</v>
           </cell>
         </row>
         <row r="158">
           <cell r="A158" t="str">
-            <v>napkins</v>
+            <v>extractorFan</v>
           </cell>
           <cell r="B158" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C158" t="str">
-            <v>cleaning</v>
+            <v>toHeat</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159" t="str">
-            <v>nBook</v>
+            <v>faucet</v>
           </cell>
           <cell r="B159" t="str">
-            <v>u</v>
+            <v>e</v>
           </cell>
           <cell r="C159" t="str">
-            <v>accessInfo</v>
+            <v>toDispose</v>
           </cell>
         </row>
         <row r="160">
           <cell r="A160" t="str">
-            <v>noodles</v>
+            <v>fireAlarm</v>
           </cell>
           <cell r="B160" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C160" t="str">
-            <v>cereals</v>
+            <v>toSet</v>
           </cell>
         </row>
         <row r="161">
           <cell r="A161" t="str">
-            <v>nuggets</v>
+            <v>freezer</v>
           </cell>
           <cell r="B161" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C161" t="str">
-            <v>proteins</v>
+            <v>toStore</v>
           </cell>
         </row>
         <row r="162">
           <cell r="A162" t="str">
-            <v>nuts</v>
+            <v>fridge</v>
           </cell>
           <cell r="B162" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C162" t="str">
-            <v>cereals</v>
+            <v>toStore</v>
           </cell>
         </row>
         <row r="163">
           <cell r="A163" t="str">
-            <v>oil</v>
+            <v>lightSwitch</v>
           </cell>
           <cell r="B163" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C163" t="str">
-            <v>oils&amp;fats</v>
+            <v>toSet</v>
           </cell>
         </row>
         <row r="164">
           <cell r="A164" t="str">
-            <v>oilFlavoured</v>
+            <v>microwave</v>
           </cell>
           <cell r="B164" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C164" t="str">
-            <v>oils&amp;fats</v>
+            <v>toHeat</v>
           </cell>
         </row>
         <row r="165">
           <cell r="A165" t="str">
-            <v>onion</v>
+            <v>oven</v>
           </cell>
           <cell r="B165" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C165" t="str">
-            <v>produce</v>
+            <v>toHeat</v>
           </cell>
         </row>
         <row r="166">
           <cell r="A166" t="str">
-            <v>oregano</v>
+            <v>stove</v>
           </cell>
           <cell r="B166" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C166" t="str">
-            <v>spice</v>
+            <v>toHeat</v>
           </cell>
         </row>
         <row r="167">
           <cell r="A167" t="str">
-            <v>oven</v>
+            <v>washingMachine</v>
           </cell>
           <cell r="B167" t="str">
             <v>e</v>
           </cell>
           <cell r="C167" t="str">
-            <v>toHeat</v>
+            <v xml:space="preserve">toClean </v>
           </cell>
         </row>
         <row r="168">
           <cell r="A168" t="str">
-            <v>ovenDish</v>
+            <v>window</v>
           </cell>
           <cell r="B168" t="str">
-            <v>u</v>
+            <v>e</v>
           </cell>
           <cell r="C168" t="str">
-            <v>heat</v>
+            <v>toSet</v>
           </cell>
         </row>
         <row r="169">
           <cell r="A169" t="str">
-            <v>ovenGloves</v>
+            <v>apron</v>
           </cell>
           <cell r="B169" t="str">
             <v>u</v>
           </cell>
           <cell r="C169" t="str">
-            <v>manipulate</v>
+            <v>protect</v>
           </cell>
         </row>
         <row r="170">
           <cell r="A170" t="str">
-            <v>oysterSauce</v>
+            <v>blender</v>
           </cell>
           <cell r="B170" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C170" t="str">
-            <v>condiment</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="171">
           <cell r="A171" t="str">
-            <v>pan</v>
+            <v>bottle</v>
           </cell>
           <cell r="B171" t="str">
             <v>u</v>
           </cell>
           <cell r="C171" t="str">
-            <v>heat</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="172">
           <cell r="A172" t="str">
-            <v>panko</v>
+            <v>bowl</v>
           </cell>
           <cell r="B172" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C172" t="str">
-            <v>cereals</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="173">
           <cell r="A173" t="str">
-            <v>paprika</v>
+            <v>boxCondiments</v>
           </cell>
           <cell r="B173" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C173" t="str">
-            <v>spice</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="174">
           <cell r="A174" t="str">
-            <v>pastaServer</v>
+            <v>brush</v>
           </cell>
           <cell r="B174" t="str">
             <v>u</v>
           </cell>
           <cell r="C174" t="str">
-            <v>manipulate</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175" t="str">
-            <v>peeler</v>
+            <v>bucket</v>
           </cell>
           <cell r="B175" t="str">
             <v>u</v>
           </cell>
           <cell r="C175" t="str">
-            <v>prepare</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="176">
           <cell r="A176" t="str">
-            <v>pen</v>
+            <v>canOpener</v>
           </cell>
           <cell r="B176" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C176" t="str">
-            <v>stationery</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="177">
           <cell r="A177" t="str">
-            <v>phone</v>
+            <v>case</v>
           </cell>
           <cell r="B177" t="str">
             <v>u</v>
           </cell>
           <cell r="C177" t="str">
-            <v>tech</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="178">
           <cell r="A178" t="str">
-            <v>pizza</v>
+            <v>charger</v>
           </cell>
           <cell r="B178" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C178" t="str">
-            <v>readyToEat</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179" t="str">
-            <v>plantPot</v>
+            <v>chopB</v>
           </cell>
           <cell r="B179" t="str">
             <v>u</v>
           </cell>
           <cell r="C179" t="str">
-            <v>noCooking</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="180">
           <cell r="A180" t="str">
-            <v>plate</v>
+            <v>chopSticks</v>
           </cell>
           <cell r="B180" t="str">
             <v>u</v>
           </cell>
           <cell r="C180" t="str">
-            <v>contain</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181" t="str">
-            <v>pot</v>
+            <v>clothes</v>
           </cell>
           <cell r="B181" t="str">
             <v>u</v>
           </cell>
           <cell r="C181" t="str">
-            <v>heat</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="182">
           <cell r="A182" t="str">
-            <v>potatoes</v>
+            <v>colander</v>
           </cell>
           <cell r="B182" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C182" t="str">
-            <v>produce</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="183">
           <cell r="A183" t="str">
-            <v>prawns</v>
+            <v>computer</v>
           </cell>
           <cell r="B183" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C183" t="str">
-            <v>proteins</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="184">
           <cell r="A184" t="str">
-            <v>processor</v>
+            <v>container</v>
           </cell>
           <cell r="B184" t="str">
             <v>u</v>
           </cell>
           <cell r="C184" t="str">
-            <v>prepare</v>
+            <v>store</v>
           </cell>
         </row>
         <row r="185">
           <cell r="A185" t="str">
-            <v>quinoa&amp;rice</v>
+            <v>cookingSpoon</v>
           </cell>
           <cell r="B185" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C185" t="str">
-            <v>readyToEat</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="186">
           <cell r="A186" t="str">
-            <v>radio</v>
+            <v>crusher</v>
           </cell>
           <cell r="B186" t="str">
             <v>u</v>
           </cell>
           <cell r="C186" t="str">
-            <v>tech</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="187">
           <cell r="A187" t="str">
-            <v>rBook</v>
+            <v>cup</v>
           </cell>
           <cell r="B187" t="str">
             <v>u</v>
           </cell>
           <cell r="C187" t="str">
-            <v>accessInfo</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="188">
           <cell r="A188" t="str">
-            <v>remoteControl</v>
+            <v>cutlery</v>
           </cell>
           <cell r="B188" t="str">
             <v>u</v>
           </cell>
           <cell r="C188" t="str">
-            <v>noCooking</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="189">
           <cell r="A189" t="str">
-            <v>rice</v>
+            <v>dishTray</v>
           </cell>
           <cell r="B189" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C189" t="str">
-            <v>cereals</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="190">
           <cell r="A190" t="str">
-            <v>riceCooker</v>
+            <v>documents</v>
           </cell>
           <cell r="B190" t="str">
             <v>u</v>
           </cell>
           <cell r="C190" t="str">
-            <v>heat</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="191">
           <cell r="A191" t="str">
-            <v>rigatoni</v>
+            <v>dustBrush</v>
           </cell>
           <cell r="B191" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C191" t="str">
-            <v>cereals</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="192">
           <cell r="A192" t="str">
-            <v>rosemary</v>
+            <v>dustPan</v>
           </cell>
           <cell r="B192" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C192" t="str">
-            <v>spice</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="193">
           <cell r="A193" t="str">
-            <v>rSheet</v>
+            <v>fork</v>
           </cell>
           <cell r="B193" t="str">
             <v>u</v>
           </cell>
           <cell r="C193" t="str">
-            <v>accessInfo</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="194">
           <cell r="A194" t="str">
-            <v>salt</v>
+            <v>glass</v>
           </cell>
           <cell r="B194" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C194" t="str">
-            <v>spice</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="195">
           <cell r="A195" t="str">
-            <v>sausage</v>
+            <v>glassWine</v>
           </cell>
           <cell r="B195" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C195" t="str">
-            <v>proteins</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="196">
           <cell r="A196" t="str">
-            <v>scale</v>
+            <v>grater</v>
           </cell>
           <cell r="B196" t="str">
             <v>u</v>
           </cell>
           <cell r="C196" t="str">
-            <v>measure</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="197">
           <cell r="A197" t="str">
-            <v>scissors</v>
+            <v>holder</v>
           </cell>
           <cell r="B197" t="str">
             <v>u</v>
           </cell>
           <cell r="C197" t="str">
-            <v>prepare</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="198">
           <cell r="A198" t="str">
-            <v>sealingClips</v>
+            <v>iceRocks</v>
           </cell>
           <cell r="B198" t="str">
             <v>u</v>
           </cell>
           <cell r="C198" t="str">
-            <v>store</v>
+            <v>other</v>
           </cell>
         </row>
         <row r="199">
           <cell r="A199" t="str">
-            <v>seasoning</v>
+            <v>jar</v>
           </cell>
           <cell r="B199" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C199" t="str">
-            <v>spice</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="200">
           <cell r="A200" t="str">
-            <v>seasoningChicken</v>
+            <v>jarBlender</v>
           </cell>
           <cell r="B200" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C200" t="str">
-            <v>spice</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="201">
           <cell r="A201" t="str">
-            <v>sinkDrainer</v>
+            <v>jarLid</v>
           </cell>
           <cell r="B201" t="str">
             <v>u</v>
           </cell>
           <cell r="C201" t="str">
-            <v>manipulate</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="202">
           <cell r="A202" t="str">
-            <v>smartAssistant</v>
+            <v>kettle</v>
           </cell>
           <cell r="B202" t="str">
             <v>u</v>
           </cell>
           <cell r="C202" t="str">
-            <v>tech</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="203">
           <cell r="A203" t="str">
-            <v>smartWatch</v>
+            <v>key</v>
           </cell>
           <cell r="B203" t="str">
             <v>u</v>
           </cell>
           <cell r="C203" t="str">
-            <v>tech</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="204">
           <cell r="A204" t="str">
-            <v>smasher</v>
+            <v>knife</v>
           </cell>
           <cell r="B204" t="str">
             <v>u</v>
@@ -7160,139 +7229,139 @@
         </row>
         <row r="205">
           <cell r="A205" t="str">
-            <v>soap</v>
+            <v>ladle</v>
           </cell>
           <cell r="B205" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C205" t="str">
-            <v>cleaning</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="206">
           <cell r="A206" t="str">
-            <v>soda</v>
+            <v>lid</v>
           </cell>
           <cell r="B206" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C206" t="str">
-            <v>drinks</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="207">
           <cell r="A207" t="str">
-            <v>soySauce</v>
+            <v>lunchBag</v>
           </cell>
           <cell r="B207" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C207" t="str">
-            <v>condiment</v>
+            <v>store</v>
           </cell>
         </row>
         <row r="208">
           <cell r="A208" t="str">
-            <v>spaghetti</v>
+            <v>measuringJar</v>
           </cell>
           <cell r="B208" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C208" t="str">
-            <v>cereals</v>
+            <v>measure</v>
           </cell>
         </row>
         <row r="209">
           <cell r="A209" t="str">
-            <v>speaker</v>
+            <v>measuringSpoon</v>
           </cell>
           <cell r="B209" t="str">
             <v>u</v>
           </cell>
           <cell r="C209" t="str">
-            <v>tech</v>
+            <v>measure</v>
           </cell>
         </row>
         <row r="210">
           <cell r="A210" t="str">
-            <v>spice_ui</v>
+            <v>mixingBowl</v>
           </cell>
           <cell r="B210" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C210" t="str">
-            <v>spice</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="211">
           <cell r="A211" t="str">
-            <v>spinach</v>
+            <v>mop</v>
           </cell>
           <cell r="B211" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C211" t="str">
-            <v>produce</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="212">
           <cell r="A212" t="str">
-            <v>spirit</v>
+            <v>mortar</v>
           </cell>
           <cell r="B212" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C212" t="str">
-            <v>drinks</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="213">
           <cell r="A213" t="str">
-            <v>sponge</v>
+            <v>nBook</v>
           </cell>
           <cell r="B213" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C213" t="str">
-            <v>cleaning</v>
+            <v>accessInfo</v>
           </cell>
         </row>
         <row r="214">
           <cell r="A214" t="str">
-            <v>spoon</v>
+            <v>ovenDish</v>
           </cell>
           <cell r="B214" t="str">
             <v>u</v>
           </cell>
           <cell r="C214" t="str">
-            <v>manipulate</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="215">
           <cell r="A215" t="str">
-            <v>springOnion</v>
+            <v>ovenGloves</v>
           </cell>
           <cell r="B215" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C215" t="str">
-            <v>produce</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="216">
           <cell r="A216" t="str">
-            <v>stove</v>
+            <v>pan</v>
           </cell>
           <cell r="B216" t="str">
-            <v>e</v>
+            <v>u</v>
           </cell>
           <cell r="C216" t="str">
-            <v>toHeat</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="217">
           <cell r="A217" t="str">
-            <v>strainer</v>
+            <v>pastaServer</v>
           </cell>
           <cell r="B217" t="str">
             <v>u</v>
@@ -7303,387 +7372,387 @@
         </row>
         <row r="218">
           <cell r="A218" t="str">
-            <v>sugar</v>
+            <v>peeler</v>
           </cell>
           <cell r="B218" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C218" t="str">
-            <v>spice</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="219">
           <cell r="A219" t="str">
-            <v>sweetPotatoes</v>
+            <v>phone</v>
           </cell>
           <cell r="B219" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C219" t="str">
-            <v>produce</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="220">
           <cell r="A220" t="str">
-            <v>tablet</v>
+            <v>plantPot</v>
           </cell>
           <cell r="B220" t="str">
             <v>u</v>
           </cell>
           <cell r="C220" t="str">
-            <v>tech</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="221">
           <cell r="A221" t="str">
-            <v>tahini</v>
+            <v>plate</v>
           </cell>
           <cell r="B221" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C221" t="str">
-            <v>condiment</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="222">
           <cell r="A222" t="str">
-            <v>tea</v>
+            <v>pot</v>
           </cell>
           <cell r="B222" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C222" t="str">
-            <v>drinks</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="223">
           <cell r="A223" t="str">
-            <v>teaPot</v>
+            <v>processor</v>
           </cell>
           <cell r="B223" t="str">
             <v>u</v>
           </cell>
           <cell r="C223" t="str">
-            <v>heat</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="224">
           <cell r="A224" t="str">
-            <v>thyme</v>
+            <v>radio</v>
           </cell>
           <cell r="B224" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C224" t="str">
-            <v>produce</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="225">
           <cell r="A225" t="str">
-            <v>timer</v>
+            <v>rBook</v>
           </cell>
           <cell r="B225" t="str">
             <v>u</v>
           </cell>
           <cell r="C225" t="str">
-            <v>measure</v>
+            <v>accessInfo</v>
           </cell>
         </row>
         <row r="226">
           <cell r="A226" t="str">
-            <v>toaster</v>
+            <v>remoteControl</v>
           </cell>
           <cell r="B226" t="str">
             <v>u</v>
           </cell>
           <cell r="C226" t="str">
-            <v>heat</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="227">
           <cell r="A227" t="str">
-            <v>toiletPaper</v>
+            <v>riceCooker</v>
           </cell>
           <cell r="B227" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C227" t="str">
-            <v>cleaning</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="228">
           <cell r="A228" t="str">
-            <v>tomatoes</v>
+            <v>rSheet</v>
           </cell>
           <cell r="B228" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C228" t="str">
-            <v>produce</v>
+            <v>accessInfo</v>
           </cell>
         </row>
         <row r="229">
           <cell r="A229" t="str">
-            <v>tomatoesProcessed</v>
+            <v>scale</v>
           </cell>
           <cell r="B229" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C229" t="str">
-            <v>condiment</v>
+            <v>measure</v>
           </cell>
         </row>
         <row r="230">
           <cell r="A230" t="str">
-            <v>tomatoesSauce</v>
+            <v>scissors</v>
           </cell>
           <cell r="B230" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C230" t="str">
-            <v>condiment</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="231">
           <cell r="A231" t="str">
-            <v>tongs</v>
+            <v>sealingClips</v>
           </cell>
           <cell r="B231" t="str">
             <v>u</v>
           </cell>
           <cell r="C231" t="str">
-            <v>manipulate</v>
+            <v>store</v>
           </cell>
         </row>
         <row r="232">
           <cell r="A232" t="str">
-            <v>tortillas</v>
+            <v>sinkDrainer</v>
           </cell>
           <cell r="B232" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C232" t="str">
-            <v>breads</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="233">
           <cell r="A233" t="str">
-            <v>towel</v>
+            <v>smartAssistant</v>
           </cell>
           <cell r="B233" t="str">
             <v>u</v>
           </cell>
           <cell r="C233" t="str">
-            <v>clean</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="234">
           <cell r="A234" t="str">
-            <v>trashB</v>
+            <v>smartWatch</v>
           </cell>
           <cell r="B234" t="str">
             <v>u</v>
           </cell>
           <cell r="C234" t="str">
-            <v>dispose</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="235">
           <cell r="A235" t="str">
-            <v>tray</v>
+            <v>smasher</v>
           </cell>
           <cell r="B235" t="str">
             <v>u</v>
           </cell>
           <cell r="C235" t="str">
-            <v>heat</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="236">
           <cell r="A236" t="str">
-            <v>turmeric</v>
+            <v>speaker</v>
           </cell>
           <cell r="B236" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C236" t="str">
-            <v>spice</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="237">
           <cell r="A237" t="str">
-            <v>turnip</v>
+            <v>spoon</v>
           </cell>
           <cell r="B237" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C237" t="str">
-            <v>produce</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="238">
           <cell r="A238" t="str">
-            <v>vacuum</v>
+            <v>strainer</v>
           </cell>
           <cell r="B238" t="str">
             <v>u</v>
           </cell>
           <cell r="C238" t="str">
-            <v>clean</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="239">
           <cell r="A239" t="str">
-            <v>vaper</v>
+            <v>tablet</v>
           </cell>
           <cell r="B239" t="str">
             <v>u</v>
           </cell>
           <cell r="C239" t="str">
-            <v>noCooking</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="240">
           <cell r="A240" t="str">
-            <v>vessel</v>
+            <v>teaPot</v>
           </cell>
           <cell r="B240" t="str">
             <v>u</v>
           </cell>
           <cell r="C240" t="str">
-            <v>noCooking</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="241">
           <cell r="A241" t="str">
-            <v>vinegar</v>
+            <v>timer</v>
           </cell>
           <cell r="B241" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C241" t="str">
-            <v>condiment</v>
+            <v>measure</v>
           </cell>
         </row>
         <row r="242">
           <cell r="A242" t="str">
-            <v>washingMachine</v>
+            <v>toaster</v>
           </cell>
           <cell r="B242" t="str">
-            <v>e</v>
+            <v>u</v>
           </cell>
           <cell r="C242" t="str">
-            <v xml:space="preserve">toClean </v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="243">
           <cell r="A243" t="str">
-            <v>water</v>
+            <v>tongs</v>
           </cell>
           <cell r="B243" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C243" t="str">
-            <v>water</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="244">
           <cell r="A244" t="str">
-            <v>whisk</v>
+            <v>towel</v>
           </cell>
           <cell r="B244" t="str">
             <v>u</v>
           </cell>
           <cell r="C244" t="str">
-            <v>manipulate</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="245">
           <cell r="A245" t="str">
-            <v>whitePepper</v>
+            <v>trashB</v>
           </cell>
           <cell r="B245" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C245" t="str">
-            <v>spice</v>
+            <v>dispose</v>
           </cell>
         </row>
         <row r="246">
           <cell r="A246" t="str">
-            <v>window</v>
+            <v>tray</v>
           </cell>
           <cell r="B246" t="str">
-            <v>e</v>
+            <v>u</v>
           </cell>
           <cell r="C246" t="str">
-            <v>toSet</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="247">
           <cell r="A247" t="str">
-            <v>wine</v>
+            <v>vacuum</v>
           </cell>
           <cell r="B247" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C247" t="str">
-            <v>drinks</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="248">
           <cell r="A248" t="str">
-            <v>wipes</v>
+            <v>vaper</v>
           </cell>
           <cell r="B248" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C248" t="str">
-            <v>cleaning</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249" t="str">
-            <v>wok</v>
+            <v>vessel</v>
           </cell>
           <cell r="B249" t="str">
             <v>u</v>
           </cell>
           <cell r="C249" t="str">
-            <v>heat</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="250">
           <cell r="A250" t="str">
-            <v>worcestershireSauce</v>
+            <v>whisk</v>
           </cell>
           <cell r="B250" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C250" t="str">
-            <v>condiment</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="251">
           <cell r="A251" t="str">
-            <v>wristWatch</v>
+            <v>wok</v>
           </cell>
           <cell r="B251" t="str">
             <v>u</v>
           </cell>
           <cell r="C251" t="str">
-            <v>measure</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="252">
           <cell r="A252" t="str">
-            <v>yogurt</v>
+            <v>wristWatch</v>
           </cell>
           <cell r="B252" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C252" t="str">
-            <v>dairy</v>
+            <v>measure</v>
           </cell>
         </row>
       </sheetData>
@@ -7692,6 +7761,9 @@
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/files/p19.xlsx
+++ b/files/p19.xlsx
@@ -34725,19 +34725,19 @@
         <v>23</v>
       </c>
       <c r="E2" s="19">
-        <f>D2-C2</f>
+        <f t="shared" ref="E2:E65" si="0">D2-C2</f>
         <v>1.0185185185185189E-3</v>
       </c>
       <c r="F2" s="6">
-        <f>HOUR(E2) *3600 + MINUTE(E2) * 60 + SECOND(E2)</f>
+        <f t="shared" ref="F2:F65" si="1">HOUR(E2) *3600 + MINUTE(E2) * 60 + SECOND(E2)</f>
         <v>88</v>
       </c>
       <c r="G2" s="22">
-        <f>HOUR(C2) *3600 + MINUTE(C2) * 60 + SECOND(C2)</f>
+        <f t="shared" ref="G2:G65" si="2">HOUR(C2) *3600 + MINUTE(C2) * 60 + SECOND(C2)</f>
         <v>180</v>
       </c>
       <c r="H2" s="22">
-        <f>HOUR(D2) *3600 + MINUTE(D2) * 60 + SECOND(D2)</f>
+        <f t="shared" ref="H2:H65" si="3">HOUR(D2) *3600 + MINUTE(D2) * 60 + SECOND(D2)</f>
         <v>268</v>
       </c>
       <c r="I2" s="27" t="str">
@@ -34775,19 +34775,19 @@
         <v>574</v>
       </c>
       <c r="E3" s="19">
-        <f>D3-C3</f>
+        <f t="shared" si="0"/>
         <v>4.6296296296297751E-5</v>
       </c>
       <c r="F3" s="6">
-        <f>HOUR(E3) *3600 + MINUTE(E3) * 60 + SECOND(E3)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G3" s="22">
-        <f>HOUR(C3) *3600 + MINUTE(C3) * 60 + SECOND(C3)</f>
+        <f t="shared" si="2"/>
         <v>1950</v>
       </c>
       <c r="H3" s="22">
-        <f>HOUR(D3) *3600 + MINUTE(D3) * 60 + SECOND(D3)</f>
+        <f t="shared" si="3"/>
         <v>1954</v>
       </c>
       <c r="I3" s="27" t="str">
@@ -34822,19 +34822,19 @@
         <v>579</v>
       </c>
       <c r="E4" s="19">
-        <f>D4-C4</f>
+        <f t="shared" si="0"/>
         <v>2.5462962962963243E-4</v>
       </c>
       <c r="F4" s="6">
-        <f>HOUR(E4) *3600 + MINUTE(E4) * 60 + SECOND(E4)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="G4" s="22">
-        <f>HOUR(C4) *3600 + MINUTE(C4) * 60 + SECOND(C4)</f>
+        <f t="shared" si="2"/>
         <v>1962</v>
       </c>
       <c r="H4" s="22">
-        <f>HOUR(D4) *3600 + MINUTE(D4) * 60 + SECOND(D4)</f>
+        <f t="shared" si="3"/>
         <v>1984</v>
       </c>
       <c r="I4" s="27" t="str">
@@ -34867,19 +34867,19 @@
         <v>588</v>
       </c>
       <c r="E5" s="19">
-        <f>D5-C5</f>
+        <f t="shared" si="0"/>
         <v>9.2592592592595502E-5</v>
       </c>
       <c r="F5" s="6">
-        <f>HOUR(E5) *3600 + MINUTE(E5) * 60 + SECOND(E5)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G5" s="22">
-        <f>HOUR(C5) *3600 + MINUTE(C5) * 60 + SECOND(C5)</f>
+        <f t="shared" si="2"/>
         <v>2014</v>
       </c>
       <c r="H5" s="22">
-        <f>HOUR(D5) *3600 + MINUTE(D5) * 60 + SECOND(D5)</f>
+        <f t="shared" si="3"/>
         <v>2022</v>
       </c>
       <c r="I5" s="27" t="str">
@@ -34912,19 +34912,19 @@
         <v>617</v>
       </c>
       <c r="E6" s="19">
-        <f>D6-C6</f>
+        <f t="shared" si="0"/>
         <v>2.314814814815408E-5</v>
       </c>
       <c r="F6" s="6">
-        <f>HOUR(E6) *3600 + MINUTE(E6) * 60 + SECOND(E6)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G6" s="22">
-        <f>HOUR(C6) *3600 + MINUTE(C6) * 60 + SECOND(C6)</f>
+        <f t="shared" si="2"/>
         <v>2102</v>
       </c>
       <c r="H6" s="22">
-        <f>HOUR(D6) *3600 + MINUTE(D6) * 60 + SECOND(D6)</f>
+        <f t="shared" si="3"/>
         <v>2104</v>
       </c>
       <c r="I6" s="27" t="str">
@@ -34957,19 +34957,19 @@
         <v>913</v>
       </c>
       <c r="E7" s="19">
-        <f>D7-C7</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444441422E-5</v>
       </c>
       <c r="F7" s="6">
-        <f>HOUR(E7) *3600 + MINUTE(E7) * 60 + SECOND(E7)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G7" s="22">
-        <f>HOUR(C7) *3600 + MINUTE(C7) * 60 + SECOND(C7)</f>
+        <f t="shared" si="2"/>
         <v>3674</v>
       </c>
       <c r="H7" s="22">
-        <f>HOUR(D7) *3600 + MINUTE(D7) * 60 + SECOND(D7)</f>
+        <f t="shared" si="3"/>
         <v>3680</v>
       </c>
       <c r="I7" s="27" t="str">
@@ -35005,19 +35005,19 @@
         <v>291</v>
       </c>
       <c r="E8" s="19">
-        <f>D8-C8</f>
+        <f t="shared" si="0"/>
         <v>1.3888888888888978E-4</v>
       </c>
       <c r="F8" s="6">
-        <f>HOUR(E8) *3600 + MINUTE(E8) * 60 + SECOND(E8)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G8" s="22">
-        <f>HOUR(C8) *3600 + MINUTE(C8) * 60 + SECOND(C8)</f>
+        <f t="shared" si="2"/>
         <v>996</v>
       </c>
       <c r="H8" s="22">
-        <f>HOUR(D8) *3600 + MINUTE(D8) * 60 + SECOND(D8)</f>
+        <f t="shared" si="3"/>
         <v>1008</v>
       </c>
       <c r="I8" s="27" t="str">
@@ -35050,19 +35050,19 @@
         <v>499</v>
       </c>
       <c r="E9" s="19">
-        <f>D9-C9</f>
+        <f t="shared" si="0"/>
         <v>2.314814814815061E-5</v>
       </c>
       <c r="F9" s="6">
-        <f>HOUR(E9) *3600 + MINUTE(E9) * 60 + SECOND(E9)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G9" s="22">
-        <f>HOUR(C9) *3600 + MINUTE(C9) * 60 + SECOND(C9)</f>
+        <f t="shared" si="2"/>
         <v>1624</v>
       </c>
       <c r="H9" s="22">
-        <f>HOUR(D9) *3600 + MINUTE(D9) * 60 + SECOND(D9)</f>
+        <f t="shared" si="3"/>
         <v>1626</v>
       </c>
       <c r="I9" s="27" t="str">
@@ -35095,19 +35095,19 @@
         <v>52</v>
       </c>
       <c r="E10" s="19">
-        <f>D10-C10</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444241E-5</v>
       </c>
       <c r="F10" s="6">
-        <f>HOUR(E10) *3600 + MINUTE(E10) * 60 + SECOND(E10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G10" s="22">
-        <f>HOUR(C10) *3600 + MINUTE(C10) * 60 + SECOND(C10)</f>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="H10" s="22">
-        <f>HOUR(D10) *3600 + MINUTE(D10) * 60 + SECOND(D10)</f>
+        <f t="shared" si="3"/>
         <v>154</v>
       </c>
       <c r="I10" s="27" t="str">
@@ -35140,19 +35140,19 @@
         <v>273</v>
       </c>
       <c r="E11" s="19">
-        <f>D11-C11</f>
+        <f t="shared" si="0"/>
         <v>9.2592592592592726E-4</v>
       </c>
       <c r="F11" s="6">
-        <f>HOUR(E11) *3600 + MINUTE(E11) * 60 + SECOND(E11)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="G11" s="22">
-        <f>HOUR(C11) *3600 + MINUTE(C11) * 60 + SECOND(C11)</f>
+        <f t="shared" si="2"/>
         <v>854</v>
       </c>
       <c r="H11" s="22">
-        <f>HOUR(D11) *3600 + MINUTE(D11) * 60 + SECOND(D11)</f>
+        <f t="shared" si="3"/>
         <v>934</v>
       </c>
       <c r="I11" s="27" t="str">
@@ -35185,19 +35185,19 @@
         <v>289</v>
       </c>
       <c r="E12" s="19">
-        <f>D12-C12</f>
+        <f t="shared" si="0"/>
         <v>1.6203703703703866E-4</v>
       </c>
       <c r="F12" s="6">
-        <f>HOUR(E12) *3600 + MINUTE(E12) * 60 + SECOND(E12)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="G12" s="22">
-        <f>HOUR(C12) *3600 + MINUTE(C12) * 60 + SECOND(C12)</f>
+        <f t="shared" si="2"/>
         <v>1018</v>
       </c>
       <c r="H12" s="22">
-        <f>HOUR(D12) *3600 + MINUTE(D12) * 60 + SECOND(D12)</f>
+        <f t="shared" si="3"/>
         <v>1032</v>
       </c>
       <c r="I12" s="27" t="str">
@@ -35233,19 +35233,19 @@
         <v>52</v>
       </c>
       <c r="E13" s="19">
-        <f>D13-C13</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444241E-5</v>
       </c>
       <c r="F13" s="6">
-        <f>HOUR(E13) *3600 + MINUTE(E13) * 60 + SECOND(E13)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G13" s="22">
-        <f>HOUR(C13) *3600 + MINUTE(C13) * 60 + SECOND(C13)</f>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="H13" s="22">
-        <f>HOUR(D13) *3600 + MINUTE(D13) * 60 + SECOND(D13)</f>
+        <f t="shared" si="3"/>
         <v>154</v>
       </c>
       <c r="I13" s="27" t="str">
@@ -35278,19 +35278,19 @@
         <v>276</v>
       </c>
       <c r="E14" s="19">
-        <f>D14-C14</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444446626E-5</v>
       </c>
       <c r="F14" s="6">
-        <f>HOUR(E14) *3600 + MINUTE(E14) * 60 + SECOND(E14)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G14" s="22">
-        <f>HOUR(C14) *3600 + MINUTE(C14) * 60 + SECOND(C14)</f>
+        <f t="shared" si="2"/>
         <v>854</v>
       </c>
       <c r="H14" s="22">
-        <f>HOUR(D14) *3600 + MINUTE(D14) * 60 + SECOND(D14)</f>
+        <f t="shared" si="3"/>
         <v>860</v>
       </c>
       <c r="I14" s="27" t="str">
@@ -35323,19 +35323,19 @@
         <v>289</v>
       </c>
       <c r="E15" s="19">
-        <f>D15-C15</f>
+        <f t="shared" si="0"/>
         <v>4.1666666666666761E-4</v>
       </c>
       <c r="F15" s="6">
-        <f>HOUR(E15) *3600 + MINUTE(E15) * 60 + SECOND(E15)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="G15" s="22">
-        <f>HOUR(C15) *3600 + MINUTE(C15) * 60 + SECOND(C15)</f>
+        <f t="shared" si="2"/>
         <v>996</v>
       </c>
       <c r="H15" s="22">
-        <f>HOUR(D15) *3600 + MINUTE(D15) * 60 + SECOND(D15)</f>
+        <f t="shared" si="3"/>
         <v>1032</v>
       </c>
       <c r="I15" s="27" t="str">
@@ -35368,19 +35368,19 @@
         <v>31</v>
       </c>
       <c r="E16" s="19">
-        <f>D16-C16</f>
+        <f t="shared" si="0"/>
         <v>4.6296296296296233E-5</v>
       </c>
       <c r="F16" s="6">
-        <f>HOUR(E16) *3600 + MINUTE(E16) * 60 + SECOND(E16)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G16" s="22">
-        <f>HOUR(C16) *3600 + MINUTE(C16) * 60 + SECOND(C16)</f>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="H16" s="22">
-        <f>HOUR(D16) *3600 + MINUTE(D16) * 60 + SECOND(D16)</f>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="I16" s="27" t="str">
@@ -35413,19 +35413,19 @@
         <v>36</v>
       </c>
       <c r="E17" s="19">
-        <f>D17-C17</f>
+        <f t="shared" si="0"/>
         <v>4.6296296296296016E-5</v>
       </c>
       <c r="F17" s="6">
-        <f>HOUR(E17) *3600 + MINUTE(E17) * 60 + SECOND(E17)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G17" s="22">
-        <f>HOUR(C17) *3600 + MINUTE(C17) * 60 + SECOND(C17)</f>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="H17" s="22">
-        <f>HOUR(D17) *3600 + MINUTE(D17) * 60 + SECOND(D17)</f>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="I17" s="27" t="str">
@@ -35458,19 +35458,19 @@
         <v>83</v>
       </c>
       <c r="E18" s="19">
-        <f>D18-C18</f>
+        <f t="shared" si="0"/>
         <v>1.1574074074074178E-4</v>
       </c>
       <c r="F18" s="6">
-        <f>HOUR(E18) *3600 + MINUTE(E18) * 60 + SECOND(E18)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G18" s="22">
-        <f>HOUR(C18) *3600 + MINUTE(C18) * 60 + SECOND(C18)</f>
+        <f t="shared" si="2"/>
         <v>284</v>
       </c>
       <c r="H18" s="22">
-        <f>HOUR(D18) *3600 + MINUTE(D18) * 60 + SECOND(D18)</f>
+        <f t="shared" si="3"/>
         <v>294</v>
       </c>
       <c r="I18" s="27" t="str">
@@ -35503,19 +35503,19 @@
         <v>121</v>
       </c>
       <c r="E19" s="19">
-        <f>D19-C19</f>
+        <f t="shared" si="0"/>
         <v>4.3981481481481562E-4</v>
       </c>
       <c r="F19" s="6">
-        <f>HOUR(E19) *3600 + MINUTE(E19) * 60 + SECOND(E19)</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="G19" s="22">
-        <f>HOUR(C19) *3600 + MINUTE(C19) * 60 + SECOND(C19)</f>
+        <f t="shared" si="2"/>
         <v>362</v>
       </c>
       <c r="H19" s="22">
-        <f>HOUR(D19) *3600 + MINUTE(D19) * 60 + SECOND(D19)</f>
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
       <c r="I19" s="27" t="str">
@@ -35548,19 +35548,19 @@
         <v>136</v>
       </c>
       <c r="E20" s="19">
-        <f>D20-C20</f>
+        <f t="shared" si="0"/>
         <v>1.2037037037037034E-3</v>
       </c>
       <c r="F20" s="6">
-        <f>HOUR(E20) *3600 + MINUTE(E20) * 60 + SECOND(E20)</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="G20" s="22">
-        <f>HOUR(C20) *3600 + MINUTE(C20) * 60 + SECOND(C20)</f>
+        <f t="shared" si="2"/>
         <v>428</v>
       </c>
       <c r="H20" s="22">
-        <f>HOUR(D20) *3600 + MINUTE(D20) * 60 + SECOND(D20)</f>
+        <f t="shared" si="3"/>
         <v>532</v>
       </c>
       <c r="I20" s="27" t="str">
@@ -35593,19 +35593,19 @@
         <v>241</v>
       </c>
       <c r="E21" s="19">
-        <f>D21-C21</f>
+        <f t="shared" si="0"/>
         <v>1.3888888888888805E-4</v>
       </c>
       <c r="F21" s="6">
-        <f>HOUR(E21) *3600 + MINUTE(E21) * 60 + SECOND(E21)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G21" s="22">
-        <f>HOUR(C21) *3600 + MINUTE(C21) * 60 + SECOND(C21)</f>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="H21" s="22">
-        <f>HOUR(D21) *3600 + MINUTE(D21) * 60 + SECOND(D21)</f>
+        <f t="shared" si="3"/>
         <v>762</v>
       </c>
       <c r="I21" s="27" t="str">
@@ -35638,19 +35638,19 @@
         <v>66</v>
       </c>
       <c r="E22" s="19">
-        <f>D22-C22</f>
+        <f t="shared" si="0"/>
         <v>4.629629629629645E-5</v>
       </c>
       <c r="F22" s="6">
-        <f>HOUR(E22) *3600 + MINUTE(E22) * 60 + SECOND(E22)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G22" s="22">
-        <f>HOUR(C22) *3600 + MINUTE(C22) * 60 + SECOND(C22)</f>
+        <f t="shared" si="2"/>
         <v>198</v>
       </c>
       <c r="H22" s="22">
-        <f>HOUR(D22) *3600 + MINUTE(D22) * 60 + SECOND(D22)</f>
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="I22" s="27" t="str">
@@ -35684,19 +35684,19 @@
         <v>519</v>
       </c>
       <c r="E23" s="19">
-        <f>D23-C23</f>
+        <f t="shared" si="0"/>
         <v>1.1574074074074264E-4</v>
       </c>
       <c r="F23" s="6">
-        <f>HOUR(E23) *3600 + MINUTE(E23) * 60 + SECOND(E23)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G23" s="22">
-        <f>HOUR(C23) *3600 + MINUTE(C23) * 60 + SECOND(C23)</f>
+        <f t="shared" si="2"/>
         <v>1696</v>
       </c>
       <c r="H23" s="22">
-        <f>HOUR(D23) *3600 + MINUTE(D23) * 60 + SECOND(D23)</f>
+        <f t="shared" si="3"/>
         <v>1706</v>
       </c>
       <c r="I23" s="27" t="str">
@@ -35729,19 +35729,19 @@
         <v>522</v>
       </c>
       <c r="E24" s="19">
-        <f>D24-C24</f>
+        <f t="shared" si="0"/>
         <v>3.0092592592592324E-4</v>
       </c>
       <c r="F24" s="6">
-        <f>HOUR(E24) *3600 + MINUTE(E24) * 60 + SECOND(E24)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="G24" s="22">
-        <f>HOUR(C24) *3600 + MINUTE(C24) * 60 + SECOND(C24)</f>
+        <f t="shared" si="2"/>
         <v>1798</v>
       </c>
       <c r="H24" s="22">
-        <f>HOUR(D24) *3600 + MINUTE(D24) * 60 + SECOND(D24)</f>
+        <f t="shared" si="3"/>
         <v>1824</v>
       </c>
       <c r="I24" s="27" t="str">
@@ -35774,19 +35774,19 @@
         <v>66</v>
       </c>
       <c r="E25" s="19">
-        <f>D25-C25</f>
+        <f t="shared" si="0"/>
         <v>4.629629629629645E-5</v>
       </c>
       <c r="F25" s="6">
-        <f>HOUR(E25) *3600 + MINUTE(E25) * 60 + SECOND(E25)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G25" s="22">
-        <f>HOUR(C25) *3600 + MINUTE(C25) * 60 + SECOND(C25)</f>
+        <f t="shared" si="2"/>
         <v>198</v>
       </c>
       <c r="H25" s="22">
-        <f>HOUR(D25) *3600 + MINUTE(D25) * 60 + SECOND(D25)</f>
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="I25" s="27" t="str">
@@ -35819,19 +35819,19 @@
         <v>522</v>
       </c>
       <c r="E26" s="19">
-        <f>D26-C26</f>
+        <f t="shared" si="0"/>
         <v>1.3425925925925931E-3</v>
       </c>
       <c r="F26" s="6">
-        <f>HOUR(E26) *3600 + MINUTE(E26) * 60 + SECOND(E26)</f>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="G26" s="22">
-        <f>HOUR(C26) *3600 + MINUTE(C26) * 60 + SECOND(C26)</f>
+        <f t="shared" si="2"/>
         <v>1708</v>
       </c>
       <c r="H26" s="22">
-        <f>HOUR(D26) *3600 + MINUTE(D26) * 60 + SECOND(D26)</f>
+        <f t="shared" si="3"/>
         <v>1824</v>
       </c>
       <c r="I26" s="27" t="str">
@@ -35864,19 +35864,19 @@
         <v>133</v>
       </c>
       <c r="E27" s="19">
-        <f>D27-C27</f>
+        <f t="shared" si="0"/>
         <v>4.6296296296296016E-5</v>
       </c>
       <c r="F27" s="6">
-        <f>HOUR(E27) *3600 + MINUTE(E27) * 60 + SECOND(E27)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G27" s="22">
-        <f>HOUR(C27) *3600 + MINUTE(C27) * 60 + SECOND(C27)</f>
+        <f t="shared" si="2"/>
         <v>414</v>
       </c>
       <c r="H27" s="22">
-        <f>HOUR(D27) *3600 + MINUTE(D27) * 60 + SECOND(D27)</f>
+        <f t="shared" si="3"/>
         <v>418</v>
       </c>
       <c r="I27" s="27" t="str">
@@ -35909,19 +35909,19 @@
         <v>143</v>
       </c>
       <c r="E28" s="19">
-        <f>D28-C28</f>
+        <f t="shared" si="0"/>
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="F28" s="6">
-        <f>HOUR(E28) *3600 + MINUTE(E28) * 60 + SECOND(E28)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G28" s="22">
-        <f>HOUR(C28) *3600 + MINUTE(C28) * 60 + SECOND(C28)</f>
+        <f t="shared" si="2"/>
         <v>448</v>
       </c>
       <c r="H28" s="22">
-        <f>HOUR(D28) *3600 + MINUTE(D28) * 60 + SECOND(D28)</f>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="I28" s="27" t="str">
@@ -35954,19 +35954,19 @@
         <v>146</v>
       </c>
       <c r="E29" s="19">
-        <f>D29-C29</f>
+        <f t="shared" si="0"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F29" s="6">
-        <f>HOUR(E29) *3600 + MINUTE(E29) * 60 + SECOND(E29)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G29" s="22">
-        <f>HOUR(C29) *3600 + MINUTE(C29) * 60 + SECOND(C29)</f>
+        <f t="shared" si="2"/>
         <v>474</v>
       </c>
       <c r="H29" s="22">
-        <f>HOUR(D29) *3600 + MINUTE(D29) * 60 + SECOND(D29)</f>
+        <f t="shared" si="3"/>
         <v>476</v>
       </c>
       <c r="I29" s="27" t="str">
@@ -35999,19 +35999,19 @@
         <v>154</v>
       </c>
       <c r="E30" s="19">
-        <f>D30-C30</f>
+        <f t="shared" si="0"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F30" s="6">
-        <f>HOUR(E30) *3600 + MINUTE(E30) * 60 + SECOND(E30)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G30" s="22">
-        <f>HOUR(C30) *3600 + MINUTE(C30) * 60 + SECOND(C30)</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="H30" s="22">
-        <f>HOUR(D30) *3600 + MINUTE(D30) * 60 + SECOND(D30)</f>
+        <f t="shared" si="3"/>
         <v>518</v>
       </c>
       <c r="I30" s="27" t="str">
@@ -36044,19 +36044,19 @@
         <v>136</v>
       </c>
       <c r="E31" s="19">
-        <f>D31-C31</f>
+        <f t="shared" si="0"/>
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="F31" s="6">
-        <f>HOUR(E31) *3600 + MINUTE(E31) * 60 + SECOND(E31)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G31" s="22">
-        <f>HOUR(C31) *3600 + MINUTE(C31) * 60 + SECOND(C31)</f>
+        <f t="shared" si="2"/>
         <v>530</v>
       </c>
       <c r="H31" s="22">
-        <f>HOUR(D31) *3600 + MINUTE(D31) * 60 + SECOND(D31)</f>
+        <f t="shared" si="3"/>
         <v>532</v>
       </c>
       <c r="I31" s="27" t="str">
@@ -36089,19 +36089,19 @@
         <v>232</v>
       </c>
       <c r="E32" s="19">
-        <f>D32-C32</f>
+        <f t="shared" si="0"/>
         <v>2.3148148148148875E-5</v>
       </c>
       <c r="F32" s="6">
-        <f>HOUR(E32) *3600 + MINUTE(E32) * 60 + SECOND(E32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G32" s="22">
-        <f>HOUR(C32) *3600 + MINUTE(C32) * 60 + SECOND(C32)</f>
+        <f t="shared" si="2"/>
         <v>744</v>
       </c>
       <c r="H32" s="22">
-        <f>HOUR(D32) *3600 + MINUTE(D32) * 60 + SECOND(D32)</f>
+        <f t="shared" si="3"/>
         <v>746</v>
       </c>
       <c r="I32" s="27" t="str">
@@ -36134,19 +36134,19 @@
         <v>244</v>
       </c>
       <c r="E33" s="19">
-        <f>D33-C33</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444892E-5</v>
       </c>
       <c r="F33" s="6">
-        <f>HOUR(E33) *3600 + MINUTE(E33) * 60 + SECOND(E33)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G33" s="22">
-        <f>HOUR(C33) *3600 + MINUTE(C33) * 60 + SECOND(C33)</f>
+        <f t="shared" si="2"/>
         <v>754</v>
       </c>
       <c r="H33" s="22">
-        <f>HOUR(D33) *3600 + MINUTE(D33) * 60 + SECOND(D33)</f>
+        <f t="shared" si="3"/>
         <v>760</v>
       </c>
       <c r="I33" s="27" t="str">
@@ -36179,19 +36179,19 @@
         <v>250</v>
       </c>
       <c r="E34" s="19">
-        <f>D34-C34</f>
+        <f t="shared" si="0"/>
         <v>5.787037037037028E-4</v>
       </c>
       <c r="F34" s="6">
-        <f>HOUR(E34) *3600 + MINUTE(E34) * 60 + SECOND(E34)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G34" s="22">
-        <f>HOUR(C34) *3600 + MINUTE(C34) * 60 + SECOND(C34)</f>
+        <f t="shared" si="2"/>
         <v>768</v>
       </c>
       <c r="H34" s="22">
-        <f>HOUR(D34) *3600 + MINUTE(D34) * 60 + SECOND(D34)</f>
+        <f t="shared" si="3"/>
         <v>818</v>
       </c>
       <c r="I34" s="27" t="str">
@@ -36224,19 +36224,19 @@
         <v>343</v>
       </c>
       <c r="E35" s="19">
-        <f>D35-C35</f>
+        <f t="shared" si="0"/>
         <v>2.3148148148148875E-5</v>
       </c>
       <c r="F35" s="6">
-        <f>HOUR(E35) *3600 + MINUTE(E35) * 60 + SECOND(E35)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G35" s="22">
-        <f>HOUR(C35) *3600 + MINUTE(C35) * 60 + SECOND(C35)</f>
+        <f t="shared" si="2"/>
         <v>1130</v>
       </c>
       <c r="H35" s="22">
-        <f>HOUR(D35) *3600 + MINUTE(D35) * 60 + SECOND(D35)</f>
+        <f t="shared" si="3"/>
         <v>1132</v>
       </c>
       <c r="I35" s="27" t="str">
@@ -36269,19 +36269,19 @@
         <v>384</v>
       </c>
       <c r="E36" s="19">
-        <f>D36-C36</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444443157E-5</v>
       </c>
       <c r="F36" s="6">
-        <f>HOUR(E36) *3600 + MINUTE(E36) * 60 + SECOND(E36)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G36" s="22">
-        <f>HOUR(C36) *3600 + MINUTE(C36) * 60 + SECOND(C36)</f>
+        <f t="shared" si="2"/>
         <v>1222</v>
       </c>
       <c r="H36" s="22">
-        <f>HOUR(D36) *3600 + MINUTE(D36) * 60 + SECOND(D36)</f>
+        <f t="shared" si="3"/>
         <v>1228</v>
       </c>
       <c r="I36" s="27" t="str">
@@ -36314,19 +36314,19 @@
         <v>393</v>
       </c>
       <c r="E37" s="19">
-        <f>D37-C37</f>
+        <f t="shared" si="0"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F37" s="6">
-        <f>HOUR(E37) *3600 + MINUTE(E37) * 60 + SECOND(E37)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G37" s="22">
-        <f>HOUR(C37) *3600 + MINUTE(C37) * 60 + SECOND(C37)</f>
+        <f t="shared" si="2"/>
         <v>1282</v>
       </c>
       <c r="H37" s="22">
-        <f>HOUR(D37) *3600 + MINUTE(D37) * 60 + SECOND(D37)</f>
+        <f t="shared" si="3"/>
         <v>1284</v>
       </c>
       <c r="I37" s="27" t="str">
@@ -36359,19 +36359,19 @@
         <v>419</v>
       </c>
       <c r="E38" s="19">
-        <f>D38-C38</f>
+        <f t="shared" si="0"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F38" s="6">
-        <f>HOUR(E38) *3600 + MINUTE(E38) * 60 + SECOND(E38)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G38" s="22">
-        <f>HOUR(C38) *3600 + MINUTE(C38) * 60 + SECOND(C38)</f>
+        <f t="shared" si="2"/>
         <v>1342</v>
       </c>
       <c r="H38" s="22">
-        <f>HOUR(D38) *3600 + MINUTE(D38) * 60 + SECOND(D38)</f>
+        <f t="shared" si="3"/>
         <v>1344</v>
       </c>
       <c r="I38" s="27" t="str">
@@ -36405,19 +36405,19 @@
         <v>431</v>
       </c>
       <c r="E39" s="19">
-        <f>D39-C39</f>
+        <f t="shared" si="0"/>
         <v>2.314814814815061E-5</v>
       </c>
       <c r="F39" s="6">
-        <f>HOUR(E39) *3600 + MINUTE(E39) * 60 + SECOND(E39)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G39" s="22">
-        <f>HOUR(C39) *3600 + MINUTE(C39) * 60 + SECOND(C39)</f>
+        <f t="shared" si="2"/>
         <v>1374</v>
       </c>
       <c r="H39" s="22">
-        <f>HOUR(D39) *3600 + MINUTE(D39) * 60 + SECOND(D39)</f>
+        <f t="shared" si="3"/>
         <v>1376</v>
       </c>
       <c r="I39" s="27" t="str">
@@ -36450,19 +36450,19 @@
         <v>443</v>
       </c>
       <c r="E40" s="19">
-        <f>D40-C40</f>
+        <f t="shared" si="0"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F40" s="6">
-        <f>HOUR(E40) *3600 + MINUTE(E40) * 60 + SECOND(E40)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G40" s="22">
-        <f>HOUR(C40) *3600 + MINUTE(C40) * 60 + SECOND(C40)</f>
+        <f t="shared" si="2"/>
         <v>1406</v>
       </c>
       <c r="H40" s="22">
-        <f>HOUR(D40) *3600 + MINUTE(D40) * 60 + SECOND(D40)</f>
+        <f t="shared" si="3"/>
         <v>1408</v>
       </c>
       <c r="I40" s="27" t="str">
@@ -36495,19 +36495,19 @@
         <v>635</v>
       </c>
       <c r="E41" s="19">
-        <f>D41-C41</f>
+        <f t="shared" si="0"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F41" s="6">
-        <f>HOUR(E41) *3600 + MINUTE(E41) * 60 + SECOND(E41)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G41" s="22">
-        <f>HOUR(C41) *3600 + MINUTE(C41) * 60 + SECOND(C41)</f>
+        <f t="shared" si="2"/>
         <v>2174</v>
       </c>
       <c r="H41" s="22">
-        <f>HOUR(D41) *3600 + MINUTE(D41) * 60 + SECOND(D41)</f>
+        <f t="shared" si="3"/>
         <v>2176</v>
       </c>
       <c r="I41" s="27" t="str">
@@ -36540,19 +36540,19 @@
         <v>644</v>
       </c>
       <c r="E42" s="19">
-        <f>D42-C42</f>
+        <f t="shared" si="0"/>
         <v>2.314814814815061E-5</v>
       </c>
       <c r="F42" s="6">
-        <f>HOUR(E42) *3600 + MINUTE(E42) * 60 + SECOND(E42)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G42" s="22">
-        <f>HOUR(C42) *3600 + MINUTE(C42) * 60 + SECOND(C42)</f>
+        <f t="shared" si="2"/>
         <v>2260</v>
       </c>
       <c r="H42" s="22">
-        <f>HOUR(D42) *3600 + MINUTE(D42) * 60 + SECOND(D42)</f>
+        <f t="shared" si="3"/>
         <v>2262</v>
       </c>
       <c r="I42" s="27" t="str">
@@ -36585,19 +36585,19 @@
         <v>654</v>
       </c>
       <c r="E43" s="19">
-        <f>D43-C43</f>
+        <f t="shared" si="0"/>
         <v>2.314814814815061E-5</v>
       </c>
       <c r="F43" s="6">
-        <f>HOUR(E43) *3600 + MINUTE(E43) * 60 + SECOND(E43)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G43" s="22">
-        <f>HOUR(C43) *3600 + MINUTE(C43) * 60 + SECOND(C43)</f>
+        <f t="shared" si="2"/>
         <v>2312</v>
       </c>
       <c r="H43" s="22">
-        <f>HOUR(D43) *3600 + MINUTE(D43) * 60 + SECOND(D43)</f>
+        <f t="shared" si="3"/>
         <v>2314</v>
       </c>
       <c r="I43" s="27" t="str">
@@ -36630,19 +36630,19 @@
         <v>672</v>
       </c>
       <c r="E44" s="19">
-        <f>D44-C44</f>
+        <f t="shared" si="0"/>
         <v>2.314814814815061E-5</v>
       </c>
       <c r="F44" s="6">
-        <f>HOUR(E44) *3600 + MINUTE(E44) * 60 + SECOND(E44)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G44" s="22">
-        <f>HOUR(C44) *3600 + MINUTE(C44) * 60 + SECOND(C44)</f>
+        <f t="shared" si="2"/>
         <v>2456</v>
       </c>
       <c r="H44" s="22">
-        <f>HOUR(D44) *3600 + MINUTE(D44) * 60 + SECOND(D44)</f>
+        <f t="shared" si="3"/>
         <v>2458</v>
       </c>
       <c r="I44" s="27" t="str">
@@ -36675,19 +36675,19 @@
         <v>693</v>
       </c>
       <c r="E45" s="19">
-        <f>D45-C45</f>
+        <f t="shared" si="0"/>
         <v>2.314814814815408E-5</v>
       </c>
       <c r="F45" s="6">
-        <f>HOUR(E45) *3600 + MINUTE(E45) * 60 + SECOND(E45)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G45" s="22">
-        <f>HOUR(C45) *3600 + MINUTE(C45) * 60 + SECOND(C45)</f>
+        <f t="shared" si="2"/>
         <v>2492</v>
       </c>
       <c r="H45" s="22">
-        <f>HOUR(D45) *3600 + MINUTE(D45) * 60 + SECOND(D45)</f>
+        <f t="shared" si="3"/>
         <v>2494</v>
       </c>
       <c r="I45" s="27" t="str">
@@ -36720,19 +36720,19 @@
         <v>695</v>
       </c>
       <c r="E46" s="19">
-        <f>D46-C46</f>
+        <f t="shared" si="0"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F46" s="6">
-        <f>HOUR(E46) *3600 + MINUTE(E46) * 60 + SECOND(E46)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G46" s="22">
-        <f>HOUR(C46) *3600 + MINUTE(C46) * 60 + SECOND(C46)</f>
+        <f t="shared" si="2"/>
         <v>2580</v>
       </c>
       <c r="H46" s="22">
-        <f>HOUR(D46) *3600 + MINUTE(D46) * 60 + SECOND(D46)</f>
+        <f t="shared" si="3"/>
         <v>2582</v>
       </c>
       <c r="I46" s="27" t="str">
@@ -36765,19 +36765,19 @@
         <v>715</v>
       </c>
       <c r="E47" s="19">
-        <f>D47-C47</f>
+        <f t="shared" si="0"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F47" s="6">
-        <f>HOUR(E47) *3600 + MINUTE(E47) * 60 + SECOND(E47)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G47" s="22">
-        <f>HOUR(C47) *3600 + MINUTE(C47) * 60 + SECOND(C47)</f>
+        <f t="shared" si="2"/>
         <v>2656</v>
       </c>
       <c r="H47" s="22">
-        <f>HOUR(D47) *3600 + MINUTE(D47) * 60 + SECOND(D47)</f>
+        <f t="shared" si="3"/>
         <v>2658</v>
       </c>
       <c r="I47" s="27" t="str">
@@ -36810,19 +36810,19 @@
         <v>769</v>
       </c>
       <c r="E48" s="19">
-        <f>D48-C48</f>
+        <f t="shared" si="0"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F48" s="6">
-        <f>HOUR(E48) *3600 + MINUTE(E48) * 60 + SECOND(E48)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G48" s="22">
-        <f>HOUR(C48) *3600 + MINUTE(C48) * 60 + SECOND(C48)</f>
+        <f t="shared" si="2"/>
         <v>2788</v>
       </c>
       <c r="H48" s="22">
-        <f>HOUR(D48) *3600 + MINUTE(D48) * 60 + SECOND(D48)</f>
+        <f t="shared" si="3"/>
         <v>2790</v>
       </c>
       <c r="I48" s="27" t="str">
@@ -36855,19 +36855,19 @@
         <v>811</v>
       </c>
       <c r="E49" s="19">
-        <f>D49-C49</f>
+        <f t="shared" si="0"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F49" s="6">
-        <f>HOUR(E49) *3600 + MINUTE(E49) * 60 + SECOND(E49)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G49" s="22">
-        <f>HOUR(C49) *3600 + MINUTE(C49) * 60 + SECOND(C49)</f>
+        <f t="shared" si="2"/>
         <v>3016</v>
       </c>
       <c r="H49" s="22">
-        <f>HOUR(D49) *3600 + MINUTE(D49) * 60 + SECOND(D49)</f>
+        <f t="shared" si="3"/>
         <v>3018</v>
       </c>
       <c r="I49" s="27" t="str">
@@ -36900,19 +36900,19 @@
         <v>104</v>
       </c>
       <c r="E50" s="19">
-        <f>D50-C50</f>
+        <f t="shared" si="0"/>
         <v>2.5462962962962896E-4</v>
       </c>
       <c r="F50" s="6">
-        <f>HOUR(E50) *3600 + MINUTE(E50) * 60 + SECOND(E50)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="G50" s="22">
-        <f>HOUR(C50) *3600 + MINUTE(C50) * 60 + SECOND(C50)</f>
+        <f t="shared" si="2"/>
         <v>308</v>
       </c>
       <c r="H50" s="22">
-        <f>HOUR(D50) *3600 + MINUTE(D50) * 60 + SECOND(D50)</f>
+        <f t="shared" si="3"/>
         <v>330</v>
       </c>
       <c r="I50" s="27" t="str">
@@ -36945,19 +36945,19 @@
         <v>202</v>
       </c>
       <c r="E51" s="19">
-        <f>D51-C51</f>
+        <f t="shared" si="0"/>
         <v>2.3148148148148875E-5</v>
       </c>
       <c r="F51" s="6">
-        <f>HOUR(E51) *3600 + MINUTE(E51) * 60 + SECOND(E51)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G51" s="22">
-        <f>HOUR(C51) *3600 + MINUTE(C51) * 60 + SECOND(C51)</f>
+        <f t="shared" si="2"/>
         <v>682</v>
       </c>
       <c r="H51" s="22">
-        <f>HOUR(D51) *3600 + MINUTE(D51) * 60 + SECOND(D51)</f>
+        <f t="shared" si="3"/>
         <v>684</v>
       </c>
       <c r="I51" s="27" t="str">
@@ -36990,19 +36990,19 @@
         <v>209</v>
       </c>
       <c r="E52" s="19">
-        <f>D52-C52</f>
+        <f t="shared" si="0"/>
         <v>1.1574074074074091E-4</v>
       </c>
       <c r="F52" s="6">
-        <f>HOUR(E52) *3600 + MINUTE(E52) * 60 + SECOND(E52)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G52" s="22">
-        <f>HOUR(C52) *3600 + MINUTE(C52) * 60 + SECOND(C52)</f>
+        <f t="shared" si="2"/>
         <v>694</v>
       </c>
       <c r="H52" s="22">
-        <f>HOUR(D52) *3600 + MINUTE(D52) * 60 + SECOND(D52)</f>
+        <f t="shared" si="3"/>
         <v>704</v>
       </c>
       <c r="I52" s="27" t="str">
@@ -37035,19 +37035,19 @@
         <v>213</v>
       </c>
       <c r="E53" s="19">
-        <f>D53-C53</f>
+        <f t="shared" si="0"/>
         <v>2.3148148148148875E-5</v>
       </c>
       <c r="F53" s="6">
-        <f>HOUR(E53) *3600 + MINUTE(E53) * 60 + SECOND(E53)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G53" s="22">
-        <f>HOUR(C53) *3600 + MINUTE(C53) * 60 + SECOND(C53)</f>
+        <f t="shared" si="2"/>
         <v>716</v>
       </c>
       <c r="H53" s="22">
-        <f>HOUR(D53) *3600 + MINUTE(D53) * 60 + SECOND(D53)</f>
+        <f t="shared" si="3"/>
         <v>718</v>
       </c>
       <c r="I53" s="27" t="str">
@@ -37080,19 +37080,19 @@
         <v>215</v>
       </c>
       <c r="E54" s="19">
-        <f>D54-C54</f>
+        <f t="shared" si="0"/>
         <v>2.3148148148148875E-5</v>
       </c>
       <c r="F54" s="6">
-        <f>HOUR(E54) *3600 + MINUTE(E54) * 60 + SECOND(E54)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G54" s="22">
-        <f>HOUR(C54) *3600 + MINUTE(C54) * 60 + SECOND(C54)</f>
+        <f t="shared" si="2"/>
         <v>728</v>
       </c>
       <c r="H54" s="22">
-        <f>HOUR(D54) *3600 + MINUTE(D54) * 60 + SECOND(D54)</f>
+        <f t="shared" si="3"/>
         <v>730</v>
       </c>
       <c r="I54" s="27" t="str">
@@ -37125,19 +37125,19 @@
         <v>281</v>
       </c>
       <c r="E55" s="19">
-        <f>D55-C55</f>
+        <f t="shared" si="0"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F55" s="6">
-        <f>HOUR(E55) *3600 + MINUTE(E55) * 60 + SECOND(E55)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G55" s="22">
-        <f>HOUR(C55) *3600 + MINUTE(C55) * 60 + SECOND(C55)</f>
+        <f t="shared" si="2"/>
         <v>856</v>
       </c>
       <c r="H55" s="22">
-        <f>HOUR(D55) *3600 + MINUTE(D55) * 60 + SECOND(D55)</f>
+        <f t="shared" si="3"/>
         <v>858</v>
       </c>
       <c r="I55" s="27" t="str">
@@ -37170,19 +37170,19 @@
         <v>408</v>
       </c>
       <c r="E56" s="19">
-        <f>D56-C56</f>
+        <f t="shared" si="0"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F56" s="6">
-        <f>HOUR(E56) *3600 + MINUTE(E56) * 60 + SECOND(E56)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G56" s="22">
-        <f>HOUR(C56) *3600 + MINUTE(C56) * 60 + SECOND(C56)</f>
+        <f t="shared" si="2"/>
         <v>1298</v>
       </c>
       <c r="H56" s="22">
-        <f>HOUR(D56) *3600 + MINUTE(D56) * 60 + SECOND(D56)</f>
+        <f t="shared" si="3"/>
         <v>1302</v>
       </c>
       <c r="I56" s="27" t="str">
@@ -37215,19 +37215,19 @@
         <v>601</v>
       </c>
       <c r="E57" s="19">
-        <f>D57-C57</f>
+        <f t="shared" si="0"/>
         <v>3.9351851851851874E-4</v>
       </c>
       <c r="F57" s="6">
-        <f>HOUR(E57) *3600 + MINUTE(E57) * 60 + SECOND(E57)</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="G57" s="22">
-        <f>HOUR(C57) *3600 + MINUTE(C57) * 60 + SECOND(C57)</f>
+        <f t="shared" si="2"/>
         <v>2056</v>
       </c>
       <c r="H57" s="22">
-        <f>HOUR(D57) *3600 + MINUTE(D57) * 60 + SECOND(D57)</f>
+        <f t="shared" si="3"/>
         <v>2090</v>
       </c>
       <c r="I57" s="27" t="str">
@@ -37263,19 +37263,19 @@
         <v>646</v>
       </c>
       <c r="E58" s="19">
-        <f>D58-C58</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444448361E-5</v>
       </c>
       <c r="F58" s="6">
-        <f>HOUR(E58) *3600 + MINUTE(E58) * 60 + SECOND(E58)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G58" s="22">
-        <f>HOUR(C58) *3600 + MINUTE(C58) * 60 + SECOND(C58)</f>
+        <f t="shared" si="2"/>
         <v>2264</v>
       </c>
       <c r="H58" s="22">
-        <f>HOUR(D58) *3600 + MINUTE(D58) * 60 + SECOND(D58)</f>
+        <f t="shared" si="3"/>
         <v>2270</v>
       </c>
       <c r="I58" s="27" t="str">
@@ -37308,19 +37308,19 @@
         <v>660</v>
       </c>
       <c r="E59" s="19">
-        <f>D59-C59</f>
+        <f t="shared" si="0"/>
         <v>2.5462962962963243E-4</v>
       </c>
       <c r="F59" s="6">
-        <f>HOUR(E59) *3600 + MINUTE(E59) * 60 + SECOND(E59)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="G59" s="22">
-        <f>HOUR(C59) *3600 + MINUTE(C59) * 60 + SECOND(C59)</f>
+        <f t="shared" si="2"/>
         <v>2322</v>
       </c>
       <c r="H59" s="22">
-        <f>HOUR(D59) *3600 + MINUTE(D59) * 60 + SECOND(D59)</f>
+        <f t="shared" si="3"/>
         <v>2344</v>
       </c>
       <c r="I59" s="27" t="str">
@@ -37353,19 +37353,19 @@
         <v>762</v>
       </c>
       <c r="E60" s="19">
-        <f>D60-C60</f>
+        <f t="shared" si="0"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F60" s="6">
-        <f>HOUR(E60) *3600 + MINUTE(E60) * 60 + SECOND(E60)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G60" s="22">
-        <f>HOUR(C60) *3600 + MINUTE(C60) * 60 + SECOND(C60)</f>
+        <f t="shared" si="2"/>
         <v>2764</v>
       </c>
       <c r="H60" s="22">
-        <f>HOUR(D60) *3600 + MINUTE(D60) * 60 + SECOND(D60)</f>
+        <f t="shared" si="3"/>
         <v>2768</v>
       </c>
       <c r="I60" s="27" t="str">
@@ -37398,19 +37398,19 @@
         <v>769</v>
       </c>
       <c r="E61" s="19">
-        <f>D61-C61</f>
+        <f t="shared" si="0"/>
         <v>9.2592592592595502E-5</v>
       </c>
       <c r="F61" s="6">
-        <f>HOUR(E61) *3600 + MINUTE(E61) * 60 + SECOND(E61)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G61" s="22">
-        <f>HOUR(C61) *3600 + MINUTE(C61) * 60 + SECOND(C61)</f>
+        <f t="shared" si="2"/>
         <v>2782</v>
       </c>
       <c r="H61" s="22">
-        <f>HOUR(D61) *3600 + MINUTE(D61) * 60 + SECOND(D61)</f>
+        <f t="shared" si="3"/>
         <v>2790</v>
       </c>
       <c r="I61" s="27" t="str">
@@ -37443,19 +37443,19 @@
         <v>796</v>
       </c>
       <c r="E62" s="19">
-        <f>D62-C62</f>
+        <f t="shared" si="0"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F62" s="6">
-        <f>HOUR(E62) *3600 + MINUTE(E62) * 60 + SECOND(E62)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G62" s="22">
-        <f>HOUR(C62) *3600 + MINUTE(C62) * 60 + SECOND(C62)</f>
+        <f t="shared" si="2"/>
         <v>2872</v>
       </c>
       <c r="H62" s="22">
-        <f>HOUR(D62) *3600 + MINUTE(D62) * 60 + SECOND(D62)</f>
+        <f t="shared" si="3"/>
         <v>2874</v>
       </c>
       <c r="I62" s="27" t="str">
@@ -37488,19 +37488,19 @@
         <v>3.5370370370370365E-2</v>
       </c>
       <c r="E63" s="19">
-        <f>D63-C63</f>
+        <f t="shared" si="0"/>
         <v>9.2592592592588563E-5</v>
       </c>
       <c r="F63" s="6">
-        <f>HOUR(E63) *3600 + MINUTE(E63) * 60 + SECOND(E63)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G63" s="22">
-        <f>HOUR(C63) *3600 + MINUTE(C63) * 60 + SECOND(C63)</f>
+        <f t="shared" si="2"/>
         <v>3048</v>
       </c>
       <c r="H63" s="22">
-        <f>HOUR(D63) *3600 + MINUTE(D63) * 60 + SECOND(D63)</f>
+        <f t="shared" si="3"/>
         <v>3056</v>
       </c>
       <c r="I63" s="27" t="str">
@@ -37533,19 +37533,19 @@
         <v>740</v>
       </c>
       <c r="E64" s="19">
-        <f>D64-C64</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444448361E-5</v>
       </c>
       <c r="F64" s="6">
-        <f>HOUR(E64) *3600 + MINUTE(E64) * 60 + SECOND(E64)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G64" s="22">
-        <f>HOUR(C64) *3600 + MINUTE(C64) * 60 + SECOND(C64)</f>
+        <f t="shared" si="2"/>
         <v>2700</v>
       </c>
       <c r="H64" s="22">
-        <f>HOUR(D64) *3600 + MINUTE(D64) * 60 + SECOND(D64)</f>
+        <f t="shared" si="3"/>
         <v>2706</v>
       </c>
       <c r="I64" s="27" t="str">
@@ -37578,19 +37578,19 @@
         <v>740</v>
       </c>
       <c r="E65" s="19">
-        <f>D65-C65</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444448361E-5</v>
       </c>
       <c r="F65" s="6">
-        <f>HOUR(E65) *3600 + MINUTE(E65) * 60 + SECOND(E65)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G65" s="22">
-        <f>HOUR(C65) *3600 + MINUTE(C65) * 60 + SECOND(C65)</f>
+        <f t="shared" si="2"/>
         <v>2700</v>
       </c>
       <c r="H65" s="22">
-        <f>HOUR(D65) *3600 + MINUTE(D65) * 60 + SECOND(D65)</f>
+        <f t="shared" si="3"/>
         <v>2706</v>
       </c>
       <c r="I65" s="27" t="str">
@@ -37623,19 +37623,19 @@
         <v>107</v>
       </c>
       <c r="E66" s="19">
-        <f>D66-C66</f>
+        <f t="shared" ref="E66:E129" si="4">D66-C66</f>
         <v>1.8518518518518493E-4</v>
       </c>
       <c r="F66" s="6">
-        <f>HOUR(E66) *3600 + MINUTE(E66) * 60 + SECOND(E66)</f>
+        <f t="shared" ref="F66:F129" si="5">HOUR(E66) *3600 + MINUTE(E66) * 60 + SECOND(E66)</f>
         <v>16</v>
       </c>
       <c r="G66" s="22">
-        <f>HOUR(C66) *3600 + MINUTE(C66) * 60 + SECOND(C66)</f>
+        <f t="shared" ref="G66:G129" si="6">HOUR(C66) *3600 + MINUTE(C66) * 60 + SECOND(C66)</f>
         <v>334</v>
       </c>
       <c r="H66" s="22">
-        <f>HOUR(D66) *3600 + MINUTE(D66) * 60 + SECOND(D66)</f>
+        <f t="shared" ref="H66:H129" si="7">HOUR(D66) *3600 + MINUTE(D66) * 60 + SECOND(D66)</f>
         <v>350</v>
       </c>
       <c r="I66" s="27" t="str">
@@ -37671,19 +37671,19 @@
         <v>69</v>
       </c>
       <c r="E67" s="19">
-        <f>D67-C67</f>
+        <f t="shared" si="4"/>
         <v>4.1666666666666675E-4</v>
       </c>
       <c r="F67" s="6">
-        <f>HOUR(E67) *3600 + MINUTE(E67) * 60 + SECOND(E67)</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="G67" s="22">
-        <f>HOUR(C67) *3600 + MINUTE(C67) * 60 + SECOND(C67)</f>
+        <f t="shared" si="6"/>
         <v>206</v>
       </c>
       <c r="H67" s="22">
-        <f>HOUR(D67) *3600 + MINUTE(D67) * 60 + SECOND(D67)</f>
+        <f t="shared" si="7"/>
         <v>242</v>
       </c>
       <c r="I67" s="27" t="str">
@@ -37716,19 +37716,19 @@
         <v>69</v>
       </c>
       <c r="E68" s="19">
-        <f>D68-C68</f>
+        <f t="shared" si="4"/>
         <v>4.1666666666666675E-4</v>
       </c>
       <c r="F68" s="6">
-        <f>HOUR(E68) *3600 + MINUTE(E68) * 60 + SECOND(E68)</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="G68" s="22">
-        <f>HOUR(C68) *3600 + MINUTE(C68) * 60 + SECOND(C68)</f>
+        <f t="shared" si="6"/>
         <v>206</v>
       </c>
       <c r="H68" s="22">
-        <f>HOUR(D68) *3600 + MINUTE(D68) * 60 + SECOND(D68)</f>
+        <f t="shared" si="7"/>
         <v>242</v>
       </c>
       <c r="I68" s="27" t="str">
@@ -37761,19 +37761,19 @@
         <v>413</v>
       </c>
       <c r="E69" s="19">
-        <f>D69-C69</f>
+        <f t="shared" si="4"/>
         <v>4.6296296296297751E-5</v>
       </c>
       <c r="F69" s="6">
-        <f>HOUR(E69) *3600 + MINUTE(E69) * 60 + SECOND(E69)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G69" s="22">
-        <f>HOUR(C69) *3600 + MINUTE(C69) * 60 + SECOND(C69)</f>
+        <f t="shared" si="6"/>
         <v>1302</v>
       </c>
       <c r="H69" s="22">
-        <f>HOUR(D69) *3600 + MINUTE(D69) * 60 + SECOND(D69)</f>
+        <f t="shared" si="7"/>
         <v>1306</v>
       </c>
       <c r="I69" s="27" t="str">
@@ -37809,19 +37809,19 @@
         <v>479</v>
       </c>
       <c r="E70" s="19">
-        <f>D70-C70</f>
+        <f t="shared" si="4"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F70" s="6">
-        <f>HOUR(E70) *3600 + MINUTE(E70) * 60 + SECOND(E70)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G70" s="22">
-        <f>HOUR(C70) *3600 + MINUTE(C70) * 60 + SECOND(C70)</f>
+        <f t="shared" si="6"/>
         <v>1582</v>
       </c>
       <c r="H70" s="22">
-        <f>HOUR(D70) *3600 + MINUTE(D70) * 60 + SECOND(D70)</f>
+        <f t="shared" si="7"/>
         <v>1586</v>
       </c>
       <c r="I70" s="27" t="str">
@@ -37854,19 +37854,19 @@
         <v>483</v>
       </c>
       <c r="E71" s="19">
-        <f>D71-C71</f>
+        <f t="shared" si="4"/>
         <v>4.6296296296297751E-5</v>
       </c>
       <c r="F71" s="6">
-        <f>HOUR(E71) *3600 + MINUTE(E71) * 60 + SECOND(E71)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G71" s="22">
-        <f>HOUR(C71) *3600 + MINUTE(C71) * 60 + SECOND(C71)</f>
+        <f t="shared" si="6"/>
         <v>1588</v>
       </c>
       <c r="H71" s="22">
-        <f>HOUR(D71) *3600 + MINUTE(D71) * 60 + SECOND(D71)</f>
+        <f t="shared" si="7"/>
         <v>1592</v>
       </c>
       <c r="I71" s="27" t="str">
@@ -37902,19 +37902,19 @@
         <v>413</v>
       </c>
       <c r="E72" s="19">
-        <f>D72-C72</f>
+        <f t="shared" si="4"/>
         <v>4.6296296296297751E-5</v>
       </c>
       <c r="F72" s="6">
-        <f>HOUR(E72) *3600 + MINUTE(E72) * 60 + SECOND(E72)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G72" s="22">
-        <f>HOUR(C72) *3600 + MINUTE(C72) * 60 + SECOND(C72)</f>
+        <f t="shared" si="6"/>
         <v>1302</v>
       </c>
       <c r="H72" s="22">
-        <f>HOUR(D72) *3600 + MINUTE(D72) * 60 + SECOND(D72)</f>
+        <f t="shared" si="7"/>
         <v>1306</v>
       </c>
       <c r="I72" s="27" t="str">
@@ -37950,19 +37950,19 @@
         <v>724</v>
       </c>
       <c r="E73" s="19">
-        <f>D73-C73</f>
+        <f t="shared" si="4"/>
         <v>6.9444444444444892E-5</v>
       </c>
       <c r="F73" s="6">
-        <f>HOUR(E73) *3600 + MINUTE(E73) * 60 + SECOND(E73)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="G73" s="22">
-        <f>HOUR(C73) *3600 + MINUTE(C73) * 60 + SECOND(C73)</f>
+        <f t="shared" si="6"/>
         <v>2662</v>
       </c>
       <c r="H73" s="22">
-        <f>HOUR(D73) *3600 + MINUTE(D73) * 60 + SECOND(D73)</f>
+        <f t="shared" si="7"/>
         <v>2668</v>
       </c>
       <c r="I73" s="27" t="str">
@@ -37998,19 +37998,19 @@
         <v>750</v>
       </c>
       <c r="E74" s="19">
-        <f>D74-C74</f>
+        <f t="shared" si="4"/>
         <v>2.314814814815408E-5</v>
       </c>
       <c r="F74" s="6">
-        <f>HOUR(E74) *3600 + MINUTE(E74) * 60 + SECOND(E74)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G74" s="22">
-        <f>HOUR(C74) *3600 + MINUTE(C74) * 60 + SECOND(C74)</f>
+        <f t="shared" si="6"/>
         <v>2726</v>
       </c>
       <c r="H74" s="22">
-        <f>HOUR(D74) *3600 + MINUTE(D74) * 60 + SECOND(D74)</f>
+        <f t="shared" si="7"/>
         <v>2728</v>
       </c>
       <c r="I74" s="27" t="str">
@@ -38043,19 +38043,19 @@
         <v>773</v>
       </c>
       <c r="E75" s="19">
-        <f>D75-C75</f>
+        <f t="shared" si="4"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F75" s="6">
-        <f>HOUR(E75) *3600 + MINUTE(E75) * 60 + SECOND(E75)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G75" s="22">
-        <f>HOUR(C75) *3600 + MINUTE(C75) * 60 + SECOND(C75)</f>
+        <f t="shared" si="6"/>
         <v>2804</v>
       </c>
       <c r="H75" s="22">
-        <f>HOUR(D75) *3600 + MINUTE(D75) * 60 + SECOND(D75)</f>
+        <f t="shared" si="7"/>
         <v>2808</v>
       </c>
       <c r="I75" s="27" t="str">
@@ -38088,19 +38088,19 @@
         <v>819</v>
       </c>
       <c r="E76" s="19">
-        <f>D76-C76</f>
+        <f t="shared" si="4"/>
         <v>1.6203703703704386E-4</v>
       </c>
       <c r="F76" s="6">
-        <f>HOUR(E76) *3600 + MINUTE(E76) * 60 + SECOND(E76)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="G76" s="22">
-        <f>HOUR(C76) *3600 + MINUTE(C76) * 60 + SECOND(C76)</f>
+        <f t="shared" si="6"/>
         <v>3022</v>
       </c>
       <c r="H76" s="22">
-        <f>HOUR(D76) *3600 + MINUTE(D76) * 60 + SECOND(D76)</f>
+        <f t="shared" si="7"/>
         <v>3036</v>
       </c>
       <c r="I76" s="27" t="str">
@@ -38133,19 +38133,19 @@
         <v>563</v>
       </c>
       <c r="E77" s="19">
-        <f>D77-C77</f>
+        <f t="shared" si="4"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F77" s="6">
-        <f>HOUR(E77) *3600 + MINUTE(E77) * 60 + SECOND(E77)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G77" s="22">
-        <f>HOUR(C77) *3600 + MINUTE(C77) * 60 + SECOND(C77)</f>
+        <f t="shared" si="6"/>
         <v>1932</v>
       </c>
       <c r="H77" s="22">
-        <f>HOUR(D77) *3600 + MINUTE(D77) * 60 + SECOND(D77)</f>
+        <f t="shared" si="7"/>
         <v>1936</v>
       </c>
       <c r="I77" s="27" t="str">
@@ -38181,19 +38181,19 @@
         <v>577</v>
       </c>
       <c r="E78" s="19">
-        <f>D78-C78</f>
+        <f t="shared" si="4"/>
         <v>3.9351851851851527E-4</v>
       </c>
       <c r="F78" s="6">
-        <f>HOUR(E78) *3600 + MINUTE(E78) * 60 + SECOND(E78)</f>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="G78" s="22">
-        <f>HOUR(C78) *3600 + MINUTE(C78) * 60 + SECOND(C78)</f>
+        <f t="shared" si="6"/>
         <v>1954</v>
       </c>
       <c r="H78" s="22">
-        <f>HOUR(D78) *3600 + MINUTE(D78) * 60 + SECOND(D78)</f>
+        <f t="shared" si="7"/>
         <v>1988</v>
       </c>
       <c r="I78" s="27" t="str">
@@ -38226,19 +38226,19 @@
         <v>913</v>
       </c>
       <c r="E79" s="19">
-        <f>D79-C79</f>
+        <f t="shared" si="4"/>
         <v>9.2592592592588563E-5</v>
       </c>
       <c r="F79" s="6">
-        <f>HOUR(E79) *3600 + MINUTE(E79) * 60 + SECOND(E79)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="G79" s="22">
-        <f>HOUR(C79) *3600 + MINUTE(C79) * 60 + SECOND(C79)</f>
+        <f t="shared" si="6"/>
         <v>3672</v>
       </c>
       <c r="H79" s="22">
-        <f>HOUR(D79) *3600 + MINUTE(D79) * 60 + SECOND(D79)</f>
+        <f t="shared" si="7"/>
         <v>3680</v>
       </c>
       <c r="I79" s="27" t="str">
@@ -38272,19 +38272,19 @@
         <v>83</v>
       </c>
       <c r="E80" s="19">
-        <f>D80-C80</f>
+        <f t="shared" si="4"/>
         <v>4.6296296296297317E-5</v>
       </c>
       <c r="F80" s="6">
-        <f>HOUR(E80) *3600 + MINUTE(E80) * 60 + SECOND(E80)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G80" s="22">
-        <f>HOUR(C80) *3600 + MINUTE(C80) * 60 + SECOND(C80)</f>
+        <f t="shared" si="6"/>
         <v>290</v>
       </c>
       <c r="H80" s="22">
-        <f>HOUR(D80) *3600 + MINUTE(D80) * 60 + SECOND(D80)</f>
+        <f t="shared" si="7"/>
         <v>294</v>
       </c>
       <c r="I80" s="27" t="str">
@@ -38317,19 +38317,19 @@
         <v>121</v>
       </c>
       <c r="E81" s="19">
-        <f>D81-C81</f>
+        <f t="shared" si="4"/>
         <v>2.3148148148148182E-4</v>
       </c>
       <c r="F81" s="6">
-        <f>HOUR(E81) *3600 + MINUTE(E81) * 60 + SECOND(E81)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="G81" s="22">
-        <f>HOUR(C81) *3600 + MINUTE(C81) * 60 + SECOND(C81)</f>
+        <f t="shared" si="6"/>
         <v>380</v>
       </c>
       <c r="H81" s="22">
-        <f>HOUR(D81) *3600 + MINUTE(D81) * 60 + SECOND(D81)</f>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="I81" s="27" t="str">
@@ -38362,19 +38362,19 @@
         <v>138</v>
       </c>
       <c r="E82" s="19">
-        <f>D82-C82</f>
+        <f t="shared" si="4"/>
         <v>7.4074074074073973E-4</v>
       </c>
       <c r="F82" s="6">
-        <f>HOUR(E82) *3600 + MINUTE(E82) * 60 + SECOND(E82)</f>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="G82" s="22">
-        <f>HOUR(C82) *3600 + MINUTE(C82) * 60 + SECOND(C82)</f>
+        <f t="shared" si="6"/>
         <v>428</v>
       </c>
       <c r="H82" s="22">
-        <f>HOUR(D82) *3600 + MINUTE(D82) * 60 + SECOND(D82)</f>
+        <f t="shared" si="7"/>
         <v>492</v>
       </c>
       <c r="I82" s="27" t="str">
@@ -38407,19 +38407,19 @@
         <v>136</v>
       </c>
       <c r="E83" s="19">
-        <f>D83-C83</f>
+        <f t="shared" si="4"/>
         <v>3.4722222222222186E-4</v>
       </c>
       <c r="F83" s="6">
-        <f>HOUR(E83) *3600 + MINUTE(E83) * 60 + SECOND(E83)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="G83" s="22">
-        <f>HOUR(C83) *3600 + MINUTE(C83) * 60 + SECOND(C83)</f>
+        <f t="shared" si="6"/>
         <v>502</v>
       </c>
       <c r="H83" s="22">
-        <f>HOUR(D83) *3600 + MINUTE(D83) * 60 + SECOND(D83)</f>
+        <f t="shared" si="7"/>
         <v>532</v>
       </c>
       <c r="I83" s="27" t="str">
@@ -38452,19 +38452,19 @@
         <v>175</v>
       </c>
       <c r="E84" s="19">
-        <f>D84-C84</f>
+        <f t="shared" si="4"/>
         <v>2.3148148148148875E-5</v>
       </c>
       <c r="F84" s="6">
-        <f>HOUR(E84) *3600 + MINUTE(E84) * 60 + SECOND(E84)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G84" s="22">
-        <f>HOUR(C84) *3600 + MINUTE(C84) * 60 + SECOND(C84)</f>
+        <f t="shared" si="6"/>
         <v>586</v>
       </c>
       <c r="H84" s="22">
-        <f>HOUR(D84) *3600 + MINUTE(D84) * 60 + SECOND(D84)</f>
+        <f t="shared" si="7"/>
         <v>588</v>
       </c>
       <c r="I84" s="27" t="str">
@@ -38497,19 +38497,19 @@
         <v>188</v>
       </c>
       <c r="E85" s="19">
-        <f>D85-C85</f>
+        <f t="shared" si="4"/>
         <v>7.4074074074074146E-4</v>
       </c>
       <c r="F85" s="6">
-        <f>HOUR(E85) *3600 + MINUTE(E85) * 60 + SECOND(E85)</f>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="G85" s="22">
-        <f>HOUR(C85) *3600 + MINUTE(C85) * 60 + SECOND(C85)</f>
+        <f t="shared" si="6"/>
         <v>594</v>
       </c>
       <c r="H85" s="22">
-        <f>HOUR(D85) *3600 + MINUTE(D85) * 60 + SECOND(D85)</f>
+        <f t="shared" si="7"/>
         <v>658</v>
       </c>
       <c r="I85" s="27" t="str">
@@ -38542,19 +38542,19 @@
         <v>192</v>
       </c>
       <c r="E86" s="19">
-        <f>D86-C86</f>
+        <f t="shared" si="4"/>
         <v>1.3888888888888892E-4</v>
       </c>
       <c r="F86" s="6">
-        <f>HOUR(E86) *3600 + MINUTE(E86) * 60 + SECOND(E86)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="G86" s="22">
-        <f>HOUR(C86) *3600 + MINUTE(C86) * 60 + SECOND(C86)</f>
+        <f t="shared" si="6"/>
         <v>662</v>
       </c>
       <c r="H86" s="22">
-        <f>HOUR(D86) *3600 + MINUTE(D86) * 60 + SECOND(D86)</f>
+        <f t="shared" si="7"/>
         <v>674</v>
       </c>
       <c r="I86" s="27" t="str">
@@ -38587,19 +38587,19 @@
         <v>215</v>
       </c>
       <c r="E87" s="19">
-        <f>D87-C87</f>
+        <f t="shared" si="4"/>
         <v>1.1574074074074091E-4</v>
       </c>
       <c r="F87" s="6">
-        <f>HOUR(E87) *3600 + MINUTE(E87) * 60 + SECOND(E87)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G87" s="22">
-        <f>HOUR(C87) *3600 + MINUTE(C87) * 60 + SECOND(C87)</f>
+        <f t="shared" si="6"/>
         <v>720</v>
       </c>
       <c r="H87" s="22">
-        <f>HOUR(D87) *3600 + MINUTE(D87) * 60 + SECOND(D87)</f>
+        <f t="shared" si="7"/>
         <v>730</v>
       </c>
       <c r="I87" s="27" t="str">
@@ -38632,19 +38632,19 @@
         <v>892</v>
       </c>
       <c r="E88" s="19">
-        <f>D88-C88</f>
+        <f t="shared" si="4"/>
         <v>7.1759259259259606E-4</v>
       </c>
       <c r="F88" s="6">
-        <f>HOUR(E88) *3600 + MINUTE(E88) * 60 + SECOND(E88)</f>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="G88" s="22">
-        <f>HOUR(C88) *3600 + MINUTE(C88) * 60 + SECOND(C88)</f>
+        <f t="shared" si="6"/>
         <v>3570</v>
       </c>
       <c r="H88" s="22">
-        <f>HOUR(D88) *3600 + MINUTE(D88) * 60 + SECOND(D88)</f>
+        <f t="shared" si="7"/>
         <v>3632</v>
       </c>
       <c r="I88" s="27" t="str">
@@ -38677,19 +38677,19 @@
         <v>266</v>
       </c>
       <c r="E89" s="19">
-        <f>D89-C89</f>
+        <f t="shared" si="4"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F89" s="6">
-        <f>HOUR(E89) *3600 + MINUTE(E89) * 60 + SECOND(E89)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G89" s="22">
-        <f>HOUR(C89) *3600 + MINUTE(C89) * 60 + SECOND(C89)</f>
+        <f t="shared" si="6"/>
         <v>850</v>
       </c>
       <c r="H89" s="22">
-        <f>HOUR(D89) *3600 + MINUTE(D89) * 60 + SECOND(D89)</f>
+        <f t="shared" si="7"/>
         <v>852</v>
       </c>
       <c r="I89" s="27" t="str">
@@ -38722,19 +38722,19 @@
         <v>283</v>
       </c>
       <c r="E90" s="19">
-        <f>D90-C90</f>
+        <f t="shared" si="4"/>
         <v>3.4722222222222272E-4</v>
       </c>
       <c r="F90" s="6">
-        <f>HOUR(E90) *3600 + MINUTE(E90) * 60 + SECOND(E90)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="G90" s="22">
-        <f>HOUR(C90) *3600 + MINUTE(C90) * 60 + SECOND(C90)</f>
+        <f t="shared" si="6"/>
         <v>906</v>
       </c>
       <c r="H90" s="22">
-        <f>HOUR(D90) *3600 + MINUTE(D90) * 60 + SECOND(D90)</f>
+        <f t="shared" si="7"/>
         <v>936</v>
       </c>
       <c r="I90" s="27" t="str">
@@ -38767,19 +38767,19 @@
         <v>291</v>
       </c>
       <c r="E91" s="19">
-        <f>D91-C91</f>
+        <f t="shared" si="4"/>
         <v>3.2407407407407558E-4</v>
       </c>
       <c r="F91" s="6">
-        <f>HOUR(E91) *3600 + MINUTE(E91) * 60 + SECOND(E91)</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="G91" s="22">
-        <f>HOUR(C91) *3600 + MINUTE(C91) * 60 + SECOND(C91)</f>
+        <f t="shared" si="6"/>
         <v>980</v>
       </c>
       <c r="H91" s="22">
-        <f>HOUR(D91) *3600 + MINUTE(D91) * 60 + SECOND(D91)</f>
+        <f t="shared" si="7"/>
         <v>1008</v>
       </c>
       <c r="I91" s="27" t="str">
@@ -38812,19 +38812,19 @@
         <v>495</v>
       </c>
       <c r="E92" s="19">
-        <f>D92-C92</f>
+        <f t="shared" si="4"/>
         <v>6.9444444444441422E-5</v>
       </c>
       <c r="F92" s="6">
-        <f>HOUR(E92) *3600 + MINUTE(E92) * 60 + SECOND(E92)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="G92" s="22">
-        <f>HOUR(C92) *3600 + MINUTE(C92) * 60 + SECOND(C92)</f>
+        <f t="shared" si="6"/>
         <v>1622</v>
       </c>
       <c r="H92" s="22">
-        <f>HOUR(D92) *3600 + MINUTE(D92) * 60 + SECOND(D92)</f>
+        <f t="shared" si="7"/>
         <v>1628</v>
       </c>
       <c r="I92" s="27" t="str">
@@ -38857,19 +38857,19 @@
         <v>551</v>
       </c>
       <c r="E93" s="19">
-        <f>D93-C93</f>
+        <f t="shared" si="4"/>
         <v>1.1574074074074611E-4</v>
       </c>
       <c r="F93" s="6">
-        <f>HOUR(E93) *3600 + MINUTE(E93) * 60 + SECOND(E93)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G93" s="22">
-        <f>HOUR(C93) *3600 + MINUTE(C93) * 60 + SECOND(C93)</f>
+        <f t="shared" si="6"/>
         <v>1886</v>
       </c>
       <c r="H93" s="22">
-        <f>HOUR(D93) *3600 + MINUTE(D93) * 60 + SECOND(D93)</f>
+        <f t="shared" si="7"/>
         <v>1896</v>
       </c>
       <c r="I93" s="27" t="str">
@@ -38902,19 +38902,19 @@
         <v>724</v>
       </c>
       <c r="E94" s="19">
-        <f>D94-C94</f>
+        <f t="shared" si="4"/>
         <v>6.9444444444444892E-5</v>
       </c>
       <c r="F94" s="6">
-        <f>HOUR(E94) *3600 + MINUTE(E94) * 60 + SECOND(E94)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="G94" s="22">
-        <f>HOUR(C94) *3600 + MINUTE(C94) * 60 + SECOND(C94)</f>
+        <f t="shared" si="6"/>
         <v>2662</v>
       </c>
       <c r="H94" s="22">
-        <f>HOUR(D94) *3600 + MINUTE(D94) * 60 + SECOND(D94)</f>
+        <f t="shared" si="7"/>
         <v>2668</v>
       </c>
       <c r="I94" s="27" t="str">
@@ -38947,19 +38947,19 @@
         <v>771</v>
       </c>
       <c r="E95" s="19">
-        <f>D95-C95</f>
+        <f t="shared" si="4"/>
         <v>1.157407407407357E-4</v>
       </c>
       <c r="F95" s="6">
-        <f>HOUR(E95) *3600 + MINUTE(E95) * 60 + SECOND(E95)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G95" s="22">
-        <f>HOUR(C95) *3600 + MINUTE(C95) * 60 + SECOND(C95)</f>
+        <f t="shared" si="6"/>
         <v>2790</v>
       </c>
       <c r="H95" s="22">
-        <f>HOUR(D95) *3600 + MINUTE(D95) * 60 + SECOND(D95)</f>
+        <f t="shared" si="7"/>
         <v>2800</v>
       </c>
       <c r="I95" s="27" t="str">
@@ -38992,19 +38992,19 @@
         <v>846</v>
       </c>
       <c r="E96" s="19">
-        <f>D96-C96</f>
+        <f t="shared" si="4"/>
         <v>1.1574074074074264E-4</v>
       </c>
       <c r="F96" s="6">
-        <f>HOUR(E96) *3600 + MINUTE(E96) * 60 + SECOND(E96)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G96" s="22">
-        <f>HOUR(C96) *3600 + MINUTE(C96) * 60 + SECOND(C96)</f>
+        <f t="shared" si="6"/>
         <v>3060</v>
       </c>
       <c r="H96" s="22">
-        <f>HOUR(D96) *3600 + MINUTE(D96) * 60 + SECOND(D96)</f>
+        <f t="shared" si="7"/>
         <v>3070</v>
       </c>
       <c r="I96" s="27" t="str">
@@ -39037,19 +39037,19 @@
         <v>862</v>
       </c>
       <c r="E97" s="19">
-        <f>D97-C97</f>
+        <f t="shared" si="4"/>
         <v>6.9444444444448361E-5</v>
       </c>
       <c r="F97" s="6">
-        <f>HOUR(E97) *3600 + MINUTE(E97) * 60 + SECOND(E97)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="G97" s="22">
-        <f>HOUR(C97) *3600 + MINUTE(C97) * 60 + SECOND(C97)</f>
+        <f t="shared" si="6"/>
         <v>3108</v>
       </c>
       <c r="H97" s="22">
-        <f>HOUR(D97) *3600 + MINUTE(D97) * 60 + SECOND(D97)</f>
+        <f t="shared" si="7"/>
         <v>3114</v>
       </c>
       <c r="I97" s="27" t="str">
@@ -39082,19 +39082,19 @@
         <v>170</v>
       </c>
       <c r="E98" s="19">
-        <f>D98-C98</f>
+        <f t="shared" si="4"/>
         <v>6.9444444444444024E-5</v>
       </c>
       <c r="F98" s="6">
-        <f>HOUR(E98) *3600 + MINUTE(E98) * 60 + SECOND(E98)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="G98" s="22">
-        <f>HOUR(C98) *3600 + MINUTE(C98) * 60 + SECOND(C98)</f>
+        <f t="shared" si="6"/>
         <v>556</v>
       </c>
       <c r="H98" s="22">
-        <f>HOUR(D98) *3600 + MINUTE(D98) * 60 + SECOND(D98)</f>
+        <f t="shared" si="7"/>
         <v>562</v>
       </c>
       <c r="I98" s="27" t="str">
@@ -39127,19 +39127,19 @@
         <v>256</v>
       </c>
       <c r="E99" s="19">
-        <f>D99-C99</f>
+        <f t="shared" si="4"/>
         <v>4.6296296296296016E-5</v>
       </c>
       <c r="F99" s="6">
-        <f>HOUR(E99) *3600 + MINUTE(E99) * 60 + SECOND(E99)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G99" s="22">
-        <f>HOUR(C99) *3600 + MINUTE(C99) * 60 + SECOND(C99)</f>
+        <f t="shared" si="6"/>
         <v>822</v>
       </c>
       <c r="H99" s="22">
-        <f>HOUR(D99) *3600 + MINUTE(D99) * 60 + SECOND(D99)</f>
+        <f t="shared" si="7"/>
         <v>826</v>
       </c>
       <c r="I99" s="27" t="str">
@@ -39172,19 +39172,19 @@
         <v>322</v>
       </c>
       <c r="E100" s="19">
-        <f>D100-C100</f>
+        <f t="shared" si="4"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F100" s="6">
-        <f>HOUR(E100) *3600 + MINUTE(E100) * 60 + SECOND(E100)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G100" s="22">
-        <f>HOUR(C100) *3600 + MINUTE(C100) * 60 + SECOND(C100)</f>
+        <f t="shared" si="6"/>
         <v>1056</v>
       </c>
       <c r="H100" s="22">
-        <f>HOUR(D100) *3600 + MINUTE(D100) * 60 + SECOND(D100)</f>
+        <f t="shared" si="7"/>
         <v>1058</v>
       </c>
       <c r="I100" s="27" t="str">
@@ -39217,19 +39217,19 @@
         <v>441</v>
       </c>
       <c r="E101" s="19">
-        <f>D101-C101</f>
+        <f t="shared" si="4"/>
         <v>1.85185185185191E-4</v>
       </c>
       <c r="F101" s="6">
-        <f>HOUR(E101) *3600 + MINUTE(E101) * 60 + SECOND(E101)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="G101" s="22">
-        <f>HOUR(C101) *3600 + MINUTE(C101) * 60 + SECOND(C101)</f>
+        <f t="shared" si="6"/>
         <v>1404</v>
       </c>
       <c r="H101" s="22">
-        <f>HOUR(D101) *3600 + MINUTE(D101) * 60 + SECOND(D101)</f>
+        <f t="shared" si="7"/>
         <v>1420</v>
       </c>
       <c r="I101" s="27" t="str">
@@ -39262,19 +39262,19 @@
         <v>853</v>
       </c>
       <c r="E102" s="19">
-        <f>D102-C102</f>
+        <f t="shared" si="4"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F102" s="6">
-        <f>HOUR(E102) *3600 + MINUTE(E102) * 60 + SECOND(E102)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G102" s="22">
-        <f>HOUR(C102) *3600 + MINUTE(C102) * 60 + SECOND(C102)</f>
+        <f t="shared" si="6"/>
         <v>3070</v>
       </c>
       <c r="H102" s="22">
-        <f>HOUR(D102) *3600 + MINUTE(D102) * 60 + SECOND(D102)</f>
+        <f t="shared" si="7"/>
         <v>3072</v>
       </c>
       <c r="I102" s="27" t="str">
@@ -39307,19 +39307,19 @@
         <v>888</v>
       </c>
       <c r="E103" s="19">
-        <f>D103-C103</f>
+        <f t="shared" si="4"/>
         <v>1.2500000000000011E-3</v>
       </c>
       <c r="F103" s="6">
-        <f>HOUR(E103) *3600 + MINUTE(E103) * 60 + SECOND(E103)</f>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="G103" s="22">
-        <f>HOUR(C103) *3600 + MINUTE(C103) * 60 + SECOND(C103)</f>
+        <f t="shared" si="6"/>
         <v>3540</v>
       </c>
       <c r="H103" s="22">
-        <f>HOUR(D103) *3600 + MINUTE(D103) * 60 + SECOND(D103)</f>
+        <f t="shared" si="7"/>
         <v>3648</v>
       </c>
       <c r="I103" s="27" t="str">
@@ -39352,19 +39352,19 @@
         <v>909</v>
       </c>
       <c r="E104" s="19">
-        <f>D104-C104</f>
+        <f t="shared" si="4"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F104" s="6">
-        <f>HOUR(E104) *3600 + MINUTE(E104) * 60 + SECOND(E104)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G104" s="22">
-        <f>HOUR(C104) *3600 + MINUTE(C104) * 60 + SECOND(C104)</f>
+        <f t="shared" si="6"/>
         <v>3666</v>
       </c>
       <c r="H104" s="22">
-        <f>HOUR(D104) *3600 + MINUTE(D104) * 60 + SECOND(D104)</f>
+        <f t="shared" si="7"/>
         <v>3670</v>
       </c>
       <c r="I104" s="27" t="str">
@@ -39397,19 +39397,19 @@
         <v>76</v>
       </c>
       <c r="E105" s="19">
-        <f>D105-C105</f>
+        <f t="shared" si="4"/>
         <v>4.6296296296296884E-5</v>
       </c>
       <c r="F105" s="6">
-        <f>HOUR(E105) *3600 + MINUTE(E105) * 60 + SECOND(E105)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G105" s="22">
-        <f>HOUR(C105) *3600 + MINUTE(C105) * 60 + SECOND(C105)</f>
+        <f t="shared" si="6"/>
         <v>274</v>
       </c>
       <c r="H105" s="22">
-        <f>HOUR(D105) *3600 + MINUTE(D105) * 60 + SECOND(D105)</f>
+        <f t="shared" si="7"/>
         <v>278</v>
       </c>
       <c r="I105" s="27" t="str">
@@ -39442,19 +39442,19 @@
         <v>224</v>
       </c>
       <c r="E106" s="19">
-        <f>D106-C106</f>
+        <f t="shared" si="4"/>
         <v>3.0092592592592324E-4</v>
       </c>
       <c r="F106" s="6">
-        <f>HOUR(E106) *3600 + MINUTE(E106) * 60 + SECOND(E106)</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="G106" s="22">
-        <f>HOUR(C106) *3600 + MINUTE(C106) * 60 + SECOND(C106)</f>
+        <f t="shared" si="6"/>
         <v>738</v>
       </c>
       <c r="H106" s="22">
-        <f>HOUR(D106) *3600 + MINUTE(D106) * 60 + SECOND(D106)</f>
+        <f t="shared" si="7"/>
         <v>764</v>
       </c>
       <c r="I106" s="27" t="str">
@@ -39487,19 +39487,19 @@
         <v>358</v>
       </c>
       <c r="E107" s="19">
-        <f>D107-C107</f>
+        <f t="shared" si="4"/>
         <v>1.1574074074074091E-4</v>
       </c>
       <c r="F107" s="6">
-        <f>HOUR(E107) *3600 + MINUTE(E107) * 60 + SECOND(E107)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="G107" s="22">
-        <f>HOUR(C107) *3600 + MINUTE(C107) * 60 + SECOND(C107)</f>
+        <f t="shared" si="6"/>
         <v>1142</v>
       </c>
       <c r="H107" s="22">
-        <f>HOUR(D107) *3600 + MINUTE(D107) * 60 + SECOND(D107)</f>
+        <f t="shared" si="7"/>
         <v>1152</v>
       </c>
       <c r="I107" s="27" t="str">
@@ -39532,19 +39532,19 @@
         <v>131</v>
       </c>
       <c r="E108" s="19">
-        <f>D108-C108</f>
+        <f t="shared" si="4"/>
         <v>2.3148148148148875E-5</v>
       </c>
       <c r="F108" s="6">
-        <f>HOUR(E108) *3600 + MINUTE(E108) * 60 + SECOND(E108)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G108" s="22">
-        <f>HOUR(C108) *3600 + MINUTE(C108) * 60 + SECOND(C108)</f>
+        <f t="shared" si="6"/>
         <v>412</v>
       </c>
       <c r="H108" s="22">
-        <f>HOUR(D108) *3600 + MINUTE(D108) * 60 + SECOND(D108)</f>
+        <f t="shared" si="7"/>
         <v>414</v>
       </c>
       <c r="I108" s="27" t="str">
@@ -39577,19 +39577,19 @@
         <v>184</v>
       </c>
       <c r="E109" s="19">
-        <f>D109-C109</f>
+        <f t="shared" si="4"/>
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="F109" s="6">
-        <f>HOUR(E109) *3600 + MINUTE(E109) * 60 + SECOND(E109)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G109" s="22">
-        <f>HOUR(C109) *3600 + MINUTE(C109) * 60 + SECOND(C109)</f>
+        <f t="shared" si="6"/>
         <v>590</v>
       </c>
       <c r="H109" s="22">
-        <f>HOUR(D109) *3600 + MINUTE(D109) * 60 + SECOND(D109)</f>
+        <f t="shared" si="7"/>
         <v>592</v>
       </c>
       <c r="I109" s="27" t="str">
@@ -39622,19 +39622,19 @@
         <v>334</v>
       </c>
       <c r="E110" s="19">
-        <f>D110-C110</f>
+        <f t="shared" si="4"/>
         <v>4.6296296296297751E-5</v>
       </c>
       <c r="F110" s="6">
-        <f>HOUR(E110) *3600 + MINUTE(E110) * 60 + SECOND(E110)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G110" s="22">
-        <f>HOUR(C110) *3600 + MINUTE(C110) * 60 + SECOND(C110)</f>
+        <f t="shared" si="6"/>
         <v>1122</v>
       </c>
       <c r="H110" s="22">
-        <f>HOUR(D110) *3600 + MINUTE(D110) * 60 + SECOND(D110)</f>
+        <f t="shared" si="7"/>
         <v>1126</v>
       </c>
       <c r="I110" s="27" t="str">
@@ -39667,19 +39667,19 @@
         <v>680</v>
       </c>
       <c r="E111" s="19">
-        <f>D111-C111</f>
+        <f t="shared" si="4"/>
         <v>6.9444444444448361E-5</v>
       </c>
       <c r="F111" s="6">
-        <f>HOUR(E111) *3600 + MINUTE(E111) * 60 + SECOND(E111)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="G111" s="22">
-        <f>HOUR(C111) *3600 + MINUTE(C111) * 60 + SECOND(C111)</f>
+        <f t="shared" si="6"/>
         <v>2462</v>
       </c>
       <c r="H111" s="22">
-        <f>HOUR(D111) *3600 + MINUTE(D111) * 60 + SECOND(D111)</f>
+        <f t="shared" si="7"/>
         <v>2468</v>
       </c>
       <c r="I111" s="27" t="str">
@@ -39712,19 +39712,19 @@
         <v>567</v>
       </c>
       <c r="E112" s="19">
-        <f>D112-C112</f>
+        <f t="shared" si="4"/>
         <v>6.9444444444448361E-5</v>
       </c>
       <c r="F112" s="6">
-        <f>HOUR(E112) *3600 + MINUTE(E112) * 60 + SECOND(E112)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="G112" s="22">
-        <f>HOUR(C112) *3600 + MINUTE(C112) * 60 + SECOND(C112)</f>
+        <f t="shared" si="6"/>
         <v>1946</v>
       </c>
       <c r="H112" s="22">
-        <f>HOUR(D112) *3600 + MINUTE(D112) * 60 + SECOND(D112)</f>
+        <f t="shared" si="7"/>
         <v>1952</v>
       </c>
       <c r="I112" s="27" t="str">
@@ -39757,19 +39757,19 @@
         <v>88</v>
       </c>
       <c r="E113" s="19">
-        <f>D113-C113</f>
+        <f t="shared" si="4"/>
         <v>4.629629629629645E-5</v>
       </c>
       <c r="F113" s="6">
-        <f>HOUR(E113) *3600 + MINUTE(E113) * 60 + SECOND(E113)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G113" s="22">
-        <f>HOUR(C113) *3600 + MINUTE(C113) * 60 + SECOND(C113)</f>
+        <f t="shared" si="6"/>
         <v>288</v>
       </c>
       <c r="H113" s="22">
-        <f>HOUR(D113) *3600 + MINUTE(D113) * 60 + SECOND(D113)</f>
+        <f t="shared" si="7"/>
         <v>292</v>
       </c>
       <c r="I113" s="27" t="str">
@@ -39802,19 +39802,19 @@
         <v>266</v>
       </c>
       <c r="E114" s="19">
-        <f>D114-C114</f>
+        <f t="shared" si="4"/>
         <v>4.6296296296296016E-5</v>
       </c>
       <c r="F114" s="6">
-        <f>HOUR(E114) *3600 + MINUTE(E114) * 60 + SECOND(E114)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G114" s="22">
-        <f>HOUR(C114) *3600 + MINUTE(C114) * 60 + SECOND(C114)</f>
+        <f t="shared" si="6"/>
         <v>848</v>
       </c>
       <c r="H114" s="22">
-        <f>HOUR(D114) *3600 + MINUTE(D114) * 60 + SECOND(D114)</f>
+        <f t="shared" si="7"/>
         <v>852</v>
       </c>
       <c r="I114" s="27" t="str">
@@ -39847,19 +39847,19 @@
         <v>759</v>
       </c>
       <c r="E115" s="19">
-        <f>D115-C115</f>
+        <f t="shared" si="4"/>
         <v>4.629629629630122E-5</v>
       </c>
       <c r="F115" s="6">
-        <f>HOUR(E115) *3600 + MINUTE(E115) * 60 + SECOND(E115)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G115" s="22">
-        <f>HOUR(C115) *3600 + MINUTE(C115) * 60 + SECOND(C115)</f>
+        <f t="shared" si="6"/>
         <v>2762</v>
       </c>
       <c r="H115" s="22">
-        <f>HOUR(D115) *3600 + MINUTE(D115) * 60 + SECOND(D115)</f>
+        <f t="shared" si="7"/>
         <v>2766</v>
       </c>
       <c r="I115" s="27" t="str">
@@ -39892,19 +39892,19 @@
         <v>737</v>
       </c>
       <c r="E116" s="19">
-        <f>D116-C116</f>
+        <f t="shared" si="4"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F116" s="6">
-        <f>HOUR(E116) *3600 + MINUTE(E116) * 60 + SECOND(E116)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G116" s="22">
-        <f>HOUR(C116) *3600 + MINUTE(C116) * 60 + SECOND(C116)</f>
+        <f t="shared" si="6"/>
         <v>2698</v>
       </c>
       <c r="H116" s="22">
-        <f>HOUR(D116) *3600 + MINUTE(D116) * 60 + SECOND(D116)</f>
+        <f t="shared" si="7"/>
         <v>2702</v>
       </c>
       <c r="I116" s="27" t="str">
@@ -39937,19 +39937,19 @@
         <v>873</v>
       </c>
       <c r="E117" s="19">
-        <f>D117-C117</f>
+        <f t="shared" si="4"/>
         <v>1.8518518518517713E-4</v>
       </c>
       <c r="F117" s="6">
-        <f>HOUR(E117) *3600 + MINUTE(E117) * 60 + SECOND(E117)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="G117" s="22">
-        <f>HOUR(C117) *3600 + MINUTE(C117) * 60 + SECOND(C117)</f>
+        <f t="shared" si="6"/>
         <v>3170</v>
       </c>
       <c r="H117" s="22">
-        <f>HOUR(D117) *3600 + MINUTE(D117) * 60 + SECOND(D117)</f>
+        <f t="shared" si="7"/>
         <v>3186</v>
       </c>
       <c r="I117" s="27" t="str">
@@ -39982,19 +39982,19 @@
         <v>15</v>
       </c>
       <c r="E118" s="19">
-        <f>D118-C118</f>
+        <f t="shared" si="4"/>
         <v>4.6296296296296294E-5</v>
       </c>
       <c r="F118" s="6">
-        <f>HOUR(E118) *3600 + MINUTE(E118) * 60 + SECOND(E118)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G118" s="22">
-        <f>HOUR(C118) *3600 + MINUTE(C118) * 60 + SECOND(C118)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="H118" s="22">
-        <f>HOUR(D118) *3600 + MINUTE(D118) * 60 + SECOND(D118)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I118" s="27" t="str">
@@ -40027,19 +40027,19 @@
         <v>861</v>
       </c>
       <c r="E119" s="19">
-        <f>D119-C119</f>
+        <f t="shared" si="4"/>
         <v>1.8518518518518406E-4</v>
       </c>
       <c r="F119" s="6">
-        <f>HOUR(E119) *3600 + MINUTE(E119) * 60 + SECOND(E119)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="G119" s="22">
-        <f>HOUR(C119) *3600 + MINUTE(C119) * 60 + SECOND(C119)</f>
+        <f t="shared" si="6"/>
         <v>3090</v>
       </c>
       <c r="H119" s="22">
-        <f>HOUR(D119) *3600 + MINUTE(D119) * 60 + SECOND(D119)</f>
+        <f t="shared" si="7"/>
         <v>3106</v>
       </c>
       <c r="I119" s="27" t="str">
@@ -40072,19 +40072,19 @@
         <v>116</v>
       </c>
       <c r="E120" s="19">
-        <f>D120-C120</f>
+        <f t="shared" si="4"/>
         <v>4.6296296296296016E-5</v>
       </c>
       <c r="F120" s="6">
-        <f>HOUR(E120) *3600 + MINUTE(E120) * 60 + SECOND(E120)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G120" s="22">
-        <f>HOUR(C120) *3600 + MINUTE(C120) * 60 + SECOND(C120)</f>
+        <f t="shared" si="6"/>
         <v>356</v>
       </c>
       <c r="H120" s="22">
-        <f>HOUR(D120) *3600 + MINUTE(D120) * 60 + SECOND(D120)</f>
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="I120" s="27" t="str">
@@ -40117,19 +40117,19 @@
         <v>656</v>
       </c>
       <c r="E121" s="19">
-        <f>D121-C121</f>
+        <f t="shared" si="4"/>
         <v>2.314814814815061E-5</v>
       </c>
       <c r="F121" s="6">
-        <f>HOUR(E121) *3600 + MINUTE(E121) * 60 + SECOND(E121)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G121" s="22">
-        <f>HOUR(C121) *3600 + MINUTE(C121) * 60 + SECOND(C121)</f>
+        <f t="shared" si="6"/>
         <v>2320</v>
       </c>
       <c r="H121" s="22">
-        <f>HOUR(D121) *3600 + MINUTE(D121) * 60 + SECOND(D121)</f>
+        <f t="shared" si="7"/>
         <v>2322</v>
       </c>
       <c r="I121" s="27" t="str">
@@ -40162,19 +40162,19 @@
         <v>846</v>
       </c>
       <c r="E122" s="19">
-        <f>D122-C122</f>
+        <f t="shared" si="4"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F122" s="6">
-        <f>HOUR(E122) *3600 + MINUTE(E122) * 60 + SECOND(E122)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G122" s="22">
-        <f>HOUR(C122) *3600 + MINUTE(C122) * 60 + SECOND(C122)</f>
+        <f t="shared" si="6"/>
         <v>3066</v>
       </c>
       <c r="H122" s="22">
-        <f>HOUR(D122) *3600 + MINUTE(D122) * 60 + SECOND(D122)</f>
+        <f t="shared" si="7"/>
         <v>3070</v>
       </c>
       <c r="I122" s="27" t="str">
@@ -40207,19 +40207,19 @@
         <v>862</v>
       </c>
       <c r="E123" s="19">
-        <f>D123-C123</f>
+        <f t="shared" si="4"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F123" s="6">
-        <f>HOUR(E123) *3600 + MINUTE(E123) * 60 + SECOND(E123)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G123" s="22">
-        <f>HOUR(C123) *3600 + MINUTE(C123) * 60 + SECOND(C123)</f>
+        <f t="shared" si="6"/>
         <v>3110</v>
       </c>
       <c r="H123" s="22">
-        <f>HOUR(D123) *3600 + MINUTE(D123) * 60 + SECOND(D123)</f>
+        <f t="shared" si="7"/>
         <v>3114</v>
       </c>
       <c r="I123" s="27" t="str">
@@ -40252,19 +40252,19 @@
         <v>93</v>
       </c>
       <c r="E124" s="19">
-        <f>D124-C124</f>
+        <f t="shared" si="4"/>
         <v>4.6296296296296016E-5</v>
       </c>
       <c r="F124" s="6">
-        <f>HOUR(E124) *3600 + MINUTE(E124) * 60 + SECOND(E124)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G124" s="22">
-        <f>HOUR(C124) *3600 + MINUTE(C124) * 60 + SECOND(C124)</f>
+        <f t="shared" si="6"/>
         <v>298</v>
       </c>
       <c r="H124" s="22">
-        <f>HOUR(D124) *3600 + MINUTE(D124) * 60 + SECOND(D124)</f>
+        <f t="shared" si="7"/>
         <v>302</v>
       </c>
       <c r="I124" s="27" t="str">
@@ -40297,19 +40297,19 @@
         <v>245</v>
       </c>
       <c r="E125" s="19">
-        <f>D125-C125</f>
+        <f t="shared" si="4"/>
         <v>4.6296296296297751E-5</v>
       </c>
       <c r="F125" s="6">
-        <f>HOUR(E125) *3600 + MINUTE(E125) * 60 + SECOND(E125)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G125" s="22">
-        <f>HOUR(C125) *3600 + MINUTE(C125) * 60 + SECOND(C125)</f>
+        <f t="shared" si="6"/>
         <v>764</v>
       </c>
       <c r="H125" s="22">
-        <f>HOUR(D125) *3600 + MINUTE(D125) * 60 + SECOND(D125)</f>
+        <f t="shared" si="7"/>
         <v>768</v>
       </c>
       <c r="I125" s="27" t="str">
@@ -40342,19 +40342,19 @@
         <v>391</v>
       </c>
       <c r="E126" s="19">
-        <f>D126-C126</f>
+        <f t="shared" si="4"/>
         <v>2.314814814815061E-5</v>
       </c>
       <c r="F126" s="6">
-        <f>HOUR(E126) *3600 + MINUTE(E126) * 60 + SECOND(E126)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G126" s="22">
-        <f>HOUR(C126) *3600 + MINUTE(C126) * 60 + SECOND(C126)</f>
+        <f t="shared" si="6"/>
         <v>1230</v>
       </c>
       <c r="H126" s="22">
-        <f>HOUR(D126) *3600 + MINUTE(D126) * 60 + SECOND(D126)</f>
+        <f t="shared" si="7"/>
         <v>1232</v>
       </c>
       <c r="I126" s="27" t="str">
@@ -40387,19 +40387,19 @@
         <v>828</v>
       </c>
       <c r="E127" s="19">
-        <f>D127-C127</f>
+        <f t="shared" si="4"/>
         <v>9.2592592592588563E-5</v>
       </c>
       <c r="F127" s="6">
-        <f>HOUR(E127) *3600 + MINUTE(E127) * 60 + SECOND(E127)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="G127" s="22">
-        <f>HOUR(C127) *3600 + MINUTE(C127) * 60 + SECOND(C127)</f>
+        <f t="shared" si="6"/>
         <v>3042</v>
       </c>
       <c r="H127" s="22">
-        <f>HOUR(D127) *3600 + MINUTE(D127) * 60 + SECOND(D127)</f>
+        <f t="shared" si="7"/>
         <v>3050</v>
       </c>
       <c r="I127" s="27" t="str">
@@ -40432,19 +40432,19 @@
         <v>392</v>
       </c>
       <c r="E128" s="19">
-        <f>D128-C128</f>
+        <f t="shared" si="4"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F128" s="6">
-        <f>HOUR(E128) *3600 + MINUTE(E128) * 60 + SECOND(E128)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G128" s="22">
-        <f>HOUR(C128) *3600 + MINUTE(C128) * 60 + SECOND(C128)</f>
+        <f t="shared" si="6"/>
         <v>1232</v>
       </c>
       <c r="H128" s="22">
-        <f>HOUR(D128) *3600 + MINUTE(D128) * 60 + SECOND(D128)</f>
+        <f t="shared" si="7"/>
         <v>1234</v>
       </c>
       <c r="I128" s="27" t="str">
@@ -40477,19 +40477,19 @@
         <v>110</v>
       </c>
       <c r="E129" s="19">
-        <f>D129-C129</f>
+        <f t="shared" si="4"/>
         <v>2.3148148148148442E-5</v>
       </c>
       <c r="F129" s="6">
-        <f>HOUR(E129) *3600 + MINUTE(E129) * 60 + SECOND(E129)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G129" s="22">
-        <f>HOUR(C129) *3600 + MINUTE(C129) * 60 + SECOND(C129)</f>
+        <f t="shared" si="6"/>
         <v>310</v>
       </c>
       <c r="H129" s="22">
-        <f>HOUR(D129) *3600 + MINUTE(D129) * 60 + SECOND(D129)</f>
+        <f t="shared" si="7"/>
         <v>312</v>
       </c>
       <c r="I129" s="27" t="str">
@@ -40522,19 +40522,19 @@
         <v>665</v>
       </c>
       <c r="E130" s="19">
-        <f>D130-C130</f>
+        <f t="shared" ref="E130:E193" si="8">D130-C130</f>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F130" s="6">
-        <f>HOUR(E130) *3600 + MINUTE(E130) * 60 + SECOND(E130)</f>
+        <f t="shared" ref="F130:F193" si="9">HOUR(E130) *3600 + MINUTE(E130) * 60 + SECOND(E130)</f>
         <v>2</v>
       </c>
       <c r="G130" s="22">
-        <f>HOUR(C130) *3600 + MINUTE(C130) * 60 + SECOND(C130)</f>
+        <f t="shared" ref="G130:G193" si="10">HOUR(C130) *3600 + MINUTE(C130) * 60 + SECOND(C130)</f>
         <v>2326</v>
       </c>
       <c r="H130" s="22">
-        <f>HOUR(D130) *3600 + MINUTE(D130) * 60 + SECOND(D130)</f>
+        <f t="shared" ref="H130:H193" si="11">HOUR(D130) *3600 + MINUTE(D130) * 60 + SECOND(D130)</f>
         <v>2328</v>
       </c>
       <c r="I130" s="27" t="str">
@@ -40567,19 +40567,19 @@
         <v>350</v>
       </c>
       <c r="E131" s="19">
-        <f>D131-C131</f>
+        <f t="shared" si="8"/>
         <v>2.2199074074074072E-2</v>
       </c>
       <c r="F131" s="6">
-        <f>HOUR(E131) *3600 + MINUTE(E131) * 60 + SECOND(E131)</f>
+        <f t="shared" si="9"/>
         <v>1918</v>
       </c>
       <c r="G131" s="22">
-        <f>HOUR(C131) *3600 + MINUTE(C131) * 60 + SECOND(C131)</f>
+        <f t="shared" si="10"/>
         <v>1140</v>
       </c>
       <c r="H131" s="22">
-        <f>HOUR(D131) *3600 + MINUTE(D131) * 60 + SECOND(D131)</f>
+        <f t="shared" si="11"/>
         <v>3058</v>
       </c>
       <c r="I131" s="27" t="str">
@@ -40612,19 +40612,19 @@
         <v>353</v>
       </c>
       <c r="E132" s="19">
-        <f>D132-C132</f>
+        <f t="shared" si="8"/>
         <v>2.3148148148148875E-5</v>
       </c>
       <c r="F132" s="6">
-        <f>HOUR(E132) *3600 + MINUTE(E132) * 60 + SECOND(E132)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G132" s="22">
-        <f>HOUR(C132) *3600 + MINUTE(C132) * 60 + SECOND(C132)</f>
+        <f t="shared" si="10"/>
         <v>1140</v>
       </c>
       <c r="H132" s="22">
-        <f>HOUR(D132) *3600 + MINUTE(D132) * 60 + SECOND(D132)</f>
+        <f t="shared" si="11"/>
         <v>1142</v>
       </c>
       <c r="I132" s="27" t="str">
@@ -40657,19 +40657,19 @@
         <v>478</v>
       </c>
       <c r="E133" s="19">
-        <f>D133-C133</f>
+        <f t="shared" si="8"/>
         <v>2.314814814815061E-5</v>
       </c>
       <c r="F133" s="6">
-        <f>HOUR(E133) *3600 + MINUTE(E133) * 60 + SECOND(E133)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G133" s="22">
-        <f>HOUR(C133) *3600 + MINUTE(C133) * 60 + SECOND(C133)</f>
+        <f t="shared" si="10"/>
         <v>1572</v>
       </c>
       <c r="H133" s="22">
-        <f>HOUR(D133) *3600 + MINUTE(D133) * 60 + SECOND(D133)</f>
+        <f t="shared" si="11"/>
         <v>1574</v>
       </c>
       <c r="I133" s="27" t="str">
@@ -40702,19 +40702,19 @@
         <v>350</v>
       </c>
       <c r="E134" s="19">
-        <f>D134-C134</f>
+        <f t="shared" si="8"/>
         <v>2.314814814815408E-5</v>
       </c>
       <c r="F134" s="6">
-        <f>HOUR(E134) *3600 + MINUTE(E134) * 60 + SECOND(E134)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G134" s="22">
-        <f>HOUR(C134) *3600 + MINUTE(C134) * 60 + SECOND(C134)</f>
+        <f t="shared" si="10"/>
         <v>3056</v>
       </c>
       <c r="H134" s="22">
-        <f>HOUR(D134) *3600 + MINUTE(D134) * 60 + SECOND(D134)</f>
+        <f t="shared" si="11"/>
         <v>3058</v>
       </c>
       <c r="I134" s="27" t="str">
@@ -40750,19 +40750,19 @@
         <v>100</v>
       </c>
       <c r="E135" s="19">
-        <f>D135-C135</f>
+        <f t="shared" si="8"/>
         <v>5.7870370370370411E-4</v>
       </c>
       <c r="F135" s="6">
-        <f>HOUR(E135) *3600 + MINUTE(E135) * 60 + SECOND(E135)</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="G135" s="22">
-        <f>HOUR(C135) *3600 + MINUTE(C135) * 60 + SECOND(C135)</f>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="H135" s="22">
-        <f>HOUR(D135) *3600 + MINUTE(D135) * 60 + SECOND(D135)</f>
+        <f t="shared" si="11"/>
         <v>356</v>
       </c>
       <c r="I135" s="27" t="str">
@@ -40798,19 +40798,19 @@
         <v>123</v>
       </c>
       <c r="E136" s="19">
-        <f>D136-C136</f>
+        <f t="shared" si="8"/>
         <v>1.1574074074074091E-4</v>
       </c>
       <c r="F136" s="6">
-        <f>HOUR(E136) *3600 + MINUTE(E136) * 60 + SECOND(E136)</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="G136" s="22">
-        <f>HOUR(C136) *3600 + MINUTE(C136) * 60 + SECOND(C136)</f>
+        <f t="shared" si="10"/>
         <v>364</v>
       </c>
       <c r="H136" s="22">
-        <f>HOUR(D136) *3600 + MINUTE(D136) * 60 + SECOND(D136)</f>
+        <f t="shared" si="11"/>
         <v>374</v>
       </c>
       <c r="I136" s="27" t="str">
@@ -40843,19 +40843,19 @@
         <v>179</v>
       </c>
       <c r="E137" s="19">
-        <f>D137-C137</f>
+        <f t="shared" si="8"/>
         <v>1.1574074074074091E-4</v>
       </c>
       <c r="F137" s="6">
-        <f>HOUR(E137) *3600 + MINUTE(E137) * 60 + SECOND(E137)</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="G137" s="22">
-        <f>HOUR(C137) *3600 + MINUTE(C137) * 60 + SECOND(C137)</f>
+        <f t="shared" si="10"/>
         <v>576</v>
       </c>
       <c r="H137" s="22">
-        <f>HOUR(D137) *3600 + MINUTE(D137) * 60 + SECOND(D137)</f>
+        <f t="shared" si="11"/>
         <v>586</v>
       </c>
       <c r="I137" s="27" t="str">
@@ -40888,19 +40888,19 @@
         <v>198</v>
       </c>
       <c r="E138" s="19">
-        <f>D138-C138</f>
+        <f t="shared" si="8"/>
         <v>4.6296296296296884E-5</v>
       </c>
       <c r="F138" s="6">
-        <f>HOUR(E138) *3600 + MINUTE(E138) * 60 + SECOND(E138)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G138" s="22">
-        <f>HOUR(C138) *3600 + MINUTE(C138) * 60 + SECOND(C138)</f>
+        <f t="shared" si="10"/>
         <v>674</v>
       </c>
       <c r="H138" s="22">
-        <f>HOUR(D138) *3600 + MINUTE(D138) * 60 + SECOND(D138)</f>
+        <f t="shared" si="11"/>
         <v>678</v>
       </c>
       <c r="I138" s="27" t="str">
@@ -40933,19 +40933,19 @@
         <v>221</v>
       </c>
       <c r="E139" s="19">
-        <f>D139-C139</f>
+        <f t="shared" si="8"/>
         <v>2.3148148148148875E-5</v>
       </c>
       <c r="F139" s="6">
-        <f>HOUR(E139) *3600 + MINUTE(E139) * 60 + SECOND(E139)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G139" s="22">
-        <f>HOUR(C139) *3600 + MINUTE(C139) * 60 + SECOND(C139)</f>
+        <f t="shared" si="10"/>
         <v>736</v>
       </c>
       <c r="H139" s="22">
-        <f>HOUR(D139) *3600 + MINUTE(D139) * 60 + SECOND(D139)</f>
+        <f t="shared" si="11"/>
         <v>738</v>
       </c>
       <c r="I139" s="27" t="str">
@@ -40978,19 +40978,19 @@
         <v>258</v>
       </c>
       <c r="E140" s="19">
-        <f>D140-C140</f>
+        <f t="shared" si="8"/>
         <v>2.3148148148148008E-4</v>
       </c>
       <c r="F140" s="6">
-        <f>HOUR(E140) *3600 + MINUTE(E140) * 60 + SECOND(E140)</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G140" s="22">
-        <f>HOUR(C140) *3600 + MINUTE(C140) * 60 + SECOND(C140)</f>
+        <f t="shared" si="10"/>
         <v>826</v>
       </c>
       <c r="H140" s="22">
-        <f>HOUR(D140) *3600 + MINUTE(D140) * 60 + SECOND(D140)</f>
+        <f t="shared" si="11"/>
         <v>846</v>
       </c>
       <c r="I140" s="27" t="str">
@@ -41023,19 +41023,19 @@
         <v>283</v>
       </c>
       <c r="E141" s="19">
-        <f>D141-C141</f>
+        <f t="shared" si="8"/>
         <v>1.1574074074074091E-4</v>
       </c>
       <c r="F141" s="6">
-        <f>HOUR(E141) *3600 + MINUTE(E141) * 60 + SECOND(E141)</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="G141" s="22">
-        <f>HOUR(C141) *3600 + MINUTE(C141) * 60 + SECOND(C141)</f>
+        <f t="shared" si="10"/>
         <v>926</v>
       </c>
       <c r="H141" s="22">
-        <f>HOUR(D141) *3600 + MINUTE(D141) * 60 + SECOND(D141)</f>
+        <f t="shared" si="11"/>
         <v>936</v>
       </c>
       <c r="I141" s="27" t="str">
@@ -41068,19 +41068,19 @@
         <v>291</v>
       </c>
       <c r="E142" s="19">
-        <f>D142-C142</f>
+        <f t="shared" si="8"/>
         <v>2.5462962962962896E-4</v>
       </c>
       <c r="F142" s="6">
-        <f>HOUR(E142) *3600 + MINUTE(E142) * 60 + SECOND(E142)</f>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="G142" s="22">
-        <f>HOUR(C142) *3600 + MINUTE(C142) * 60 + SECOND(C142)</f>
+        <f t="shared" si="10"/>
         <v>986</v>
       </c>
       <c r="H142" s="22">
-        <f>HOUR(D142) *3600 + MINUTE(D142) * 60 + SECOND(D142)</f>
+        <f t="shared" si="11"/>
         <v>1008</v>
       </c>
       <c r="I142" s="27" t="str">
@@ -41113,19 +41113,19 @@
         <v>299</v>
       </c>
       <c r="E143" s="19">
-        <f>D143-C143</f>
+        <f t="shared" si="8"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F143" s="6">
-        <f>HOUR(E143) *3600 + MINUTE(E143) * 60 + SECOND(E143)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G143" s="22">
-        <f>HOUR(C143) *3600 + MINUTE(C143) * 60 + SECOND(C143)</f>
+        <f t="shared" si="10"/>
         <v>1010</v>
       </c>
       <c r="H143" s="22">
-        <f>HOUR(D143) *3600 + MINUTE(D143) * 60 + SECOND(D143)</f>
+        <f t="shared" si="11"/>
         <v>1014</v>
       </c>
       <c r="I143" s="27" t="str">
@@ -41159,19 +41159,19 @@
         <v>547</v>
       </c>
       <c r="E144" s="19">
-        <f>D144-C144</f>
+        <f t="shared" si="8"/>
         <v>3.2407407407407385E-4</v>
       </c>
       <c r="F144" s="6">
-        <f>HOUR(E144) *3600 + MINUTE(E144) * 60 + SECOND(E144)</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="G144" s="22">
-        <f>HOUR(C144) *3600 + MINUTE(C144) * 60 + SECOND(C144)</f>
+        <f t="shared" si="10"/>
         <v>1884</v>
       </c>
       <c r="H144" s="22">
-        <f>HOUR(D144) *3600 + MINUTE(D144) * 60 + SECOND(D144)</f>
+        <f t="shared" si="11"/>
         <v>1912</v>
       </c>
       <c r="I144" s="27" t="str">
@@ -41204,19 +41204,19 @@
         <v>660</v>
       </c>
       <c r="E145" s="19">
-        <f>D145-C145</f>
+        <f t="shared" si="8"/>
         <v>2.5462962962963243E-4</v>
       </c>
       <c r="F145" s="6">
-        <f>HOUR(E145) *3600 + MINUTE(E145) * 60 + SECOND(E145)</f>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="G145" s="22">
-        <f>HOUR(C145) *3600 + MINUTE(C145) * 60 + SECOND(C145)</f>
+        <f t="shared" si="10"/>
         <v>2322</v>
       </c>
       <c r="H145" s="22">
-        <f>HOUR(D145) *3600 + MINUTE(D145) * 60 + SECOND(D145)</f>
+        <f t="shared" si="11"/>
         <v>2344</v>
       </c>
       <c r="I145" s="27" t="str">
@@ -41249,19 +41249,19 @@
         <v>849</v>
       </c>
       <c r="E146" s="19">
-        <f>D146-C146</f>
+        <f t="shared" si="8"/>
         <v>2.314814814815408E-5</v>
       </c>
       <c r="F146" s="6">
-        <f>HOUR(E146) *3600 + MINUTE(E146) * 60 + SECOND(E146)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G146" s="22">
-        <f>HOUR(C146) *3600 + MINUTE(C146) * 60 + SECOND(C146)</f>
+        <f t="shared" si="10"/>
         <v>3062</v>
       </c>
       <c r="H146" s="22">
-        <f>HOUR(D146) *3600 + MINUTE(D146) * 60 + SECOND(D146)</f>
+        <f t="shared" si="11"/>
         <v>3064</v>
       </c>
       <c r="I146" s="27" t="str">
@@ -41294,19 +41294,19 @@
         <v>890</v>
       </c>
       <c r="E147" s="19">
-        <f>D147-C147</f>
+        <f t="shared" si="8"/>
         <v>3.0092592592592671E-4</v>
       </c>
       <c r="F147" s="6">
-        <f>HOUR(E147) *3600 + MINUTE(E147) * 60 + SECOND(E147)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="G147" s="22">
-        <f>HOUR(C147) *3600 + MINUTE(C147) * 60 + SECOND(C147)</f>
+        <f t="shared" si="10"/>
         <v>3544</v>
       </c>
       <c r="H147" s="22">
-        <f>HOUR(D147) *3600 + MINUTE(D147) * 60 + SECOND(D147)</f>
+        <f t="shared" si="11"/>
         <v>3570</v>
       </c>
       <c r="I147" s="27" t="str">
@@ -41339,19 +41339,19 @@
         <v>897</v>
       </c>
       <c r="E148" s="19">
-        <f>D148-C148</f>
+        <f t="shared" si="8"/>
         <v>9.2592592592602441E-5</v>
       </c>
       <c r="F148" s="6">
-        <f>HOUR(E148) *3600 + MINUTE(E148) * 60 + SECOND(E148)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G148" s="22">
-        <f>HOUR(C148) *3600 + MINUTE(C148) * 60 + SECOND(C148)</f>
+        <f t="shared" si="10"/>
         <v>3634</v>
       </c>
       <c r="H148" s="22">
-        <f>HOUR(D148) *3600 + MINUTE(D148) * 60 + SECOND(D148)</f>
+        <f t="shared" si="11"/>
         <v>3642</v>
       </c>
       <c r="I148" s="27" t="str">
@@ -41384,19 +41384,19 @@
         <v>636</v>
       </c>
       <c r="E149" s="19">
-        <f>D149-C149</f>
+        <f t="shared" si="8"/>
         <v>3.703703703703716E-4</v>
       </c>
       <c r="F149" s="6">
-        <f>HOUR(E149) *3600 + MINUTE(E149) * 60 + SECOND(E149)</f>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="G149" s="22">
-        <f>HOUR(C149) *3600 + MINUTE(C149) * 60 + SECOND(C149)</f>
+        <f t="shared" si="10"/>
         <v>2140</v>
       </c>
       <c r="H149" s="22">
-        <f>HOUR(D149) *3600 + MINUTE(D149) * 60 + SECOND(D149)</f>
+        <f t="shared" si="11"/>
         <v>2172</v>
       </c>
       <c r="I149" s="27" t="str">
@@ -41429,19 +41429,19 @@
         <v>642</v>
       </c>
       <c r="E150" s="19">
-        <f>D150-C150</f>
+        <f t="shared" si="8"/>
         <v>7.1759259259259259E-4</v>
       </c>
       <c r="F150" s="6">
-        <f>HOUR(E150) *3600 + MINUTE(E150) * 60 + SECOND(E150)</f>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
       <c r="G150" s="22">
-        <f>HOUR(C150) *3600 + MINUTE(C150) * 60 + SECOND(C150)</f>
+        <f t="shared" si="10"/>
         <v>2196</v>
       </c>
       <c r="H150" s="22">
-        <f>HOUR(D150) *3600 + MINUTE(D150) * 60 + SECOND(D150)</f>
+        <f t="shared" si="11"/>
         <v>2258</v>
       </c>
       <c r="I150" s="27" t="str">
@@ -41474,19 +41474,19 @@
         <v>651</v>
       </c>
       <c r="E151" s="19">
-        <f>D151-C151</f>
+        <f t="shared" si="8"/>
         <v>5.0925925925925791E-4</v>
       </c>
       <c r="F151" s="6">
-        <f>HOUR(E151) *3600 + MINUTE(E151) * 60 + SECOND(E151)</f>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="G151" s="22">
-        <f>HOUR(C151) *3600 + MINUTE(C151) * 60 + SECOND(C151)</f>
+        <f t="shared" si="10"/>
         <v>2268</v>
       </c>
       <c r="H151" s="22">
-        <f>HOUR(D151) *3600 + MINUTE(D151) * 60 + SECOND(D151)</f>
+        <f t="shared" si="11"/>
         <v>2312</v>
       </c>
       <c r="I151" s="27" t="str">
@@ -41519,19 +41519,19 @@
         <v>674</v>
       </c>
       <c r="E152" s="19">
-        <f>D152-C152</f>
+        <f t="shared" si="8"/>
         <v>1.2037037037037034E-3</v>
       </c>
       <c r="F152" s="6">
-        <f>HOUR(E152) *3600 + MINUTE(E152) * 60 + SECOND(E152)</f>
+        <f t="shared" si="9"/>
         <v>104</v>
       </c>
       <c r="G152" s="22">
-        <f>HOUR(C152) *3600 + MINUTE(C152) * 60 + SECOND(C152)</f>
+        <f t="shared" si="10"/>
         <v>2350</v>
       </c>
       <c r="H152" s="22">
-        <f>HOUR(D152) *3600 + MINUTE(D152) * 60 + SECOND(D152)</f>
+        <f t="shared" si="11"/>
         <v>2454</v>
       </c>
       <c r="I152" s="27" t="str">
@@ -41564,19 +41564,19 @@
         <v>689</v>
       </c>
       <c r="E153" s="19">
-        <f>D153-C153</f>
+        <f t="shared" si="8"/>
         <v>1.851851851851806E-4</v>
       </c>
       <c r="F153" s="6">
-        <f>HOUR(E153) *3600 + MINUTE(E153) * 60 + SECOND(E153)</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="G153" s="22">
-        <f>HOUR(C153) *3600 + MINUTE(C153) * 60 + SECOND(C153)</f>
+        <f t="shared" si="10"/>
         <v>2474</v>
       </c>
       <c r="H153" s="22">
-        <f>HOUR(D153) *3600 + MINUTE(D153) * 60 + SECOND(D153)</f>
+        <f t="shared" si="11"/>
         <v>2490</v>
       </c>
       <c r="I153" s="27" t="str">
@@ -41609,19 +41609,19 @@
         <v>841</v>
       </c>
       <c r="E154" s="19">
-        <f>D154-C154</f>
+        <f t="shared" si="8"/>
         <v>6.9444444444441422E-5</v>
       </c>
       <c r="F154" s="6">
-        <f>HOUR(E154) *3600 + MINUTE(E154) * 60 + SECOND(E154)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="G154" s="22">
-        <f>HOUR(C154) *3600 + MINUTE(C154) * 60 + SECOND(C154)</f>
+        <f t="shared" si="10"/>
         <v>3050</v>
       </c>
       <c r="H154" s="22">
-        <f>HOUR(D154) *3600 + MINUTE(D154) * 60 + SECOND(D154)</f>
+        <f t="shared" si="11"/>
         <v>3056</v>
       </c>
       <c r="I154" s="27" t="str">
@@ -41654,19 +41654,19 @@
         <v>232</v>
       </c>
       <c r="E155" s="19">
-        <f>D155-C155</f>
+        <f t="shared" si="8"/>
         <v>2.3148148148148875E-5</v>
       </c>
       <c r="F155" s="6">
-        <f>HOUR(E155) *3600 + MINUTE(E155) * 60 + SECOND(E155)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G155" s="22">
-        <f>HOUR(C155) *3600 + MINUTE(C155) * 60 + SECOND(C155)</f>
+        <f t="shared" si="10"/>
         <v>744</v>
       </c>
       <c r="H155" s="22">
-        <f>HOUR(D155) *3600 + MINUTE(D155) * 60 + SECOND(D155)</f>
+        <f t="shared" si="11"/>
         <v>746</v>
       </c>
       <c r="I155" s="27" t="str">
@@ -41699,19 +41699,19 @@
         <v>244</v>
       </c>
       <c r="E156" s="19">
-        <f>D156-C156</f>
+        <f t="shared" si="8"/>
         <v>6.9444444444444892E-5</v>
       </c>
       <c r="F156" s="6">
-        <f>HOUR(E156) *3600 + MINUTE(E156) * 60 + SECOND(E156)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="G156" s="22">
-        <f>HOUR(C156) *3600 + MINUTE(C156) * 60 + SECOND(C156)</f>
+        <f t="shared" si="10"/>
         <v>754</v>
       </c>
       <c r="H156" s="22">
-        <f>HOUR(D156) *3600 + MINUTE(D156) * 60 + SECOND(D156)</f>
+        <f t="shared" si="11"/>
         <v>760</v>
       </c>
       <c r="I156" s="27" t="str">
@@ -41744,19 +41744,19 @@
         <v>250</v>
       </c>
       <c r="E157" s="19">
-        <f>D157-C157</f>
+        <f t="shared" si="8"/>
         <v>5.787037037037028E-4</v>
       </c>
       <c r="F157" s="6">
-        <f>HOUR(E157) *3600 + MINUTE(E157) * 60 + SECOND(E157)</f>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="G157" s="22">
-        <f>HOUR(C157) *3600 + MINUTE(C157) * 60 + SECOND(C157)</f>
+        <f t="shared" si="10"/>
         <v>768</v>
       </c>
       <c r="H157" s="22">
-        <f>HOUR(D157) *3600 + MINUTE(D157) * 60 + SECOND(D157)</f>
+        <f t="shared" si="11"/>
         <v>818</v>
       </c>
       <c r="I157" s="27" t="str">
@@ -41789,19 +41789,19 @@
         <v>408</v>
       </c>
       <c r="E158" s="19">
-        <f>D158-C158</f>
+        <f t="shared" si="8"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F158" s="6">
-        <f>HOUR(E158) *3600 + MINUTE(E158) * 60 + SECOND(E158)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G158" s="22">
-        <f>HOUR(C158) *3600 + MINUTE(C158) * 60 + SECOND(C158)</f>
+        <f t="shared" si="10"/>
         <v>1298</v>
       </c>
       <c r="H158" s="22">
-        <f>HOUR(D158) *3600 + MINUTE(D158) * 60 + SECOND(D158)</f>
+        <f t="shared" si="11"/>
         <v>1302</v>
       </c>
       <c r="I158" s="27" t="str">
@@ -41834,19 +41834,19 @@
         <v>605</v>
       </c>
       <c r="E159" s="19">
-        <f>D159-C159</f>
+        <f t="shared" si="8"/>
         <v>2.314814814815061E-5</v>
       </c>
       <c r="F159" s="6">
-        <f>HOUR(E159) *3600 + MINUTE(E159) * 60 + SECOND(E159)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G159" s="22">
-        <f>HOUR(C159) *3600 + MINUTE(C159) * 60 + SECOND(C159)</f>
+        <f t="shared" si="10"/>
         <v>2058</v>
       </c>
       <c r="H159" s="22">
-        <f>HOUR(D159) *3600 + MINUTE(D159) * 60 + SECOND(D159)</f>
+        <f t="shared" si="11"/>
         <v>2060</v>
       </c>
       <c r="I159" s="27" t="str">
@@ -41879,19 +41879,19 @@
         <v>648</v>
       </c>
       <c r="E160" s="19">
-        <f>D160-C160</f>
+        <f t="shared" si="8"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F160" s="6">
-        <f>HOUR(E160) *3600 + MINUTE(E160) * 60 + SECOND(E160)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G160" s="22">
-        <f>HOUR(C160) *3600 + MINUTE(C160) * 60 + SECOND(C160)</f>
+        <f t="shared" si="10"/>
         <v>2266</v>
       </c>
       <c r="H160" s="22">
-        <f>HOUR(D160) *3600 + MINUTE(D160) * 60 + SECOND(D160)</f>
+        <f t="shared" si="11"/>
         <v>2268</v>
       </c>
       <c r="I160" s="27" t="str">
@@ -41924,19 +41924,19 @@
         <v>866</v>
       </c>
       <c r="E161" s="19">
-        <f>D161-C161</f>
+        <f t="shared" si="8"/>
         <v>9.2592592592595502E-5</v>
       </c>
       <c r="F161" s="6">
-        <f>HOUR(E161) *3600 + MINUTE(E161) * 60 + SECOND(E161)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G161" s="22">
-        <f>HOUR(C161) *3600 + MINUTE(C161) * 60 + SECOND(C161)</f>
+        <f t="shared" si="10"/>
         <v>3116</v>
       </c>
       <c r="H161" s="22">
-        <f>HOUR(D161) *3600 + MINUTE(D161) * 60 + SECOND(D161)</f>
+        <f t="shared" si="11"/>
         <v>3124</v>
       </c>
       <c r="I161" s="27" t="str">
@@ -41969,19 +41969,19 @@
         <v>773</v>
       </c>
       <c r="E162" s="19">
-        <f>D162-C162</f>
+        <f t="shared" si="8"/>
         <v>1.8518518518517713E-4</v>
       </c>
       <c r="F162" s="6">
-        <f>HOUR(E162) *3600 + MINUTE(E162) * 60 + SECOND(E162)</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="G162" s="22">
-        <f>HOUR(C162) *3600 + MINUTE(C162) * 60 + SECOND(C162)</f>
+        <f t="shared" si="10"/>
         <v>2792</v>
       </c>
       <c r="H162" s="22">
-        <f>HOUR(D162) *3600 + MINUTE(D162) * 60 + SECOND(D162)</f>
+        <f t="shared" si="11"/>
         <v>2808</v>
       </c>
       <c r="I162" s="27" t="str">
@@ -42014,19 +42014,19 @@
         <v>777</v>
       </c>
       <c r="E163" s="19">
-        <f>D163-C163</f>
+        <f t="shared" si="8"/>
         <v>1.157407407407357E-4</v>
       </c>
       <c r="F163" s="6">
-        <f>HOUR(E163) *3600 + MINUTE(E163) * 60 + SECOND(E163)</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="G163" s="22">
-        <f>HOUR(C163) *3600 + MINUTE(C163) * 60 + SECOND(C163)</f>
+        <f t="shared" si="10"/>
         <v>2794</v>
       </c>
       <c r="H163" s="22">
-        <f>HOUR(D163) *3600 + MINUTE(D163) * 60 + SECOND(D163)</f>
+        <f t="shared" si="11"/>
         <v>2804</v>
       </c>
       <c r="I163" s="27" t="str">
@@ -42059,19 +42059,19 @@
         <v>788</v>
       </c>
       <c r="E164" s="19">
-        <f>D164-C164</f>
+        <f t="shared" si="8"/>
         <v>7.4074074074075014E-4</v>
       </c>
       <c r="F164" s="6">
-        <f>HOUR(E164) *3600 + MINUTE(E164) * 60 + SECOND(E164)</f>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="G164" s="22">
-        <f>HOUR(C164) *3600 + MINUTE(C164) * 60 + SECOND(C164)</f>
+        <f t="shared" si="10"/>
         <v>2808</v>
       </c>
       <c r="H164" s="22">
-        <f>HOUR(D164) *3600 + MINUTE(D164) * 60 + SECOND(D164)</f>
+        <f t="shared" si="11"/>
         <v>2872</v>
       </c>
       <c r="I164" s="27" t="str">
@@ -42104,19 +42104,19 @@
         <v>801</v>
       </c>
       <c r="E165" s="19">
-        <f>D165-C165</f>
+        <f t="shared" si="8"/>
         <v>1.2037037037037068E-3</v>
       </c>
       <c r="F165" s="6">
-        <f>HOUR(E165) *3600 + MINUTE(E165) * 60 + SECOND(E165)</f>
+        <f t="shared" si="9"/>
         <v>104</v>
       </c>
       <c r="G165" s="22">
-        <f>HOUR(C165) *3600 + MINUTE(C165) * 60 + SECOND(C165)</f>
+        <f t="shared" si="10"/>
         <v>2878</v>
       </c>
       <c r="H165" s="22">
-        <f>HOUR(D165) *3600 + MINUTE(D165) * 60 + SECOND(D165)</f>
+        <f t="shared" si="11"/>
         <v>2982</v>
       </c>
       <c r="I165" s="27" t="str">
@@ -42149,19 +42149,19 @@
         <v>812</v>
       </c>
       <c r="E166" s="19">
-        <f>D166-C166</f>
+        <f t="shared" si="8"/>
         <v>2.7777777777777957E-4</v>
       </c>
       <c r="F166" s="6">
-        <f>HOUR(E166) *3600 + MINUTE(E166) * 60 + SECOND(E166)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="G166" s="22">
-        <f>HOUR(C166) *3600 + MINUTE(C166) * 60 + SECOND(C166)</f>
+        <f t="shared" si="10"/>
         <v>2992</v>
       </c>
       <c r="H166" s="22">
-        <f>HOUR(D166) *3600 + MINUTE(D166) * 60 + SECOND(D166)</f>
+        <f t="shared" si="11"/>
         <v>3016</v>
       </c>
       <c r="I166" s="27" t="str">
@@ -42194,19 +42194,19 @@
         <v>833</v>
       </c>
       <c r="E167" s="19">
-        <f>D167-C167</f>
+        <f t="shared" si="8"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F167" s="6">
-        <f>HOUR(E167) *3600 + MINUTE(E167) * 60 + SECOND(E167)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G167" s="22">
-        <f>HOUR(C167) *3600 + MINUTE(C167) * 60 + SECOND(C167)</f>
+        <f t="shared" si="10"/>
         <v>3046</v>
       </c>
       <c r="H167" s="22">
-        <f>HOUR(D167) *3600 + MINUTE(D167) * 60 + SECOND(D167)</f>
+        <f t="shared" si="11"/>
         <v>3048</v>
       </c>
       <c r="I167" s="27" t="str">
@@ -42239,19 +42239,19 @@
         <v>388</v>
       </c>
       <c r="E168" s="19">
-        <f>D168-C168</f>
+        <f t="shared" si="8"/>
         <v>2.3148148148148875E-5</v>
       </c>
       <c r="F168" s="6">
-        <f>HOUR(E168) *3600 + MINUTE(E168) * 60 + SECOND(E168)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G168" s="22">
-        <f>HOUR(C168) *3600 + MINUTE(C168) * 60 + SECOND(C168)</f>
+        <f t="shared" si="10"/>
         <v>1224</v>
       </c>
       <c r="H168" s="22">
-        <f>HOUR(D168) *3600 + MINUTE(D168) * 60 + SECOND(D168)</f>
+        <f t="shared" si="11"/>
         <v>1226</v>
       </c>
       <c r="I168" s="27" t="str">
@@ -42284,19 +42284,19 @@
         <v>394</v>
       </c>
       <c r="E169" s="19">
-        <f>D169-C169</f>
+        <f t="shared" si="8"/>
         <v>5.5555555555555393E-4</v>
       </c>
       <c r="F169" s="6">
-        <f>HOUR(E169) *3600 + MINUTE(E169) * 60 + SECOND(E169)</f>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="G169" s="22">
-        <f>HOUR(C169) *3600 + MINUTE(C169) * 60 + SECOND(C169)</f>
+        <f t="shared" si="10"/>
         <v>1234</v>
       </c>
       <c r="H169" s="22">
-        <f>HOUR(D169) *3600 + MINUTE(D169) * 60 + SECOND(D169)</f>
+        <f t="shared" si="11"/>
         <v>1282</v>
       </c>
       <c r="I169" s="27" t="str">
@@ -42329,19 +42329,19 @@
         <v>398</v>
       </c>
       <c r="E170" s="19">
-        <f>D170-C170</f>
+        <f t="shared" si="8"/>
         <v>2.3148148148148875E-5</v>
       </c>
       <c r="F170" s="6">
-        <f>HOUR(E170) *3600 + MINUTE(E170) * 60 + SECOND(E170)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G170" s="22">
-        <f>HOUR(C170) *3600 + MINUTE(C170) * 60 + SECOND(C170)</f>
+        <f t="shared" si="10"/>
         <v>1238</v>
       </c>
       <c r="H170" s="22">
-        <f>HOUR(D170) *3600 + MINUTE(D170) * 60 + SECOND(D170)</f>
+        <f t="shared" si="11"/>
         <v>1240</v>
       </c>
       <c r="I170" s="27" t="str">
@@ -42377,19 +42377,19 @@
         <v>422</v>
       </c>
       <c r="E171" s="19">
-        <f>D171-C171</f>
+        <f t="shared" si="8"/>
         <v>2.777777777777761E-4</v>
       </c>
       <c r="F171" s="6">
-        <f>HOUR(E171) *3600 + MINUTE(E171) * 60 + SECOND(E171)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="G171" s="22">
-        <f>HOUR(C171) *3600 + MINUTE(C171) * 60 + SECOND(C171)</f>
+        <f t="shared" si="10"/>
         <v>1318</v>
       </c>
       <c r="H171" s="22">
-        <f>HOUR(D171) *3600 + MINUTE(D171) * 60 + SECOND(D171)</f>
+        <f t="shared" si="11"/>
         <v>1342</v>
       </c>
       <c r="I171" s="27" t="str">
@@ -42422,19 +42422,19 @@
         <v>426</v>
       </c>
       <c r="E172" s="19">
-        <f>D172-C172</f>
+        <f t="shared" si="8"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F172" s="6">
-        <f>HOUR(E172) *3600 + MINUTE(E172) * 60 + SECOND(E172)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G172" s="22">
-        <f>HOUR(C172) *3600 + MINUTE(C172) * 60 + SECOND(C172)</f>
+        <f t="shared" si="10"/>
         <v>1318</v>
       </c>
       <c r="H172" s="22">
-        <f>HOUR(D172) *3600 + MINUTE(D172) * 60 + SECOND(D172)</f>
+        <f t="shared" si="11"/>
         <v>1320</v>
       </c>
       <c r="I172" s="27" t="str">
@@ -42470,19 +42470,19 @@
         <v>432</v>
       </c>
       <c r="E173" s="19">
-        <f>D173-C173</f>
+        <f t="shared" si="8"/>
         <v>1.8518518518518406E-4</v>
       </c>
       <c r="F173" s="6">
-        <f>HOUR(E173) *3600 + MINUTE(E173) * 60 + SECOND(E173)</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="G173" s="22">
-        <f>HOUR(C173) *3600 + MINUTE(C173) * 60 + SECOND(C173)</f>
+        <f t="shared" si="10"/>
         <v>1358</v>
       </c>
       <c r="H173" s="22">
-        <f>HOUR(D173) *3600 + MINUTE(D173) * 60 + SECOND(D173)</f>
+        <f t="shared" si="11"/>
         <v>1374</v>
       </c>
       <c r="I173" s="27" t="str">
@@ -42515,19 +42515,19 @@
         <v>437</v>
       </c>
       <c r="E174" s="19">
-        <f>D174-C174</f>
+        <f t="shared" si="8"/>
         <v>1.1574074074073917E-4</v>
       </c>
       <c r="F174" s="6">
-        <f>HOUR(E174) *3600 + MINUTE(E174) * 60 + SECOND(E174)</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="G174" s="22">
-        <f>HOUR(C174) *3600 + MINUTE(C174) * 60 + SECOND(C174)</f>
+        <f t="shared" si="10"/>
         <v>1396</v>
       </c>
       <c r="H174" s="22">
-        <f>HOUR(D174) *3600 + MINUTE(D174) * 60 + SECOND(D174)</f>
+        <f t="shared" si="11"/>
         <v>1406</v>
       </c>
       <c r="I174" s="27" t="str">
@@ -42560,19 +42560,19 @@
         <v>449</v>
       </c>
       <c r="E175" s="19">
-        <f>D175-C175</f>
+        <f t="shared" si="8"/>
         <v>1.4351851851851852E-3</v>
       </c>
       <c r="F175" s="6">
-        <f>HOUR(E175) *3600 + MINUTE(E175) * 60 + SECOND(E175)</f>
+        <f t="shared" si="9"/>
         <v>124</v>
       </c>
       <c r="G175" s="22">
-        <f>HOUR(C175) *3600 + MINUTE(C175) * 60 + SECOND(C175)</f>
+        <f t="shared" si="10"/>
         <v>1428</v>
       </c>
       <c r="H175" s="22">
-        <f>HOUR(D175) *3600 + MINUTE(D175) * 60 + SECOND(D175)</f>
+        <f t="shared" si="11"/>
         <v>1552</v>
       </c>
       <c r="I175" s="27" t="str">
@@ -42605,19 +42605,19 @@
         <v>454</v>
       </c>
       <c r="E176" s="19">
-        <f>D176-C176</f>
+        <f t="shared" si="8"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F176" s="6">
-        <f>HOUR(E176) *3600 + MINUTE(E176) * 60 + SECOND(E176)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G176" s="22">
-        <f>HOUR(C176) *3600 + MINUTE(C176) * 60 + SECOND(C176)</f>
+        <f t="shared" si="10"/>
         <v>1540</v>
       </c>
       <c r="H176" s="22">
-        <f>HOUR(D176) *3600 + MINUTE(D176) * 60 + SECOND(D176)</f>
+        <f t="shared" si="11"/>
         <v>1542</v>
       </c>
       <c r="I176" s="27" t="str">
@@ -42653,19 +42653,19 @@
         <v>457</v>
       </c>
       <c r="E177" s="19">
-        <f>D177-C177</f>
+        <f t="shared" si="8"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F177" s="6">
-        <f>HOUR(E177) *3600 + MINUTE(E177) * 60 + SECOND(E177)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G177" s="22">
-        <f>HOUR(C177) *3600 + MINUTE(C177) * 60 + SECOND(C177)</f>
+        <f t="shared" si="10"/>
         <v>1560</v>
       </c>
       <c r="H177" s="22">
-        <f>HOUR(D177) *3600 + MINUTE(D177) * 60 + SECOND(D177)</f>
+        <f t="shared" si="11"/>
         <v>1564</v>
       </c>
       <c r="I177" s="27" t="str">
@@ -42698,19 +42698,19 @@
         <v>464</v>
       </c>
       <c r="E178" s="19">
-        <f>D178-C178</f>
+        <f t="shared" si="8"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F178" s="6">
-        <f>HOUR(E178) *3600 + MINUTE(E178) * 60 + SECOND(E178)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G178" s="22">
-        <f>HOUR(C178) *3600 + MINUTE(C178) * 60 + SECOND(C178)</f>
+        <f t="shared" si="10"/>
         <v>1566</v>
       </c>
       <c r="H178" s="22">
-        <f>HOUR(D178) *3600 + MINUTE(D178) * 60 + SECOND(D178)</f>
+        <f t="shared" si="11"/>
         <v>1568</v>
       </c>
       <c r="I178" s="27" t="str">
@@ -42743,19 +42743,19 @@
         <v>472</v>
       </c>
       <c r="E179" s="19">
-        <f>D179-C179</f>
+        <f t="shared" si="8"/>
         <v>1.1574074074073917E-4</v>
       </c>
       <c r="F179" s="6">
-        <f>HOUR(E179) *3600 + MINUTE(E179) * 60 + SECOND(E179)</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="G179" s="22">
-        <f>HOUR(C179) *3600 + MINUTE(C179) * 60 + SECOND(C179)</f>
+        <f t="shared" si="10"/>
         <v>1570</v>
       </c>
       <c r="H179" s="22">
-        <f>HOUR(D179) *3600 + MINUTE(D179) * 60 + SECOND(D179)</f>
+        <f t="shared" si="11"/>
         <v>1580</v>
       </c>
       <c r="I179" s="27" t="str">
@@ -42788,19 +42788,19 @@
         <v>483</v>
       </c>
       <c r="E180" s="19">
-        <f>D180-C180</f>
+        <f t="shared" si="8"/>
         <v>9.2592592592592032E-5</v>
       </c>
       <c r="F180" s="6">
-        <f>HOUR(E180) *3600 + MINUTE(E180) * 60 + SECOND(E180)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G180" s="22">
-        <f>HOUR(C180) *3600 + MINUTE(C180) * 60 + SECOND(C180)</f>
+        <f t="shared" si="10"/>
         <v>1584</v>
       </c>
       <c r="H180" s="22">
-        <f>HOUR(D180) *3600 + MINUTE(D180) * 60 + SECOND(D180)</f>
+        <f t="shared" si="11"/>
         <v>1592</v>
       </c>
       <c r="I180" s="27" t="str">
@@ -42833,19 +42833,19 @@
         <v>491</v>
       </c>
       <c r="E181" s="19">
-        <f>D181-C181</f>
+        <f t="shared" si="8"/>
         <v>4.3981481481481649E-4</v>
       </c>
       <c r="F181" s="6">
-        <f>HOUR(E181) *3600 + MINUTE(E181) * 60 + SECOND(E181)</f>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="G181" s="22">
-        <f>HOUR(C181) *3600 + MINUTE(C181) * 60 + SECOND(C181)</f>
+        <f t="shared" si="10"/>
         <v>1594</v>
       </c>
       <c r="H181" s="22">
-        <f>HOUR(D181) *3600 + MINUTE(D181) * 60 + SECOND(D181)</f>
+        <f t="shared" si="11"/>
         <v>1632</v>
       </c>
       <c r="I181" s="27" t="str">
@@ -42878,19 +42878,19 @@
         <v>501</v>
       </c>
       <c r="E182" s="19">
-        <f>D182-C182</f>
+        <f t="shared" si="8"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F182" s="6">
-        <f>HOUR(E182) *3600 + MINUTE(E182) * 60 + SECOND(E182)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G182" s="22">
-        <f>HOUR(C182) *3600 + MINUTE(C182) * 60 + SECOND(C182)</f>
+        <f t="shared" si="10"/>
         <v>1632</v>
       </c>
       <c r="H182" s="22">
-        <f>HOUR(D182) *3600 + MINUTE(D182) * 60 + SECOND(D182)</f>
+        <f t="shared" si="11"/>
         <v>1634</v>
       </c>
       <c r="I182" s="27" t="str">
@@ -42926,19 +42926,19 @@
         <v>504</v>
       </c>
       <c r="E183" s="19">
-        <f>D183-C183</f>
+        <f t="shared" si="8"/>
         <v>1.8518518518518406E-4</v>
       </c>
       <c r="F183" s="6">
-        <f>HOUR(E183) *3600 + MINUTE(E183) * 60 + SECOND(E183)</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="G183" s="22">
-        <f>HOUR(C183) *3600 + MINUTE(C183) * 60 + SECOND(C183)</f>
+        <f t="shared" si="10"/>
         <v>1634</v>
       </c>
       <c r="H183" s="22">
-        <f>HOUR(D183) *3600 + MINUTE(D183) * 60 + SECOND(D183)</f>
+        <f t="shared" si="11"/>
         <v>1650</v>
       </c>
       <c r="I183" s="27" t="str">
@@ -42971,19 +42971,19 @@
         <v>511</v>
       </c>
       <c r="E184" s="19">
-        <f>D184-C184</f>
+        <f t="shared" si="8"/>
         <v>4.6296296296297751E-5</v>
       </c>
       <c r="F184" s="6">
-        <f>HOUR(E184) *3600 + MINUTE(E184) * 60 + SECOND(E184)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G184" s="22">
-        <f>HOUR(C184) *3600 + MINUTE(C184) * 60 + SECOND(C184)</f>
+        <f t="shared" si="10"/>
         <v>1652</v>
       </c>
       <c r="H184" s="22">
-        <f>HOUR(D184) *3600 + MINUTE(D184) * 60 + SECOND(D184)</f>
+        <f t="shared" si="11"/>
         <v>1656</v>
       </c>
       <c r="I184" s="27" t="str">
@@ -43016,19 +43016,19 @@
         <v>515</v>
       </c>
       <c r="E185" s="19">
-        <f>D185-C185</f>
+        <f t="shared" si="8"/>
         <v>3.4722222222222099E-4</v>
       </c>
       <c r="F185" s="6">
-        <f>HOUR(E185) *3600 + MINUTE(E185) * 60 + SECOND(E185)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="G185" s="22">
-        <f>HOUR(C185) *3600 + MINUTE(C185) * 60 + SECOND(C185)</f>
+        <f t="shared" si="10"/>
         <v>1662</v>
       </c>
       <c r="H185" s="22">
-        <f>HOUR(D185) *3600 + MINUTE(D185) * 60 + SECOND(D185)</f>
+        <f t="shared" si="11"/>
         <v>1692</v>
       </c>
       <c r="I185" s="27" t="str">
@@ -43061,19 +43061,19 @@
         <v>521</v>
       </c>
       <c r="E186" s="19">
-        <f>D186-C186</f>
+        <f t="shared" si="8"/>
         <v>6.9444444444441422E-5</v>
       </c>
       <c r="F186" s="6">
-        <f>HOUR(E186) *3600 + MINUTE(E186) * 60 + SECOND(E186)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="G186" s="22">
-        <f>HOUR(C186) *3600 + MINUTE(C186) * 60 + SECOND(C186)</f>
+        <f t="shared" si="10"/>
         <v>1702</v>
       </c>
       <c r="H186" s="22">
-        <f>HOUR(D186) *3600 + MINUTE(D186) * 60 + SECOND(D186)</f>
+        <f t="shared" si="11"/>
         <v>1708</v>
       </c>
       <c r="I186" s="27" t="str">
@@ -43106,19 +43106,19 @@
         <v>526</v>
       </c>
       <c r="E187" s="19">
-        <f>D187-C187</f>
+        <f t="shared" si="8"/>
         <v>2.0833333333333121E-4</v>
       </c>
       <c r="F187" s="6">
-        <f>HOUR(E187) *3600 + MINUTE(E187) * 60 + SECOND(E187)</f>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="G187" s="22">
-        <f>HOUR(C187) *3600 + MINUTE(C187) * 60 + SECOND(C187)</f>
+        <f t="shared" si="10"/>
         <v>1714</v>
       </c>
       <c r="H187" s="22">
-        <f>HOUR(D187) *3600 + MINUTE(D187) * 60 + SECOND(D187)</f>
+        <f t="shared" si="11"/>
         <v>1732</v>
       </c>
       <c r="I187" s="27" t="str">
@@ -43151,19 +43151,19 @@
         <v>528</v>
       </c>
       <c r="E188" s="19">
-        <f>D188-C188</f>
+        <f t="shared" si="8"/>
         <v>4.6296296296296363E-4</v>
       </c>
       <c r="F188" s="6">
-        <f>HOUR(E188) *3600 + MINUTE(E188) * 60 + SECOND(E188)</f>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="G188" s="22">
-        <f>HOUR(C188) *3600 + MINUTE(C188) * 60 + SECOND(C188)</f>
+        <f t="shared" si="10"/>
         <v>1756</v>
       </c>
       <c r="H188" s="22">
-        <f>HOUR(D188) *3600 + MINUTE(D188) * 60 + SECOND(D188)</f>
+        <f t="shared" si="11"/>
         <v>1796</v>
       </c>
       <c r="I188" s="27" t="str">
@@ -43196,19 +43196,19 @@
         <v>543</v>
       </c>
       <c r="E189" s="19">
-        <f>D189-C189</f>
+        <f t="shared" si="8"/>
         <v>5.5555555555555566E-4</v>
       </c>
       <c r="F189" s="6">
-        <f>HOUR(E189) *3600 + MINUTE(E189) * 60 + SECOND(E189)</f>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="G189" s="22">
-        <f>HOUR(C189) *3600 + MINUTE(C189) * 60 + SECOND(C189)</f>
+        <f t="shared" si="10"/>
         <v>1828</v>
       </c>
       <c r="H189" s="22">
-        <f>HOUR(D189) *3600 + MINUTE(D189) * 60 + SECOND(D189)</f>
+        <f t="shared" si="11"/>
         <v>1876</v>
       </c>
       <c r="I189" s="27" t="str">
@@ -43241,19 +43241,19 @@
         <v>595</v>
       </c>
       <c r="E190" s="19">
-        <f>D190-C190</f>
+        <f t="shared" si="8"/>
         <v>3.4722222222222793E-4</v>
       </c>
       <c r="F190" s="6">
-        <f>HOUR(E190) *3600 + MINUTE(E190) * 60 + SECOND(E190)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="G190" s="22">
-        <f>HOUR(C190) *3600 + MINUTE(C190) * 60 + SECOND(C190)</f>
+        <f t="shared" si="10"/>
         <v>2026</v>
       </c>
       <c r="H190" s="22">
-        <f>HOUR(D190) *3600 + MINUTE(D190) * 60 + SECOND(D190)</f>
+        <f t="shared" si="11"/>
         <v>2056</v>
       </c>
       <c r="I190" s="27" t="str">
@@ -43286,19 +43286,19 @@
         <v>608</v>
       </c>
       <c r="E191" s="19">
-        <f>D191-C191</f>
+        <f t="shared" si="8"/>
         <v>3.0092592592592324E-4</v>
       </c>
       <c r="F191" s="6">
-        <f>HOUR(E191) *3600 + MINUTE(E191) * 60 + SECOND(E191)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="G191" s="22">
-        <f>HOUR(C191) *3600 + MINUTE(C191) * 60 + SECOND(C191)</f>
+        <f t="shared" si="10"/>
         <v>2060</v>
       </c>
       <c r="H191" s="22">
-        <f>HOUR(D191) *3600 + MINUTE(D191) * 60 + SECOND(D191)</f>
+        <f t="shared" si="11"/>
         <v>2086</v>
       </c>
       <c r="I191" s="27" t="str">
@@ -43331,19 +43331,19 @@
         <v>583</v>
       </c>
       <c r="E192" s="19">
-        <f>D192-C192</f>
+        <f t="shared" si="8"/>
         <v>9.2592592592592032E-5</v>
       </c>
       <c r="F192" s="6">
-        <f>HOUR(E192) *3600 + MINUTE(E192) * 60 + SECOND(E192)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G192" s="22">
-        <f>HOUR(C192) *3600 + MINUTE(C192) * 60 + SECOND(C192)</f>
+        <f t="shared" si="10"/>
         <v>1988</v>
       </c>
       <c r="H192" s="22">
-        <f>HOUR(D192) *3600 + MINUTE(D192) * 60 + SECOND(D192)</f>
+        <f t="shared" si="11"/>
         <v>1996</v>
       </c>
       <c r="I192" s="27" t="str">
@@ -43376,19 +43376,19 @@
         <v>23</v>
       </c>
       <c r="E193" s="19">
-        <f>D193-C193</f>
+        <f t="shared" si="8"/>
         <v>2.5694444444444445E-3</v>
       </c>
       <c r="F193" s="6">
-        <f>HOUR(E193) *3600 + MINUTE(E193) * 60 + SECOND(E193)</f>
+        <f t="shared" si="9"/>
         <v>222</v>
       </c>
       <c r="G193" s="22">
-        <f>HOUR(C193) *3600 + MINUTE(C193) * 60 + SECOND(C193)</f>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="H193" s="22">
-        <f>HOUR(D193) *3600 + MINUTE(D193) * 60 + SECOND(D193)</f>
+        <f t="shared" si="11"/>
         <v>268</v>
       </c>
       <c r="I193" s="27" t="str">
@@ -43424,19 +43424,19 @@
         <v>165</v>
       </c>
       <c r="E194" s="19">
-        <f>D194-C194</f>
+        <f t="shared" ref="E194:E257" si="12">D194-C194</f>
         <v>6.9444444444444892E-5</v>
       </c>
       <c r="F194" s="6">
-        <f>HOUR(E194) *3600 + MINUTE(E194) * 60 + SECOND(E194)</f>
+        <f t="shared" ref="F194:F257" si="13">HOUR(E194) *3600 + MINUTE(E194) * 60 + SECOND(E194)</f>
         <v>6</v>
       </c>
       <c r="G194" s="22">
-        <f>HOUR(C194) *3600 + MINUTE(C194) * 60 + SECOND(C194)</f>
+        <f t="shared" ref="G194:G257" si="14">HOUR(C194) *3600 + MINUTE(C194) * 60 + SECOND(C194)</f>
         <v>552</v>
       </c>
       <c r="H194" s="22">
-        <f>HOUR(D194) *3600 + MINUTE(D194) * 60 + SECOND(D194)</f>
+        <f t="shared" ref="H194:H257" si="15">HOUR(D194) *3600 + MINUTE(D194) * 60 + SECOND(D194)</f>
         <v>558</v>
       </c>
       <c r="I194" s="27" t="str">
@@ -43472,19 +43472,19 @@
         <v>560</v>
       </c>
       <c r="E195" s="19">
-        <f>D195-C195</f>
+        <f t="shared" si="12"/>
         <v>4.6296296296297751E-5</v>
       </c>
       <c r="F195" s="6">
-        <f>HOUR(E195) *3600 + MINUTE(E195) * 60 + SECOND(E195)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="G195" s="22">
-        <f>HOUR(C195) *3600 + MINUTE(C195) * 60 + SECOND(C195)</f>
+        <f t="shared" si="14"/>
         <v>1930</v>
       </c>
       <c r="H195" s="22">
-        <f>HOUR(D195) *3600 + MINUTE(D195) * 60 + SECOND(D195)</f>
+        <f t="shared" si="15"/>
         <v>1934</v>
       </c>
       <c r="I195" s="27" t="str">
@@ -43517,19 +43517,19 @@
         <v>577</v>
       </c>
       <c r="E196" s="19">
-        <f>D196-C196</f>
+        <f t="shared" si="12"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F196" s="6">
-        <f>HOUR(E196) *3600 + MINUTE(E196) * 60 + SECOND(E196)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="G196" s="22">
-        <f>HOUR(C196) *3600 + MINUTE(C196) * 60 + SECOND(C196)</f>
+        <f t="shared" si="14"/>
         <v>1986</v>
       </c>
       <c r="H196" s="22">
-        <f>HOUR(D196) *3600 + MINUTE(D196) * 60 + SECOND(D196)</f>
+        <f t="shared" si="15"/>
         <v>1988</v>
       </c>
       <c r="I196" s="27" t="str">
@@ -43562,19 +43562,19 @@
         <v>721</v>
       </c>
       <c r="E197" s="19">
-        <f>D197-C197</f>
+        <f t="shared" si="12"/>
         <v>6.9444444444441422E-5</v>
       </c>
       <c r="F197" s="6">
-        <f>HOUR(E197) *3600 + MINUTE(E197) * 60 + SECOND(E197)</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G197" s="22">
-        <f>HOUR(C197) *3600 + MINUTE(C197) * 60 + SECOND(C197)</f>
+        <f t="shared" si="14"/>
         <v>2660</v>
       </c>
       <c r="H197" s="22">
-        <f>HOUR(D197) *3600 + MINUTE(D197) * 60 + SECOND(D197)</f>
+        <f t="shared" si="15"/>
         <v>2666</v>
       </c>
       <c r="I197" s="27" t="str">
@@ -43607,19 +43607,19 @@
         <v>28</v>
       </c>
       <c r="E198" s="19">
-        <f>D198-C198</f>
+        <f t="shared" si="12"/>
         <v>1.1574074074074047E-4</v>
       </c>
       <c r="F198" s="6">
-        <f>HOUR(E198) *3600 + MINUTE(E198) * 60 + SECOND(E198)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="G198" s="22">
-        <f>HOUR(C198) *3600 + MINUTE(C198) * 60 + SECOND(C198)</f>
+        <f t="shared" si="14"/>
         <v>252</v>
       </c>
       <c r="H198" s="22">
-        <f>HOUR(D198) *3600 + MINUTE(D198) * 60 + SECOND(D198)</f>
+        <f t="shared" si="15"/>
         <v>262</v>
       </c>
       <c r="I198" s="27" t="str">
@@ -43652,19 +43652,19 @@
         <v>416</v>
       </c>
       <c r="E199" s="19">
-        <f>D199-C199</f>
+        <f t="shared" si="12"/>
         <v>1.6203703703704039E-4</v>
       </c>
       <c r="F199" s="6">
-        <f>HOUR(E199) *3600 + MINUTE(E199) * 60 + SECOND(E199)</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="G199" s="22">
-        <f>HOUR(C199) *3600 + MINUTE(C199) * 60 + SECOND(C199)</f>
+        <f t="shared" si="14"/>
         <v>1302</v>
       </c>
       <c r="H199" s="22">
-        <f>HOUR(D199) *3600 + MINUTE(D199) * 60 + SECOND(D199)</f>
+        <f t="shared" si="15"/>
         <v>1316</v>
       </c>
       <c r="I199" s="27" t="str">
@@ -43697,19 +43697,19 @@
         <v>457</v>
       </c>
       <c r="E200" s="19">
-        <f>D200-C200</f>
+        <f t="shared" si="12"/>
         <v>9.2592592592592032E-5</v>
       </c>
       <c r="F200" s="6">
-        <f>HOUR(E200) *3600 + MINUTE(E200) * 60 + SECOND(E200)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G200" s="22">
-        <f>HOUR(C200) *3600 + MINUTE(C200) * 60 + SECOND(C200)</f>
+        <f t="shared" si="14"/>
         <v>1556</v>
       </c>
       <c r="H200" s="22">
-        <f>HOUR(D200) *3600 + MINUTE(D200) * 60 + SECOND(D200)</f>
+        <f t="shared" si="15"/>
         <v>1564</v>
       </c>
       <c r="I200" s="27" t="str">
@@ -43745,19 +43745,19 @@
         <v>28</v>
       </c>
       <c r="E201" s="19">
-        <f>D201-C201</f>
+        <f t="shared" si="12"/>
         <v>1.1574074074074047E-4</v>
       </c>
       <c r="F201" s="6">
-        <f>HOUR(E201) *3600 + MINUTE(E201) * 60 + SECOND(E201)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="G201" s="22">
-        <f>HOUR(C201) *3600 + MINUTE(C201) * 60 + SECOND(C201)</f>
+        <f t="shared" si="14"/>
         <v>252</v>
       </c>
       <c r="H201" s="22">
-        <f>HOUR(D201) *3600 + MINUTE(D201) * 60 + SECOND(D201)</f>
+        <f t="shared" si="15"/>
         <v>262</v>
       </c>
       <c r="I201" s="27" t="str">
@@ -43790,19 +43790,19 @@
         <v>417</v>
       </c>
       <c r="E202" s="19">
-        <f>D202-C202</f>
+        <f t="shared" si="12"/>
         <v>1.1574074074074264E-4</v>
       </c>
       <c r="F202" s="6">
-        <f>HOUR(E202) *3600 + MINUTE(E202) * 60 + SECOND(E202)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="G202" s="22">
-        <f>HOUR(C202) *3600 + MINUTE(C202) * 60 + SECOND(C202)</f>
+        <f t="shared" si="14"/>
         <v>1302</v>
       </c>
       <c r="H202" s="22">
-        <f>HOUR(D202) *3600 + MINUTE(D202) * 60 + SECOND(D202)</f>
+        <f t="shared" si="15"/>
         <v>1312</v>
       </c>
       <c r="I202" s="27" t="str">
@@ -43835,19 +43835,19 @@
         <v>464</v>
       </c>
       <c r="E203" s="19">
-        <f>D203-C203</f>
+        <f t="shared" si="12"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F203" s="6">
-        <f>HOUR(E203) *3600 + MINUTE(E203) * 60 + SECOND(E203)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="G203" s="22">
-        <f>HOUR(C203) *3600 + MINUTE(C203) * 60 + SECOND(C203)</f>
+        <f t="shared" si="14"/>
         <v>1564</v>
       </c>
       <c r="H203" s="22">
-        <f>HOUR(D203) *3600 + MINUTE(D203) * 60 + SECOND(D203)</f>
+        <f t="shared" si="15"/>
         <v>1568</v>
       </c>
       <c r="I203" s="27" t="str">
@@ -43880,19 +43880,19 @@
         <v>902</v>
       </c>
       <c r="E204" s="19">
-        <f>D204-C204</f>
+        <f t="shared" si="12"/>
         <v>6.9444444444434483E-5</v>
       </c>
       <c r="F204" s="6">
-        <f>HOUR(E204) *3600 + MINUTE(E204) * 60 + SECOND(E204)</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G204" s="22">
-        <f>HOUR(C204) *3600 + MINUTE(C204) * 60 + SECOND(C204)</f>
+        <f t="shared" si="14"/>
         <v>3658</v>
       </c>
       <c r="H204" s="22">
-        <f>HOUR(D204) *3600 + MINUTE(D204) * 60 + SECOND(D204)</f>
+        <f t="shared" si="15"/>
         <v>3664</v>
       </c>
       <c r="I204" s="27" t="str">
@@ -43925,19 +43925,19 @@
         <v>188</v>
       </c>
       <c r="E205" s="19">
-        <f>D205-C205</f>
+        <f t="shared" si="12"/>
         <v>7.6388888888888947E-4</v>
       </c>
       <c r="F205" s="6">
-        <f>HOUR(E205) *3600 + MINUTE(E205) * 60 + SECOND(E205)</f>
+        <f t="shared" si="13"/>
         <v>66</v>
       </c>
       <c r="G205" s="22">
-        <f>HOUR(C205) *3600 + MINUTE(C205) * 60 + SECOND(C205)</f>
+        <f t="shared" si="14"/>
         <v>592</v>
       </c>
       <c r="H205" s="22">
-        <f>HOUR(D205) *3600 + MINUTE(D205) * 60 + SECOND(D205)</f>
+        <f t="shared" si="15"/>
         <v>658</v>
       </c>
       <c r="I205" s="27" t="str">
@@ -43973,19 +43973,19 @@
         <v>258</v>
       </c>
       <c r="E206" s="19">
-        <f>D206-C206</f>
+        <f t="shared" si="12"/>
         <v>2.3148148148148008E-4</v>
       </c>
       <c r="F206" s="6">
-        <f>HOUR(E206) *3600 + MINUTE(E206) * 60 + SECOND(E206)</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="G206" s="22">
-        <f>HOUR(C206) *3600 + MINUTE(C206) * 60 + SECOND(C206)</f>
+        <f t="shared" si="14"/>
         <v>826</v>
       </c>
       <c r="H206" s="22">
-        <f>HOUR(D206) *3600 + MINUTE(D206) * 60 + SECOND(D206)</f>
+        <f t="shared" si="15"/>
         <v>846</v>
       </c>
       <c r="I206" s="27" t="str">
@@ -44018,19 +44018,19 @@
         <v>96</v>
       </c>
       <c r="E207" s="19">
-        <f>D207-C207</f>
+        <f t="shared" si="12"/>
         <v>6.9444444444444024E-5</v>
       </c>
       <c r="F207" s="6">
-        <f>HOUR(E207) *3600 + MINUTE(E207) * 60 + SECOND(E207)</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G207" s="22">
-        <f>HOUR(C207) *3600 + MINUTE(C207) * 60 + SECOND(C207)</f>
+        <f t="shared" si="14"/>
         <v>298</v>
       </c>
       <c r="H207" s="22">
-        <f>HOUR(D207) *3600 + MINUTE(D207) * 60 + SECOND(D207)</f>
+        <f t="shared" si="15"/>
         <v>304</v>
       </c>
       <c r="I207" s="27" t="str">
@@ -44063,19 +44063,19 @@
         <v>121</v>
       </c>
       <c r="E208" s="19">
-        <f>D208-C208</f>
+        <f t="shared" si="12"/>
         <v>2.3148148148148182E-4</v>
       </c>
       <c r="F208" s="6">
-        <f>HOUR(E208) *3600 + MINUTE(E208) * 60 + SECOND(E208)</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="G208" s="22">
-        <f>HOUR(C208) *3600 + MINUTE(C208) * 60 + SECOND(C208)</f>
+        <f t="shared" si="14"/>
         <v>380</v>
       </c>
       <c r="H208" s="22">
-        <f>HOUR(D208) *3600 + MINUTE(D208) * 60 + SECOND(D208)</f>
+        <f t="shared" si="15"/>
         <v>400</v>
       </c>
       <c r="I208" s="27" t="str">
@@ -44108,19 +44108,19 @@
         <v>138</v>
       </c>
       <c r="E209" s="19">
-        <f>D209-C209</f>
+        <f t="shared" si="12"/>
         <v>7.4074074074073973E-4</v>
       </c>
       <c r="F209" s="6">
-        <f>HOUR(E209) *3600 + MINUTE(E209) * 60 + SECOND(E209)</f>
+        <f t="shared" si="13"/>
         <v>64</v>
       </c>
       <c r="G209" s="22">
-        <f>HOUR(C209) *3600 + MINUTE(C209) * 60 + SECOND(C209)</f>
+        <f t="shared" si="14"/>
         <v>428</v>
       </c>
       <c r="H209" s="22">
-        <f>HOUR(D209) *3600 + MINUTE(D209) * 60 + SECOND(D209)</f>
+        <f t="shared" si="15"/>
         <v>492</v>
       </c>
       <c r="I209" s="27" t="str">
@@ -44153,19 +44153,19 @@
         <v>136</v>
       </c>
       <c r="E210" s="19">
-        <f>D210-C210</f>
+        <f t="shared" si="12"/>
         <v>3.4722222222222186E-4</v>
       </c>
       <c r="F210" s="6">
-        <f>HOUR(E210) *3600 + MINUTE(E210) * 60 + SECOND(E210)</f>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="G210" s="22">
-        <f>HOUR(C210) *3600 + MINUTE(C210) * 60 + SECOND(C210)</f>
+        <f t="shared" si="14"/>
         <v>502</v>
       </c>
       <c r="H210" s="22">
-        <f>HOUR(D210) *3600 + MINUTE(D210) * 60 + SECOND(D210)</f>
+        <f t="shared" si="15"/>
         <v>532</v>
       </c>
       <c r="I210" s="27" t="str">
@@ -44198,19 +44198,19 @@
         <v>192</v>
       </c>
       <c r="E211" s="19">
-        <f>D211-C211</f>
+        <f t="shared" si="12"/>
         <v>1.1574074074074091E-4</v>
       </c>
       <c r="F211" s="6">
-        <f>HOUR(E211) *3600 + MINUTE(E211) * 60 + SECOND(E211)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="G211" s="22">
-        <f>HOUR(C211) *3600 + MINUTE(C211) * 60 + SECOND(C211)</f>
+        <f t="shared" si="14"/>
         <v>664</v>
       </c>
       <c r="H211" s="22">
-        <f>HOUR(D211) *3600 + MINUTE(D211) * 60 + SECOND(D211)</f>
+        <f t="shared" si="15"/>
         <v>674</v>
       </c>
       <c r="I211" s="27" t="str">
@@ -44243,19 +44243,19 @@
         <v>206</v>
       </c>
       <c r="E212" s="19">
-        <f>D212-C212</f>
+        <f t="shared" si="12"/>
         <v>2.3148148148148875E-5</v>
       </c>
       <c r="F212" s="6">
-        <f>HOUR(E212) *3600 + MINUTE(E212) * 60 + SECOND(E212)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="G212" s="22">
-        <f>HOUR(C212) *3600 + MINUTE(C212) * 60 + SECOND(C212)</f>
+        <f t="shared" si="14"/>
         <v>688</v>
       </c>
       <c r="H212" s="22">
-        <f>HOUR(D212) *3600 + MINUTE(D212) * 60 + SECOND(D212)</f>
+        <f t="shared" si="15"/>
         <v>690</v>
       </c>
       <c r="I212" s="27" t="str">
@@ -44288,19 +44288,19 @@
         <v>215</v>
       </c>
       <c r="E213" s="19">
-        <f>D213-C213</f>
+        <f t="shared" si="12"/>
         <v>1.1574074074074091E-4</v>
       </c>
       <c r="F213" s="6">
-        <f>HOUR(E213) *3600 + MINUTE(E213) * 60 + SECOND(E213)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="G213" s="22">
-        <f>HOUR(C213) *3600 + MINUTE(C213) * 60 + SECOND(C213)</f>
+        <f t="shared" si="14"/>
         <v>720</v>
       </c>
       <c r="H213" s="22">
-        <f>HOUR(D213) *3600 + MINUTE(D213) * 60 + SECOND(D213)</f>
+        <f t="shared" si="15"/>
         <v>730</v>
       </c>
       <c r="I213" s="27" t="str">
@@ -44333,19 +44333,19 @@
         <v>892</v>
       </c>
       <c r="E214" s="19">
-        <f>D214-C214</f>
+        <f t="shared" si="12"/>
         <v>7.1759259259259606E-4</v>
       </c>
       <c r="F214" s="6">
-        <f>HOUR(E214) *3600 + MINUTE(E214) * 60 + SECOND(E214)</f>
+        <f t="shared" si="13"/>
         <v>62</v>
       </c>
       <c r="G214" s="22">
-        <f>HOUR(C214) *3600 + MINUTE(C214) * 60 + SECOND(C214)</f>
+        <f t="shared" si="14"/>
         <v>3570</v>
       </c>
       <c r="H214" s="22">
-        <f>HOUR(D214) *3600 + MINUTE(D214) * 60 + SECOND(D214)</f>
+        <f t="shared" si="15"/>
         <v>3632</v>
       </c>
       <c r="I214" s="27" t="str">
@@ -44378,19 +44378,19 @@
         <v>880</v>
       </c>
       <c r="E215" s="19">
-        <f>D215-C215</f>
+        <f t="shared" si="12"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F215" s="6">
-        <f>HOUR(E215) *3600 + MINUTE(E215) * 60 + SECOND(E215)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="G215" s="22">
-        <f>HOUR(C215) *3600 + MINUTE(C215) * 60 + SECOND(C215)</f>
+        <f t="shared" si="14"/>
         <v>3204</v>
       </c>
       <c r="H215" s="22">
-        <f>HOUR(D215) *3600 + MINUTE(D215) * 60 + SECOND(D215)</f>
+        <f t="shared" si="15"/>
         <v>3206</v>
       </c>
       <c r="I215" s="27" t="str">
@@ -44426,19 +44426,19 @@
         <v>41</v>
       </c>
       <c r="E216" s="19">
-        <f>D216-C216</f>
+        <f t="shared" si="12"/>
         <v>4.629629629629645E-5</v>
       </c>
       <c r="F216" s="6">
-        <f>HOUR(E216) *3600 + MINUTE(E216) * 60 + SECOND(E216)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="G216" s="22">
-        <f>HOUR(C216) *3600 + MINUTE(C216) * 60 + SECOND(C216)</f>
+        <f t="shared" si="14"/>
         <v>120</v>
       </c>
       <c r="H216" s="22">
-        <f>HOUR(D216) *3600 + MINUTE(D216) * 60 + SECOND(D216)</f>
+        <f t="shared" si="15"/>
         <v>124</v>
       </c>
       <c r="I216" s="27" t="str">
@@ -44471,19 +44471,19 @@
         <v>175</v>
       </c>
       <c r="E217" s="19">
-        <f>D217-C217</f>
+        <f t="shared" si="12"/>
         <v>1.6203703703703866E-4</v>
       </c>
       <c r="F217" s="6">
-        <f>HOUR(E217) *3600 + MINUTE(E217) * 60 + SECOND(E217)</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="G217" s="22">
-        <f>HOUR(C217) *3600 + MINUTE(C217) * 60 + SECOND(C217)</f>
+        <f t="shared" si="14"/>
         <v>574</v>
       </c>
       <c r="H217" s="22">
-        <f>HOUR(D217) *3600 + MINUTE(D217) * 60 + SECOND(D217)</f>
+        <f t="shared" si="15"/>
         <v>588</v>
       </c>
       <c r="I217" s="27" t="str">
@@ -44519,19 +44519,19 @@
         <v>192</v>
       </c>
       <c r="E218" s="19">
-        <f>D218-C218</f>
+        <f t="shared" si="12"/>
         <v>9.2592592592592553E-4</v>
       </c>
       <c r="F218" s="6">
-        <f>HOUR(E218) *3600 + MINUTE(E218) * 60 + SECOND(E218)</f>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="G218" s="22">
-        <f>HOUR(C218) *3600 + MINUTE(C218) * 60 + SECOND(C218)</f>
+        <f t="shared" si="14"/>
         <v>594</v>
       </c>
       <c r="H218" s="22">
-        <f>HOUR(D218) *3600 + MINUTE(D218) * 60 + SECOND(D218)</f>
+        <f t="shared" si="15"/>
         <v>674</v>
       </c>
       <c r="I218" s="27" t="str">
@@ -44567,19 +44567,19 @@
         <v>215</v>
       </c>
       <c r="E219" s="19">
-        <f>D219-C219</f>
+        <f t="shared" si="12"/>
         <v>9.2592592592593767E-5</v>
       </c>
       <c r="F219" s="6">
-        <f>HOUR(E219) *3600 + MINUTE(E219) * 60 + SECOND(E219)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G219" s="22">
-        <f>HOUR(C219) *3600 + MINUTE(C219) * 60 + SECOND(C219)</f>
+        <f t="shared" si="14"/>
         <v>722</v>
       </c>
       <c r="H219" s="22">
-        <f>HOUR(D219) *3600 + MINUTE(D219) * 60 + SECOND(D219)</f>
+        <f t="shared" si="15"/>
         <v>730</v>
       </c>
       <c r="I219" s="27" t="str">
@@ -44612,19 +44612,19 @@
         <v>358</v>
       </c>
       <c r="E220" s="19">
-        <f>D220-C220</f>
+        <f t="shared" si="12"/>
         <v>9.2592592592593767E-5</v>
       </c>
       <c r="F220" s="6">
-        <f>HOUR(E220) *3600 + MINUTE(E220) * 60 + SECOND(E220)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G220" s="22">
-        <f>HOUR(C220) *3600 + MINUTE(C220) * 60 + SECOND(C220)</f>
+        <f t="shared" si="14"/>
         <v>1144</v>
       </c>
       <c r="H220" s="22">
-        <f>HOUR(D220) *3600 + MINUTE(D220) * 60 + SECOND(D220)</f>
+        <f t="shared" si="15"/>
         <v>1152</v>
       </c>
       <c r="I220" s="27" t="str">
@@ -44657,19 +44657,19 @@
         <v>379</v>
       </c>
       <c r="E221" s="19">
-        <f>D221-C221</f>
+        <f t="shared" si="12"/>
         <v>6.9444444444443157E-5</v>
       </c>
       <c r="F221" s="6">
-        <f>HOUR(E221) *3600 + MINUTE(E221) * 60 + SECOND(E221)</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G221" s="22">
-        <f>HOUR(C221) *3600 + MINUTE(C221) * 60 + SECOND(C221)</f>
+        <f t="shared" si="14"/>
         <v>1212</v>
       </c>
       <c r="H221" s="22">
-        <f>HOUR(D221) *3600 + MINUTE(D221) * 60 + SECOND(D221)</f>
+        <f t="shared" si="15"/>
         <v>1218</v>
       </c>
       <c r="I221" s="27" t="str">
@@ -44702,19 +44702,19 @@
         <v>621</v>
       </c>
       <c r="E222" s="19">
-        <f>D222-C222</f>
+        <f t="shared" si="12"/>
         <v>1.1365740740740742E-2</v>
       </c>
       <c r="F222" s="6">
-        <f>HOUR(E222) *3600 + MINUTE(E222) * 60 + SECOND(E222)</f>
+        <f t="shared" si="13"/>
         <v>982</v>
       </c>
       <c r="G222" s="22">
-        <f>HOUR(C222) *3600 + MINUTE(C222) * 60 + SECOND(C222)</f>
+        <f t="shared" si="14"/>
         <v>2102</v>
       </c>
       <c r="H222" s="22">
-        <f>HOUR(D222) *3600 + MINUTE(D222) * 60 + SECOND(D222)</f>
+        <f t="shared" si="15"/>
         <v>3084</v>
       </c>
       <c r="I222" s="27" t="str">
@@ -44747,19 +44747,19 @@
         <v>625</v>
       </c>
       <c r="E223" s="19">
-        <f>D223-C223</f>
+        <f t="shared" si="12"/>
         <v>2.3148148148140202E-5</v>
       </c>
       <c r="F223" s="6">
-        <f>HOUR(E223) *3600 + MINUTE(E223) * 60 + SECOND(E223)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="G223" s="22">
-        <f>HOUR(C223) *3600 + MINUTE(C223) * 60 + SECOND(C223)</f>
+        <f t="shared" si="14"/>
         <v>2106</v>
       </c>
       <c r="H223" s="22">
-        <f>HOUR(D223) *3600 + MINUTE(D223) * 60 + SECOND(D223)</f>
+        <f t="shared" si="15"/>
         <v>2108</v>
       </c>
       <c r="I223" s="27" t="str">
@@ -44795,19 +44795,19 @@
         <v>809</v>
       </c>
       <c r="E224" s="19">
-        <f>D224-C224</f>
+        <f t="shared" si="12"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F224" s="6">
-        <f>HOUR(E224) *3600 + MINUTE(E224) * 60 + SECOND(E224)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="G224" s="22">
-        <f>HOUR(C224) *3600 + MINUTE(C224) * 60 + SECOND(C224)</f>
+        <f t="shared" si="14"/>
         <v>2984</v>
       </c>
       <c r="H224" s="22">
-        <f>HOUR(D224) *3600 + MINUTE(D224) * 60 + SECOND(D224)</f>
+        <f t="shared" si="15"/>
         <v>2988</v>
       </c>
       <c r="I224" s="27" t="str">
@@ -44840,19 +44840,19 @@
         <v>621</v>
       </c>
       <c r="E225" s="19">
-        <f>D225-C225</f>
+        <f t="shared" si="12"/>
         <v>9.2592592592595502E-5</v>
       </c>
       <c r="F225" s="6">
-        <f>HOUR(E225) *3600 + MINUTE(E225) * 60 + SECOND(E225)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G225" s="22">
-        <f>HOUR(C225) *3600 + MINUTE(C225) * 60 + SECOND(C225)</f>
+        <f t="shared" si="14"/>
         <v>3076</v>
       </c>
       <c r="H225" s="22">
-        <f>HOUR(D225) *3600 + MINUTE(D225) * 60 + SECOND(D225)</f>
+        <f t="shared" si="15"/>
         <v>3084</v>
       </c>
       <c r="I225" s="27" t="str">
@@ -44888,19 +44888,19 @@
         <v>857</v>
       </c>
       <c r="E226" s="19">
-        <f>D226-C226</f>
+        <f t="shared" si="12"/>
         <v>2.5462962962962549E-4</v>
       </c>
       <c r="F226" s="6">
-        <f>HOUR(E226) *3600 + MINUTE(E226) * 60 + SECOND(E226)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="G226" s="22">
-        <f>HOUR(C226) *3600 + MINUTE(C226) * 60 + SECOND(C226)</f>
+        <f t="shared" si="14"/>
         <v>3086</v>
       </c>
       <c r="H226" s="22">
-        <f>HOUR(D226) *3600 + MINUTE(D226) * 60 + SECOND(D226)</f>
+        <f t="shared" si="15"/>
         <v>3108</v>
       </c>
       <c r="I226" s="27" t="str">
@@ -44933,19 +44933,19 @@
         <v>870</v>
       </c>
       <c r="E227" s="19">
-        <f>D227-C227</f>
+        <f t="shared" si="12"/>
         <v>9.2592592592595502E-5</v>
       </c>
       <c r="F227" s="6">
-        <f>HOUR(E227) *3600 + MINUTE(E227) * 60 + SECOND(E227)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="G227" s="22">
-        <f>HOUR(C227) *3600 + MINUTE(C227) * 60 + SECOND(C227)</f>
+        <f t="shared" si="14"/>
         <v>3160</v>
       </c>
       <c r="H227" s="22">
-        <f>HOUR(D227) *3600 + MINUTE(D227) * 60 + SECOND(D227)</f>
+        <f t="shared" si="15"/>
         <v>3168</v>
       </c>
       <c r="I227" s="27" t="str">
@@ -44978,19 +44978,19 @@
         <v>393</v>
       </c>
       <c r="E228" s="19">
-        <f>D228-C228</f>
+        <f t="shared" si="12"/>
         <v>6.0185185185184821E-4</v>
       </c>
       <c r="F228" s="6">
-        <f>HOUR(E228) *3600 + MINUTE(E228) * 60 + SECOND(E228)</f>
+        <f t="shared" si="13"/>
         <v>52</v>
       </c>
       <c r="G228" s="22">
-        <f>HOUR(C228) *3600 + MINUTE(C228) * 60 + SECOND(C228)</f>
+        <f t="shared" si="14"/>
         <v>1232</v>
       </c>
       <c r="H228" s="22">
-        <f>HOUR(D228) *3600 + MINUTE(D228) * 60 + SECOND(D228)</f>
+        <f t="shared" si="15"/>
         <v>1284</v>
       </c>
       <c r="I228" s="27" t="str">
@@ -45023,19 +45023,19 @@
         <v>419</v>
       </c>
       <c r="E229" s="19">
-        <f>D229-C229</f>
+        <f t="shared" si="12"/>
         <v>3.2407407407407038E-4</v>
       </c>
       <c r="F229" s="6">
-        <f>HOUR(E229) *3600 + MINUTE(E229) * 60 + SECOND(E229)</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="G229" s="22">
-        <f>HOUR(C229) *3600 + MINUTE(C229) * 60 + SECOND(C229)</f>
+        <f t="shared" si="14"/>
         <v>1316</v>
       </c>
       <c r="H229" s="22">
-        <f>HOUR(D229) *3600 + MINUTE(D229) * 60 + SECOND(D229)</f>
+        <f t="shared" si="15"/>
         <v>1344</v>
       </c>
       <c r="I229" s="27" t="str">
@@ -45068,19 +45068,19 @@
         <v>431</v>
       </c>
       <c r="E230" s="19">
-        <f>D230-C230</f>
+        <f t="shared" si="12"/>
         <v>2.0833333333333467E-4</v>
       </c>
       <c r="F230" s="6">
-        <f>HOUR(E230) *3600 + MINUTE(E230) * 60 + SECOND(E230)</f>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="G230" s="22">
-        <f>HOUR(C230) *3600 + MINUTE(C230) * 60 + SECOND(C230)</f>
+        <f t="shared" si="14"/>
         <v>1358</v>
       </c>
       <c r="H230" s="22">
-        <f>HOUR(D230) *3600 + MINUTE(D230) * 60 + SECOND(D230)</f>
+        <f t="shared" si="15"/>
         <v>1376</v>
       </c>
       <c r="I230" s="27" t="str">
@@ -45113,19 +45113,19 @@
         <v>437</v>
       </c>
       <c r="E231" s="19">
-        <f>D231-C231</f>
+        <f t="shared" si="12"/>
         <v>1.3888888888888631E-4</v>
       </c>
       <c r="F231" s="6">
-        <f>HOUR(E231) *3600 + MINUTE(E231) * 60 + SECOND(E231)</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G231" s="22">
-        <f>HOUR(C231) *3600 + MINUTE(C231) * 60 + SECOND(C231)</f>
+        <f t="shared" si="14"/>
         <v>1394</v>
       </c>
       <c r="H231" s="22">
-        <f>HOUR(D231) *3600 + MINUTE(D231) * 60 + SECOND(D231)</f>
+        <f t="shared" si="15"/>
         <v>1406</v>
       </c>
       <c r="I231" s="27" t="str">
@@ -45158,19 +45158,19 @@
         <v>447</v>
       </c>
       <c r="E232" s="19">
-        <f>D232-C232</f>
+        <f t="shared" si="12"/>
         <v>1.4814814814814795E-3</v>
       </c>
       <c r="F232" s="6">
-        <f>HOUR(E232) *3600 + MINUTE(E232) * 60 + SECOND(E232)</f>
+        <f t="shared" si="13"/>
         <v>128</v>
       </c>
       <c r="G232" s="22">
-        <f>HOUR(C232) *3600 + MINUTE(C232) * 60 + SECOND(C232)</f>
+        <f t="shared" si="14"/>
         <v>1426</v>
       </c>
       <c r="H232" s="22">
-        <f>HOUR(D232) *3600 + MINUTE(D232) * 60 + SECOND(D232)</f>
+        <f t="shared" si="15"/>
         <v>1554</v>
       </c>
       <c r="I232" s="27" t="str">
@@ -45203,19 +45203,19 @@
         <v>468</v>
       </c>
       <c r="E233" s="19">
-        <f>D233-C233</f>
+        <f t="shared" si="12"/>
         <v>1.6203703703704039E-4</v>
       </c>
       <c r="F233" s="6">
-        <f>HOUR(E233) *3600 + MINUTE(E233) * 60 + SECOND(E233)</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="G233" s="22">
-        <f>HOUR(C233) *3600 + MINUTE(C233) * 60 + SECOND(C233)</f>
+        <f t="shared" si="14"/>
         <v>1568</v>
       </c>
       <c r="H233" s="22">
-        <f>HOUR(D233) *3600 + MINUTE(D233) * 60 + SECOND(D233)</f>
+        <f t="shared" si="15"/>
         <v>1582</v>
       </c>
       <c r="I233" s="27" t="str">
@@ -45248,19 +45248,19 @@
         <v>491</v>
       </c>
       <c r="E234" s="19">
-        <f>D234-C234</f>
+        <f t="shared" si="12"/>
         <v>4.6296296296296363E-4</v>
       </c>
       <c r="F234" s="6">
-        <f>HOUR(E234) *3600 + MINUTE(E234) * 60 + SECOND(E234)</f>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="G234" s="22">
-        <f>HOUR(C234) *3600 + MINUTE(C234) * 60 + SECOND(C234)</f>
+        <f t="shared" si="14"/>
         <v>1592</v>
       </c>
       <c r="H234" s="22">
-        <f>HOUR(D234) *3600 + MINUTE(D234) * 60 + SECOND(D234)</f>
+        <f t="shared" si="15"/>
         <v>1632</v>
       </c>
       <c r="I234" s="27" t="str">
@@ -45293,19 +45293,19 @@
         <v>504</v>
       </c>
       <c r="E235" s="19">
-        <f>D235-C235</f>
+        <f t="shared" si="12"/>
         <v>1.8518518518518406E-4</v>
       </c>
       <c r="F235" s="6">
-        <f>HOUR(E235) *3600 + MINUTE(E235) * 60 + SECOND(E235)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="G235" s="22">
-        <f>HOUR(C235) *3600 + MINUTE(C235) * 60 + SECOND(C235)</f>
+        <f t="shared" si="14"/>
         <v>1634</v>
       </c>
       <c r="H235" s="22">
-        <f>HOUR(D235) *3600 + MINUTE(D235) * 60 + SECOND(D235)</f>
+        <f t="shared" si="15"/>
         <v>1650</v>
       </c>
       <c r="I235" s="27" t="str">
@@ -45338,19 +45338,19 @@
         <v>515</v>
       </c>
       <c r="E236" s="19">
-        <f>D236-C236</f>
+        <f t="shared" si="12"/>
         <v>3.0092592592592324E-4</v>
       </c>
       <c r="F236" s="6">
-        <f>HOUR(E236) *3600 + MINUTE(E236) * 60 + SECOND(E236)</f>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="G236" s="22">
-        <f>HOUR(C236) *3600 + MINUTE(C236) * 60 + SECOND(C236)</f>
+        <f t="shared" si="14"/>
         <v>1666</v>
       </c>
       <c r="H236" s="22">
-        <f>HOUR(D236) *3600 + MINUTE(D236) * 60 + SECOND(D236)</f>
+        <f t="shared" si="15"/>
         <v>1692</v>
       </c>
       <c r="I236" s="27" t="str">
@@ -45383,19 +45383,19 @@
         <v>526</v>
       </c>
       <c r="E237" s="19">
-        <f>D237-C237</f>
+        <f t="shared" si="12"/>
         <v>2.0833333333333121E-4</v>
       </c>
       <c r="F237" s="6">
-        <f>HOUR(E237) *3600 + MINUTE(E237) * 60 + SECOND(E237)</f>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="G237" s="22">
-        <f>HOUR(C237) *3600 + MINUTE(C237) * 60 + SECOND(C237)</f>
+        <f t="shared" si="14"/>
         <v>1714</v>
       </c>
       <c r="H237" s="22">
-        <f>HOUR(D237) *3600 + MINUTE(D237) * 60 + SECOND(D237)</f>
+        <f t="shared" si="15"/>
         <v>1732</v>
       </c>
       <c r="I237" s="27" t="str">
@@ -45428,19 +45428,19 @@
         <v>530</v>
       </c>
       <c r="E238" s="19">
-        <f>D238-C238</f>
+        <f t="shared" si="12"/>
         <v>4.3981481481481649E-4</v>
       </c>
       <c r="F238" s="6">
-        <f>HOUR(E238) *3600 + MINUTE(E238) * 60 + SECOND(E238)</f>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="G238" s="22">
-        <f>HOUR(C238) *3600 + MINUTE(C238) * 60 + SECOND(C238)</f>
+        <f t="shared" si="14"/>
         <v>1760</v>
       </c>
       <c r="H238" s="22">
-        <f>HOUR(D238) *3600 + MINUTE(D238) * 60 + SECOND(D238)</f>
+        <f t="shared" si="15"/>
         <v>1798</v>
       </c>
       <c r="I238" s="27" t="str">
@@ -45473,19 +45473,19 @@
         <v>541</v>
       </c>
       <c r="E239" s="19">
-        <f>D239-C239</f>
+        <f t="shared" si="12"/>
         <v>5.7870370370370627E-4</v>
       </c>
       <c r="F239" s="6">
-        <f>HOUR(E239) *3600 + MINUTE(E239) * 60 + SECOND(E239)</f>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="G239" s="22">
-        <f>HOUR(C239) *3600 + MINUTE(C239) * 60 + SECOND(C239)</f>
+        <f t="shared" si="14"/>
         <v>1828</v>
       </c>
       <c r="H239" s="22">
-        <f>HOUR(D239) *3600 + MINUTE(D239) * 60 + SECOND(D239)</f>
+        <f t="shared" si="15"/>
         <v>1878</v>
       </c>
       <c r="I239" s="27" t="str">
@@ -45518,19 +45518,19 @@
         <v>595</v>
       </c>
       <c r="E240" s="19">
-        <f>D240-C240</f>
+        <f t="shared" si="12"/>
         <v>3.7037037037036813E-4</v>
       </c>
       <c r="F240" s="6">
-        <f>HOUR(E240) *3600 + MINUTE(E240) * 60 + SECOND(E240)</f>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="G240" s="22">
-        <f>HOUR(C240) *3600 + MINUTE(C240) * 60 + SECOND(C240)</f>
+        <f t="shared" si="14"/>
         <v>2024</v>
       </c>
       <c r="H240" s="22">
-        <f>HOUR(D240) *3600 + MINUTE(D240) * 60 + SECOND(D240)</f>
+        <f t="shared" si="15"/>
         <v>2056</v>
       </c>
       <c r="I240" s="27" t="str">
@@ -45563,19 +45563,19 @@
         <v>611</v>
       </c>
       <c r="E241" s="19">
-        <f>D241-C241</f>
+        <f t="shared" si="12"/>
         <v>3.2407407407407038E-4</v>
       </c>
       <c r="F241" s="6">
-        <f>HOUR(E241) *3600 + MINUTE(E241) * 60 + SECOND(E241)</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="G241" s="22">
-        <f>HOUR(C241) *3600 + MINUTE(C241) * 60 + SECOND(C241)</f>
+        <f t="shared" si="14"/>
         <v>2060</v>
       </c>
       <c r="H241" s="22">
-        <f>HOUR(D241) *3600 + MINUTE(D241) * 60 + SECOND(D241)</f>
+        <f t="shared" si="15"/>
         <v>2088</v>
       </c>
       <c r="I241" s="27" t="str">
@@ -45608,19 +45608,19 @@
         <v>635</v>
       </c>
       <c r="E242" s="19">
-        <f>D242-C242</f>
+        <f t="shared" si="12"/>
         <v>4.1666666666666588E-4</v>
       </c>
       <c r="F242" s="6">
-        <f>HOUR(E242) *3600 + MINUTE(E242) * 60 + SECOND(E242)</f>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="G242" s="22">
-        <f>HOUR(C242) *3600 + MINUTE(C242) * 60 + SECOND(C242)</f>
+        <f t="shared" si="14"/>
         <v>2140</v>
       </c>
       <c r="H242" s="22">
-        <f>HOUR(D242) *3600 + MINUTE(D242) * 60 + SECOND(D242)</f>
+        <f t="shared" si="15"/>
         <v>2176</v>
       </c>
       <c r="I242" s="27" t="str">
@@ -45653,19 +45653,19 @@
         <v>640</v>
       </c>
       <c r="E243" s="19">
-        <f>D243-C243</f>
+        <f t="shared" si="12"/>
         <v>7.6388888888888687E-4</v>
       </c>
       <c r="F243" s="6">
-        <f>HOUR(E243) *3600 + MINUTE(E243) * 60 + SECOND(E243)</f>
+        <f t="shared" si="13"/>
         <v>66</v>
       </c>
       <c r="G243" s="22">
-        <f>HOUR(C243) *3600 + MINUTE(C243) * 60 + SECOND(C243)</f>
+        <f t="shared" si="14"/>
         <v>2194</v>
       </c>
       <c r="H243" s="22">
-        <f>HOUR(D243) *3600 + MINUTE(D243) * 60 + SECOND(D243)</f>
+        <f t="shared" si="15"/>
         <v>2260</v>
       </c>
       <c r="I243" s="27" t="str">
@@ -45698,19 +45698,19 @@
         <v>654</v>
       </c>
       <c r="E244" s="19">
-        <f>D244-C244</f>
+        <f t="shared" si="12"/>
         <v>4.8611111111111424E-4</v>
       </c>
       <c r="F244" s="6">
-        <f>HOUR(E244) *3600 + MINUTE(E244) * 60 + SECOND(E244)</f>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="G244" s="22">
-        <f>HOUR(C244) *3600 + MINUTE(C244) * 60 + SECOND(C244)</f>
+        <f t="shared" si="14"/>
         <v>2272</v>
       </c>
       <c r="H244" s="22">
-        <f>HOUR(D244) *3600 + MINUTE(D244) * 60 + SECOND(D244)</f>
+        <f t="shared" si="15"/>
         <v>2314</v>
       </c>
       <c r="I244" s="27" t="str">
@@ -45743,19 +45743,19 @@
         <v>672</v>
       </c>
       <c r="E245" s="19">
-        <f>D245-C245</f>
+        <f t="shared" si="12"/>
         <v>1.2500000000000011E-3</v>
       </c>
       <c r="F245" s="6">
-        <f>HOUR(E245) *3600 + MINUTE(E245) * 60 + SECOND(E245)</f>
+        <f t="shared" si="13"/>
         <v>108</v>
       </c>
       <c r="G245" s="22">
-        <f>HOUR(C245) *3600 + MINUTE(C245) * 60 + SECOND(C245)</f>
+        <f t="shared" si="14"/>
         <v>2350</v>
       </c>
       <c r="H245" s="22">
-        <f>HOUR(D245) *3600 + MINUTE(D245) * 60 + SECOND(D245)</f>
+        <f t="shared" si="15"/>
         <v>2458</v>
       </c>
       <c r="I245" s="27" t="str">
@@ -45788,19 +45788,19 @@
         <v>686</v>
       </c>
       <c r="E246" s="19">
-        <f>D246-C246</f>
+        <f t="shared" si="12"/>
         <v>2.3148148148147488E-4</v>
       </c>
       <c r="F246" s="6">
-        <f>HOUR(E246) *3600 + MINUTE(E246) * 60 + SECOND(E246)</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="G246" s="22">
-        <f>HOUR(C246) *3600 + MINUTE(C246) * 60 + SECOND(C246)</f>
+        <f t="shared" si="14"/>
         <v>2472</v>
       </c>
       <c r="H246" s="22">
-        <f>HOUR(D246) *3600 + MINUTE(D246) * 60 + SECOND(D246)</f>
+        <f t="shared" si="15"/>
         <v>2492</v>
       </c>
       <c r="I246" s="27" t="str">
@@ -45833,19 +45833,19 @@
         <v>695</v>
       </c>
       <c r="E247" s="19">
-        <f>D247-C247</f>
+        <f t="shared" si="12"/>
         <v>4.3981481481481649E-4</v>
       </c>
       <c r="F247" s="6">
-        <f>HOUR(E247) *3600 + MINUTE(E247) * 60 + SECOND(E247)</f>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="G247" s="22">
-        <f>HOUR(C247) *3600 + MINUTE(C247) * 60 + SECOND(C247)</f>
+        <f t="shared" si="14"/>
         <v>2544</v>
       </c>
       <c r="H247" s="22">
-        <f>HOUR(D247) *3600 + MINUTE(D247) * 60 + SECOND(D247)</f>
+        <f t="shared" si="15"/>
         <v>2582</v>
       </c>
       <c r="I247" s="27" t="str">
@@ -45878,19 +45878,19 @@
         <v>715</v>
       </c>
       <c r="E248" s="19">
-        <f>D248-C248</f>
+        <f t="shared" si="12"/>
         <v>7.4074074074073626E-4</v>
       </c>
       <c r="F248" s="6">
-        <f>HOUR(E248) *3600 + MINUTE(E248) * 60 + SECOND(E248)</f>
+        <f t="shared" si="13"/>
         <v>64</v>
       </c>
       <c r="G248" s="22">
-        <f>HOUR(C248) *3600 + MINUTE(C248) * 60 + SECOND(C248)</f>
+        <f t="shared" si="14"/>
         <v>2594</v>
       </c>
       <c r="H248" s="22">
-        <f>HOUR(D248) *3600 + MINUTE(D248) * 60 + SECOND(D248)</f>
+        <f t="shared" si="15"/>
         <v>2658</v>
       </c>
       <c r="I248" s="27" t="str">
@@ -45923,19 +45923,19 @@
         <v>729</v>
       </c>
       <c r="E249" s="19">
-        <f>D249-C249</f>
+        <f t="shared" si="12"/>
         <v>3.4722222222222099E-4</v>
       </c>
       <c r="F249" s="6">
-        <f>HOUR(E249) *3600 + MINUTE(E249) * 60 + SECOND(E249)</f>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="G249" s="22">
-        <f>HOUR(C249) *3600 + MINUTE(C249) * 60 + SECOND(C249)</f>
+        <f t="shared" si="14"/>
         <v>2668</v>
       </c>
       <c r="H249" s="22">
-        <f>HOUR(D249) *3600 + MINUTE(D249) * 60 + SECOND(D249)</f>
+        <f t="shared" si="15"/>
         <v>2698</v>
       </c>
       <c r="I249" s="27" t="str">
@@ -45968,19 +45968,19 @@
         <v>746</v>
       </c>
       <c r="E250" s="19">
-        <f>D250-C250</f>
+        <f t="shared" si="12"/>
         <v>2.0833333333332427E-4</v>
       </c>
       <c r="F250" s="6">
-        <f>HOUR(E250) *3600 + MINUTE(E250) * 60 + SECOND(E250)</f>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="G250" s="22">
-        <f>HOUR(C250) *3600 + MINUTE(C250) * 60 + SECOND(C250)</f>
+        <f t="shared" si="14"/>
         <v>2706</v>
       </c>
       <c r="H250" s="22">
-        <f>HOUR(D250) *3600 + MINUTE(D250) * 60 + SECOND(D250)</f>
+        <f t="shared" si="15"/>
         <v>2724</v>
       </c>
       <c r="I250" s="27" t="str">
@@ -46013,19 +46013,19 @@
         <v>754</v>
       </c>
       <c r="E251" s="19">
-        <f>D251-C251</f>
+        <f t="shared" si="12"/>
         <v>3.4722222222222793E-4</v>
       </c>
       <c r="F251" s="6">
-        <f>HOUR(E251) *3600 + MINUTE(E251) * 60 + SECOND(E251)</f>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="G251" s="22">
-        <f>HOUR(C251) *3600 + MINUTE(C251) * 60 + SECOND(C251)</f>
+        <f t="shared" si="14"/>
         <v>2730</v>
       </c>
       <c r="H251" s="22">
-        <f>HOUR(D251) *3600 + MINUTE(D251) * 60 + SECOND(D251)</f>
+        <f t="shared" si="15"/>
         <v>2760</v>
       </c>
       <c r="I251" s="27" t="str">
@@ -46058,19 +46058,19 @@
         <v>765</v>
       </c>
       <c r="E252" s="19">
-        <f>D252-C252</f>
+        <f t="shared" si="12"/>
         <v>2.3148148148148529E-4</v>
       </c>
       <c r="F252" s="6">
-        <f>HOUR(E252) *3600 + MINUTE(E252) * 60 + SECOND(E252)</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="G252" s="22">
-        <f>HOUR(C252) *3600 + MINUTE(C252) * 60 + SECOND(C252)</f>
+        <f t="shared" si="14"/>
         <v>2768</v>
       </c>
       <c r="H252" s="22">
-        <f>HOUR(D252) *3600 + MINUTE(D252) * 60 + SECOND(D252)</f>
+        <f t="shared" si="15"/>
         <v>2788</v>
       </c>
       <c r="I252" s="27" t="str">
@@ -46103,19 +46103,19 @@
         <v>777</v>
       </c>
       <c r="E253" s="19">
-        <f>D253-C253</f>
+        <f t="shared" si="12"/>
         <v>1.6203703703702999E-4</v>
       </c>
       <c r="F253" s="6">
-        <f>HOUR(E253) *3600 + MINUTE(E253) * 60 + SECOND(E253)</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="G253" s="22">
-        <f>HOUR(C253) *3600 + MINUTE(C253) * 60 + SECOND(C253)</f>
+        <f t="shared" si="14"/>
         <v>2790</v>
       </c>
       <c r="H253" s="22">
-        <f>HOUR(D253) *3600 + MINUTE(D253) * 60 + SECOND(D253)</f>
+        <f t="shared" si="15"/>
         <v>2804</v>
       </c>
       <c r="I253" s="27" t="str">
@@ -46148,19 +46148,19 @@
         <v>801</v>
       </c>
       <c r="E254" s="19">
-        <f>D254-C254</f>
+        <f t="shared" si="12"/>
         <v>1.2037037037037068E-3</v>
       </c>
       <c r="F254" s="6">
-        <f>HOUR(E254) *3600 + MINUTE(E254) * 60 + SECOND(E254)</f>
+        <f t="shared" si="13"/>
         <v>104</v>
       </c>
       <c r="G254" s="22">
-        <f>HOUR(C254) *3600 + MINUTE(C254) * 60 + SECOND(C254)</f>
+        <f t="shared" si="14"/>
         <v>2878</v>
       </c>
       <c r="H254" s="22">
-        <f>HOUR(D254) *3600 + MINUTE(D254) * 60 + SECOND(D254)</f>
+        <f t="shared" si="15"/>
         <v>2982</v>
       </c>
       <c r="I254" s="27" t="str">
@@ -46193,19 +46193,19 @@
         <v>811</v>
       </c>
       <c r="E255" s="19">
-        <f>D255-C255</f>
+        <f t="shared" si="12"/>
         <v>3.0092592592592671E-4</v>
       </c>
       <c r="F255" s="6">
-        <f>HOUR(E255) *3600 + MINUTE(E255) * 60 + SECOND(E255)</f>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="G255" s="22">
-        <f>HOUR(C255) *3600 + MINUTE(C255) * 60 + SECOND(C255)</f>
+        <f t="shared" si="14"/>
         <v>2992</v>
       </c>
       <c r="H255" s="22">
-        <f>HOUR(D255) *3600 + MINUTE(D255) * 60 + SECOND(D255)</f>
+        <f t="shared" si="15"/>
         <v>3018</v>
       </c>
       <c r="I255" s="27" t="str">
@@ -46238,19 +46238,19 @@
         <v>339</v>
       </c>
       <c r="E256" s="19">
-        <f>D256-C256</f>
+        <f t="shared" si="12"/>
         <v>1.1574074074073917E-4</v>
       </c>
       <c r="F256" s="6">
-        <f>HOUR(E256) *3600 + MINUTE(E256) * 60 + SECOND(E256)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="G256" s="22">
-        <f>HOUR(C256) *3600 + MINUTE(C256) * 60 + SECOND(C256)</f>
+        <f t="shared" si="14"/>
         <v>1124</v>
       </c>
       <c r="H256" s="22">
-        <f>HOUR(D256) *3600 + MINUTE(D256) * 60 + SECOND(D256)</f>
+        <f t="shared" si="15"/>
         <v>1134</v>
       </c>
       <c r="I256" s="27" t="str">
@@ -46283,19 +46283,19 @@
         <v>363</v>
       </c>
       <c r="E257" s="19">
-        <f>D257-C257</f>
+        <f t="shared" si="12"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F257" s="6">
-        <f>HOUR(E257) *3600 + MINUTE(E257) * 60 + SECOND(E257)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="G257" s="22">
-        <f>HOUR(C257) *3600 + MINUTE(C257) * 60 + SECOND(C257)</f>
+        <f t="shared" si="14"/>
         <v>1146</v>
       </c>
       <c r="H257" s="22">
-        <f>HOUR(D257) *3600 + MINUTE(D257) * 60 + SECOND(D257)</f>
+        <f t="shared" si="15"/>
         <v>1148</v>
       </c>
       <c r="I257" s="27" t="str">
@@ -46328,19 +46328,19 @@
         <v>379</v>
       </c>
       <c r="E258" s="19">
-        <f>D258-C258</f>
+        <f t="shared" ref="E258:E321" si="16">D258-C258</f>
         <v>6.9444444444443157E-5</v>
       </c>
       <c r="F258" s="6">
-        <f>HOUR(E258) *3600 + MINUTE(E258) * 60 + SECOND(E258)</f>
+        <f t="shared" ref="F258:F321" si="17">HOUR(E258) *3600 + MINUTE(E258) * 60 + SECOND(E258)</f>
         <v>6</v>
       </c>
       <c r="G258" s="22">
-        <f>HOUR(C258) *3600 + MINUTE(C258) * 60 + SECOND(C258)</f>
+        <f t="shared" ref="G258:G321" si="18">HOUR(C258) *3600 + MINUTE(C258) * 60 + SECOND(C258)</f>
         <v>1212</v>
       </c>
       <c r="H258" s="22">
-        <f>HOUR(D258) *3600 + MINUTE(D258) * 60 + SECOND(D258)</f>
+        <f t="shared" ref="H258:H321" si="19">HOUR(D258) *3600 + MINUTE(D258) * 60 + SECOND(D258)</f>
         <v>1218</v>
       </c>
       <c r="I258" s="27" t="str">
@@ -46373,19 +46373,19 @@
         <v>394</v>
       </c>
       <c r="E259" s="19">
-        <f>D259-C259</f>
+        <f t="shared" si="16"/>
         <v>5.5555555555555393E-4</v>
       </c>
       <c r="F259" s="6">
-        <f>HOUR(E259) *3600 + MINUTE(E259) * 60 + SECOND(E259)</f>
+        <f t="shared" si="17"/>
         <v>48</v>
       </c>
       <c r="G259" s="22">
-        <f>HOUR(C259) *3600 + MINUTE(C259) * 60 + SECOND(C259)</f>
+        <f t="shared" si="18"/>
         <v>1234</v>
       </c>
       <c r="H259" s="22">
-        <f>HOUR(D259) *3600 + MINUTE(D259) * 60 + SECOND(D259)</f>
+        <f t="shared" si="19"/>
         <v>1282</v>
       </c>
       <c r="I259" s="27" t="str">
@@ -46418,19 +46418,19 @@
         <v>423</v>
       </c>
       <c r="E260" s="19">
-        <f>D260-C260</f>
+        <f t="shared" si="16"/>
         <v>2.777777777777761E-4</v>
       </c>
       <c r="F260" s="6">
-        <f>HOUR(E260) *3600 + MINUTE(E260) * 60 + SECOND(E260)</f>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="G260" s="22">
-        <f>HOUR(C260) *3600 + MINUTE(C260) * 60 + SECOND(C260)</f>
+        <f t="shared" si="18"/>
         <v>1318</v>
       </c>
       <c r="H260" s="22">
-        <f>HOUR(D260) *3600 + MINUTE(D260) * 60 + SECOND(D260)</f>
+        <f t="shared" si="19"/>
         <v>1342</v>
       </c>
       <c r="I260" s="27" t="str">
@@ -46463,19 +46463,19 @@
         <v>432</v>
       </c>
       <c r="E261" s="19">
-        <f>D261-C261</f>
+        <f t="shared" si="16"/>
         <v>1.8518518518518406E-4</v>
       </c>
       <c r="F261" s="6">
-        <f>HOUR(E261) *3600 + MINUTE(E261) * 60 + SECOND(E261)</f>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="G261" s="22">
-        <f>HOUR(C261) *3600 + MINUTE(C261) * 60 + SECOND(C261)</f>
+        <f t="shared" si="18"/>
         <v>1358</v>
       </c>
       <c r="H261" s="22">
-        <f>HOUR(D261) *3600 + MINUTE(D261) * 60 + SECOND(D261)</f>
+        <f t="shared" si="19"/>
         <v>1374</v>
       </c>
       <c r="I261" s="27" t="str">
@@ -46508,19 +46508,19 @@
         <v>437</v>
       </c>
       <c r="E262" s="19">
-        <f>D262-C262</f>
+        <f t="shared" si="16"/>
         <v>1.1574074074073917E-4</v>
       </c>
       <c r="F262" s="6">
-        <f>HOUR(E262) *3600 + MINUTE(E262) * 60 + SECOND(E262)</f>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="G262" s="22">
-        <f>HOUR(C262) *3600 + MINUTE(C262) * 60 + SECOND(C262)</f>
+        <f t="shared" si="18"/>
         <v>1396</v>
       </c>
       <c r="H262" s="22">
-        <f>HOUR(D262) *3600 + MINUTE(D262) * 60 + SECOND(D262)</f>
+        <f t="shared" si="19"/>
         <v>1406</v>
       </c>
       <c r="I262" s="27" t="str">
@@ -46553,19 +46553,19 @@
         <v>449</v>
       </c>
       <c r="E263" s="19">
-        <f>D263-C263</f>
+        <f t="shared" si="16"/>
         <v>1.4351851851851852E-3</v>
       </c>
       <c r="F263" s="6">
-        <f>HOUR(E263) *3600 + MINUTE(E263) * 60 + SECOND(E263)</f>
+        <f t="shared" si="17"/>
         <v>124</v>
       </c>
       <c r="G263" s="22">
-        <f>HOUR(C263) *3600 + MINUTE(C263) * 60 + SECOND(C263)</f>
+        <f t="shared" si="18"/>
         <v>1428</v>
       </c>
       <c r="H263" s="22">
-        <f>HOUR(D263) *3600 + MINUTE(D263) * 60 + SECOND(D263)</f>
+        <f t="shared" si="19"/>
         <v>1552</v>
       </c>
       <c r="I263" s="27" t="str">
@@ -46598,19 +46598,19 @@
         <v>457</v>
       </c>
       <c r="E264" s="19">
-        <f>D264-C264</f>
+        <f t="shared" si="16"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F264" s="6">
-        <f>HOUR(E264) *3600 + MINUTE(E264) * 60 + SECOND(E264)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="G264" s="22">
-        <f>HOUR(C264) *3600 + MINUTE(C264) * 60 + SECOND(C264)</f>
+        <f t="shared" si="18"/>
         <v>1560</v>
       </c>
       <c r="H264" s="22">
-        <f>HOUR(D264) *3600 + MINUTE(D264) * 60 + SECOND(D264)</f>
+        <f t="shared" si="19"/>
         <v>1564</v>
       </c>
       <c r="I264" s="27" t="str">
@@ -46643,19 +46643,19 @@
         <v>464</v>
       </c>
       <c r="E265" s="19">
-        <f>D265-C265</f>
+        <f t="shared" si="16"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F265" s="6">
-        <f>HOUR(E265) *3600 + MINUTE(E265) * 60 + SECOND(E265)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="G265" s="22">
-        <f>HOUR(C265) *3600 + MINUTE(C265) * 60 + SECOND(C265)</f>
+        <f t="shared" si="18"/>
         <v>1566</v>
       </c>
       <c r="H265" s="22">
-        <f>HOUR(D265) *3600 + MINUTE(D265) * 60 + SECOND(D265)</f>
+        <f t="shared" si="19"/>
         <v>1568</v>
       </c>
       <c r="I265" s="27" t="str">
@@ -46688,19 +46688,19 @@
         <v>472</v>
       </c>
       <c r="E266" s="19">
-        <f>D266-C266</f>
+        <f t="shared" si="16"/>
         <v>1.1574074074073917E-4</v>
       </c>
       <c r="F266" s="6">
-        <f>HOUR(E266) *3600 + MINUTE(E266) * 60 + SECOND(E266)</f>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="G266" s="22">
-        <f>HOUR(C266) *3600 + MINUTE(C266) * 60 + SECOND(C266)</f>
+        <f t="shared" si="18"/>
         <v>1570</v>
       </c>
       <c r="H266" s="22">
-        <f>HOUR(D266) *3600 + MINUTE(D266) * 60 + SECOND(D266)</f>
+        <f t="shared" si="19"/>
         <v>1580</v>
       </c>
       <c r="I266" s="27" t="str">
@@ -46733,19 +46733,19 @@
         <v>483</v>
       </c>
       <c r="E267" s="19">
-        <f>D267-C267</f>
+        <f t="shared" si="16"/>
         <v>9.2592592592592032E-5</v>
       </c>
       <c r="F267" s="6">
-        <f>HOUR(E267) *3600 + MINUTE(E267) * 60 + SECOND(E267)</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="G267" s="22">
-        <f>HOUR(C267) *3600 + MINUTE(C267) * 60 + SECOND(C267)</f>
+        <f t="shared" si="18"/>
         <v>1584</v>
       </c>
       <c r="H267" s="22">
-        <f>HOUR(D267) *3600 + MINUTE(D267) * 60 + SECOND(D267)</f>
+        <f t="shared" si="19"/>
         <v>1592</v>
       </c>
       <c r="I267" s="27" t="str">
@@ -46778,19 +46778,19 @@
         <v>511</v>
       </c>
       <c r="E268" s="19">
-        <f>D268-C268</f>
+        <f t="shared" si="16"/>
         <v>4.6296296296297751E-5</v>
       </c>
       <c r="F268" s="6">
-        <f>HOUR(E268) *3600 + MINUTE(E268) * 60 + SECOND(E268)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="G268" s="22">
-        <f>HOUR(C268) *3600 + MINUTE(C268) * 60 + SECOND(C268)</f>
+        <f t="shared" si="18"/>
         <v>1652</v>
       </c>
       <c r="H268" s="22">
-        <f>HOUR(D268) *3600 + MINUTE(D268) * 60 + SECOND(D268)</f>
+        <f t="shared" si="19"/>
         <v>1656</v>
       </c>
       <c r="I268" s="27" t="str">
@@ -46823,19 +46823,19 @@
         <v>515</v>
       </c>
       <c r="E269" s="19">
-        <f>D269-C269</f>
+        <f t="shared" si="16"/>
         <v>3.4722222222222099E-4</v>
       </c>
       <c r="F269" s="6">
-        <f>HOUR(E269) *3600 + MINUTE(E269) * 60 + SECOND(E269)</f>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="G269" s="22">
-        <f>HOUR(C269) *3600 + MINUTE(C269) * 60 + SECOND(C269)</f>
+        <f t="shared" si="18"/>
         <v>1662</v>
       </c>
       <c r="H269" s="22">
-        <f>HOUR(D269) *3600 + MINUTE(D269) * 60 + SECOND(D269)</f>
+        <f t="shared" si="19"/>
         <v>1692</v>
       </c>
       <c r="I269" s="27" t="str">
@@ -46868,19 +46868,19 @@
         <v>521</v>
       </c>
       <c r="E270" s="19">
-        <f>D270-C270</f>
+        <f t="shared" si="16"/>
         <v>6.9444444444441422E-5</v>
       </c>
       <c r="F270" s="6">
-        <f>HOUR(E270) *3600 + MINUTE(E270) * 60 + SECOND(E270)</f>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="G270" s="22">
-        <f>HOUR(C270) *3600 + MINUTE(C270) * 60 + SECOND(C270)</f>
+        <f t="shared" si="18"/>
         <v>1702</v>
       </c>
       <c r="H270" s="22">
-        <f>HOUR(D270) *3600 + MINUTE(D270) * 60 + SECOND(D270)</f>
+        <f t="shared" si="19"/>
         <v>1708</v>
       </c>
       <c r="I270" s="27" t="str">
@@ -46913,19 +46913,19 @@
         <v>526</v>
       </c>
       <c r="E271" s="19">
-        <f>D271-C271</f>
+        <f t="shared" si="16"/>
         <v>2.0833333333333121E-4</v>
       </c>
       <c r="F271" s="6">
-        <f>HOUR(E271) *3600 + MINUTE(E271) * 60 + SECOND(E271)</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="G271" s="22">
-        <f>HOUR(C271) *3600 + MINUTE(C271) * 60 + SECOND(C271)</f>
+        <f t="shared" si="18"/>
         <v>1714</v>
       </c>
       <c r="H271" s="22">
-        <f>HOUR(D271) *3600 + MINUTE(D271) * 60 + SECOND(D271)</f>
+        <f t="shared" si="19"/>
         <v>1732</v>
       </c>
       <c r="I271" s="27" t="str">
@@ -46958,19 +46958,19 @@
         <v>528</v>
       </c>
       <c r="E272" s="19">
-        <f>D272-C272</f>
+        <f t="shared" si="16"/>
         <v>4.6296296296296363E-4</v>
       </c>
       <c r="F272" s="6">
-        <f>HOUR(E272) *3600 + MINUTE(E272) * 60 + SECOND(E272)</f>
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
       <c r="G272" s="22">
-        <f>HOUR(C272) *3600 + MINUTE(C272) * 60 + SECOND(C272)</f>
+        <f t="shared" si="18"/>
         <v>1756</v>
       </c>
       <c r="H272" s="22">
-        <f>HOUR(D272) *3600 + MINUTE(D272) * 60 + SECOND(D272)</f>
+        <f t="shared" si="19"/>
         <v>1796</v>
       </c>
       <c r="I272" s="27" t="str">
@@ -47003,19 +47003,19 @@
         <v>543</v>
       </c>
       <c r="E273" s="19">
-        <f>D273-C273</f>
+        <f t="shared" si="16"/>
         <v>5.5555555555555566E-4</v>
       </c>
       <c r="F273" s="6">
-        <f>HOUR(E273) *3600 + MINUTE(E273) * 60 + SECOND(E273)</f>
+        <f t="shared" si="17"/>
         <v>48</v>
       </c>
       <c r="G273" s="22">
-        <f>HOUR(C273) *3600 + MINUTE(C273) * 60 + SECOND(C273)</f>
+        <f t="shared" si="18"/>
         <v>1828</v>
       </c>
       <c r="H273" s="22">
-        <f>HOUR(D273) *3600 + MINUTE(D273) * 60 + SECOND(D273)</f>
+        <f t="shared" si="19"/>
         <v>1876</v>
       </c>
       <c r="I273" s="27" t="str">
@@ -47048,19 +47048,19 @@
         <v>595</v>
       </c>
       <c r="E274" s="19">
-        <f>D274-C274</f>
+        <f t="shared" si="16"/>
         <v>3.4722222222222793E-4</v>
       </c>
       <c r="F274" s="6">
-        <f>HOUR(E274) *3600 + MINUTE(E274) * 60 + SECOND(E274)</f>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="G274" s="22">
-        <f>HOUR(C274) *3600 + MINUTE(C274) * 60 + SECOND(C274)</f>
+        <f t="shared" si="18"/>
         <v>2026</v>
       </c>
       <c r="H274" s="22">
-        <f>HOUR(D274) *3600 + MINUTE(D274) * 60 + SECOND(D274)</f>
+        <f t="shared" si="19"/>
         <v>2056</v>
       </c>
       <c r="I274" s="27" t="str">
@@ -47093,19 +47093,19 @@
         <v>608</v>
       </c>
       <c r="E275" s="19">
-        <f>D275-C275</f>
+        <f t="shared" si="16"/>
         <v>2.777777777777761E-4</v>
       </c>
       <c r="F275" s="6">
-        <f>HOUR(E275) *3600 + MINUTE(E275) * 60 + SECOND(E275)</f>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="G275" s="22">
-        <f>HOUR(C275) *3600 + MINUTE(C275) * 60 + SECOND(C275)</f>
+        <f t="shared" si="18"/>
         <v>2062</v>
       </c>
       <c r="H275" s="22">
-        <f>HOUR(D275) *3600 + MINUTE(D275) * 60 + SECOND(D275)</f>
+        <f t="shared" si="19"/>
         <v>2086</v>
       </c>
       <c r="I275" s="27" t="str">
@@ -47138,19 +47138,19 @@
         <v>636</v>
       </c>
       <c r="E276" s="19">
-        <f>D276-C276</f>
+        <f t="shared" si="16"/>
         <v>3.703703703703716E-4</v>
       </c>
       <c r="F276" s="6">
-        <f>HOUR(E276) *3600 + MINUTE(E276) * 60 + SECOND(E276)</f>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="G276" s="22">
-        <f>HOUR(C276) *3600 + MINUTE(C276) * 60 + SECOND(C276)</f>
+        <f t="shared" si="18"/>
         <v>2140</v>
       </c>
       <c r="H276" s="22">
-        <f>HOUR(D276) *3600 + MINUTE(D276) * 60 + SECOND(D276)</f>
+        <f t="shared" si="19"/>
         <v>2172</v>
       </c>
       <c r="I276" s="27" t="str">
@@ -47183,19 +47183,19 @@
         <v>642</v>
       </c>
       <c r="E277" s="19">
-        <f>D277-C277</f>
+        <f t="shared" si="16"/>
         <v>7.1759259259259259E-4</v>
       </c>
       <c r="F277" s="6">
-        <f>HOUR(E277) *3600 + MINUTE(E277) * 60 + SECOND(E277)</f>
+        <f t="shared" si="17"/>
         <v>62</v>
       </c>
       <c r="G277" s="22">
-        <f>HOUR(C277) *3600 + MINUTE(C277) * 60 + SECOND(C277)</f>
+        <f t="shared" si="18"/>
         <v>2196</v>
       </c>
       <c r="H277" s="22">
-        <f>HOUR(D277) *3600 + MINUTE(D277) * 60 + SECOND(D277)</f>
+        <f t="shared" si="19"/>
         <v>2258</v>
       </c>
       <c r="I277" s="27" t="str">
@@ -47228,19 +47228,19 @@
         <v>651</v>
       </c>
       <c r="E278" s="19">
-        <f>D278-C278</f>
+        <f t="shared" si="16"/>
         <v>5.0925925925925791E-4</v>
       </c>
       <c r="F278" s="6">
-        <f>HOUR(E278) *3600 + MINUTE(E278) * 60 + SECOND(E278)</f>
+        <f t="shared" si="17"/>
         <v>44</v>
       </c>
       <c r="G278" s="22">
-        <f>HOUR(C278) *3600 + MINUTE(C278) * 60 + SECOND(C278)</f>
+        <f t="shared" si="18"/>
         <v>2268</v>
       </c>
       <c r="H278" s="22">
-        <f>HOUR(D278) *3600 + MINUTE(D278) * 60 + SECOND(D278)</f>
+        <f t="shared" si="19"/>
         <v>2312</v>
       </c>
       <c r="I278" s="27" t="str">
@@ -47273,19 +47273,19 @@
         <v>674</v>
       </c>
       <c r="E279" s="19">
-        <f>D279-C279</f>
+        <f t="shared" si="16"/>
         <v>1.2037037037037034E-3</v>
       </c>
       <c r="F279" s="6">
-        <f>HOUR(E279) *3600 + MINUTE(E279) * 60 + SECOND(E279)</f>
+        <f t="shared" si="17"/>
         <v>104</v>
       </c>
       <c r="G279" s="22">
-        <f>HOUR(C279) *3600 + MINUTE(C279) * 60 + SECOND(C279)</f>
+        <f t="shared" si="18"/>
         <v>2350</v>
       </c>
       <c r="H279" s="22">
-        <f>HOUR(D279) *3600 + MINUTE(D279) * 60 + SECOND(D279)</f>
+        <f t="shared" si="19"/>
         <v>2454</v>
       </c>
       <c r="I279" s="27" t="str">
@@ -47318,19 +47318,19 @@
         <v>689</v>
       </c>
       <c r="E280" s="19">
-        <f>D280-C280</f>
+        <f t="shared" si="16"/>
         <v>1.851851851851806E-4</v>
       </c>
       <c r="F280" s="6">
-        <f>HOUR(E280) *3600 + MINUTE(E280) * 60 + SECOND(E280)</f>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="G280" s="22">
-        <f>HOUR(C280) *3600 + MINUTE(C280) * 60 + SECOND(C280)</f>
+        <f t="shared" si="18"/>
         <v>2474</v>
       </c>
       <c r="H280" s="22">
-        <f>HOUR(D280) *3600 + MINUTE(D280) * 60 + SECOND(D280)</f>
+        <f t="shared" si="19"/>
         <v>2490</v>
       </c>
       <c r="I280" s="27" t="str">
@@ -47363,19 +47363,19 @@
         <v>695</v>
       </c>
       <c r="E281" s="19">
-        <f>D281-C281</f>
+        <f t="shared" si="16"/>
         <v>5.3240740740740852E-4</v>
       </c>
       <c r="F281" s="6">
-        <f>HOUR(E281) *3600 + MINUTE(E281) * 60 + SECOND(E281)</f>
+        <f t="shared" si="17"/>
         <v>46</v>
       </c>
       <c r="G281" s="22">
-        <f>HOUR(C281) *3600 + MINUTE(C281) * 60 + SECOND(C281)</f>
+        <f t="shared" si="18"/>
         <v>2536</v>
       </c>
       <c r="H281" s="22">
-        <f>HOUR(D281) *3600 + MINUTE(D281) * 60 + SECOND(D281)</f>
+        <f t="shared" si="19"/>
         <v>2582</v>
       </c>
       <c r="I281" s="27" t="str">
@@ -47408,19 +47408,19 @@
         <v>801</v>
       </c>
       <c r="E282" s="19">
-        <f>D282-C282</f>
+        <f t="shared" si="16"/>
         <v>1.2037037037037068E-3</v>
       </c>
       <c r="F282" s="6">
-        <f>HOUR(E282) *3600 + MINUTE(E282) * 60 + SECOND(E282)</f>
+        <f t="shared" si="17"/>
         <v>104</v>
       </c>
       <c r="G282" s="22">
-        <f>HOUR(C282) *3600 + MINUTE(C282) * 60 + SECOND(C282)</f>
+        <f t="shared" si="18"/>
         <v>2878</v>
       </c>
       <c r="H282" s="22">
-        <f>HOUR(D282) *3600 + MINUTE(D282) * 60 + SECOND(D282)</f>
+        <f t="shared" si="19"/>
         <v>2982</v>
       </c>
       <c r="I282" s="27" t="str">
@@ -47453,19 +47453,19 @@
         <v>814</v>
       </c>
       <c r="E283" s="19">
-        <f>D283-C283</f>
+        <f t="shared" si="16"/>
         <v>2.7777777777777957E-4</v>
       </c>
       <c r="F283" s="6">
-        <f>HOUR(E283) *3600 + MINUTE(E283) * 60 + SECOND(E283)</f>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="G283" s="22">
-        <f>HOUR(C283) *3600 + MINUTE(C283) * 60 + SECOND(C283)</f>
+        <f t="shared" si="18"/>
         <v>2992</v>
       </c>
       <c r="H283" s="22">
-        <f>HOUR(D283) *3600 + MINUTE(D283) * 60 + SECOND(D283)</f>
+        <f t="shared" si="19"/>
         <v>3016</v>
       </c>
       <c r="I283" s="27" t="str">
@@ -47498,19 +47498,19 @@
         <v>841</v>
       </c>
       <c r="E284" s="19">
-        <f>D284-C284</f>
+        <f t="shared" si="16"/>
         <v>6.9444444444441422E-5</v>
       </c>
       <c r="F284" s="6">
-        <f>HOUR(E284) *3600 + MINUTE(E284) * 60 + SECOND(E284)</f>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="G284" s="22">
-        <f>HOUR(C284) *3600 + MINUTE(C284) * 60 + SECOND(C284)</f>
+        <f t="shared" si="18"/>
         <v>3050</v>
       </c>
       <c r="H284" s="22">
-        <f>HOUR(D284) *3600 + MINUTE(D284) * 60 + SECOND(D284)</f>
+        <f t="shared" si="19"/>
         <v>3056</v>
       </c>
       <c r="I284" s="27" t="str">
@@ -47543,19 +47543,19 @@
         <v>866</v>
       </c>
       <c r="E285" s="19">
-        <f>D285-C285</f>
+        <f t="shared" si="16"/>
         <v>9.2592592592595502E-5</v>
       </c>
       <c r="F285" s="6">
-        <f>HOUR(E285) *3600 + MINUTE(E285) * 60 + SECOND(E285)</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="G285" s="22">
-        <f>HOUR(C285) *3600 + MINUTE(C285) * 60 + SECOND(C285)</f>
+        <f t="shared" si="18"/>
         <v>3116</v>
       </c>
       <c r="H285" s="22">
-        <f>HOUR(D285) *3600 + MINUTE(D285) * 60 + SECOND(D285)</f>
+        <f t="shared" si="19"/>
         <v>3124</v>
       </c>
       <c r="I285" s="27" t="str">
@@ -47591,19 +47591,19 @@
         <v>683</v>
       </c>
       <c r="E286" s="19">
-        <f>D286-C286</f>
+        <f t="shared" si="16"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F286" s="6">
-        <f>HOUR(E286) *3600 + MINUTE(E286) * 60 + SECOND(E286)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="G286" s="22">
-        <f>HOUR(C286) *3600 + MINUTE(C286) * 60 + SECOND(C286)</f>
+        <f t="shared" si="18"/>
         <v>2466</v>
       </c>
       <c r="H286" s="22">
-        <f>HOUR(D286) *3600 + MINUTE(D286) * 60 + SECOND(D286)</f>
+        <f t="shared" si="19"/>
         <v>2470</v>
       </c>
       <c r="I286" s="27" t="str">
@@ -47636,19 +47636,19 @@
         <v>711</v>
       </c>
       <c r="E287" s="19">
-        <f>D287-C287</f>
+        <f t="shared" si="16"/>
         <v>2.314814814815061E-5</v>
       </c>
       <c r="F287" s="6">
-        <f>HOUR(E287) *3600 + MINUTE(E287) * 60 + SECOND(E287)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="G287" s="22">
-        <f>HOUR(C287) *3600 + MINUTE(C287) * 60 + SECOND(C287)</f>
+        <f t="shared" si="18"/>
         <v>2590</v>
       </c>
       <c r="H287" s="22">
-        <f>HOUR(D287) *3600 + MINUTE(D287) * 60 + SECOND(D287)</f>
+        <f t="shared" si="19"/>
         <v>2592</v>
       </c>
       <c r="I287" s="27" t="str">
@@ -47681,19 +47681,19 @@
         <v>717</v>
       </c>
       <c r="E288" s="19">
-        <f>D288-C288</f>
+        <f t="shared" si="16"/>
         <v>6.7129629629629484E-4</v>
       </c>
       <c r="F288" s="6">
-        <f>HOUR(E288) *3600 + MINUTE(E288) * 60 + SECOND(E288)</f>
+        <f t="shared" si="17"/>
         <v>58</v>
       </c>
       <c r="G288" s="22">
-        <f>HOUR(C288) *3600 + MINUTE(C288) * 60 + SECOND(C288)</f>
+        <f t="shared" si="18"/>
         <v>2596</v>
       </c>
       <c r="H288" s="22">
-        <f>HOUR(D288) *3600 + MINUTE(D288) * 60 + SECOND(D288)</f>
+        <f t="shared" si="19"/>
         <v>2654</v>
       </c>
       <c r="I288" s="27" t="str">
@@ -47726,19 +47726,19 @@
         <v>729</v>
       </c>
       <c r="E289" s="19">
-        <f>D289-C289</f>
+        <f t="shared" si="16"/>
         <v>3.2407407407407385E-4</v>
       </c>
       <c r="F289" s="6">
-        <f>HOUR(E289) *3600 + MINUTE(E289) * 60 + SECOND(E289)</f>
+        <f t="shared" si="17"/>
         <v>28</v>
       </c>
       <c r="G289" s="22">
-        <f>HOUR(C289) *3600 + MINUTE(C289) * 60 + SECOND(C289)</f>
+        <f t="shared" si="18"/>
         <v>2670</v>
       </c>
       <c r="H289" s="22">
-        <f>HOUR(D289) *3600 + MINUTE(D289) * 60 + SECOND(D289)</f>
+        <f t="shared" si="19"/>
         <v>2698</v>
       </c>
       <c r="I289" s="27" t="str">
@@ -47771,19 +47771,19 @@
         <v>746</v>
       </c>
       <c r="E290" s="19">
-        <f>D290-C290</f>
+        <f t="shared" si="16"/>
         <v>2.0833333333332427E-4</v>
       </c>
       <c r="F290" s="6">
-        <f>HOUR(E290) *3600 + MINUTE(E290) * 60 + SECOND(E290)</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="G290" s="22">
-        <f>HOUR(C290) *3600 + MINUTE(C290) * 60 + SECOND(C290)</f>
+        <f t="shared" si="18"/>
         <v>2706</v>
       </c>
       <c r="H290" s="22">
-        <f>HOUR(D290) *3600 + MINUTE(D290) * 60 + SECOND(D290)</f>
+        <f t="shared" si="19"/>
         <v>2724</v>
       </c>
       <c r="I290" s="27" t="str">
@@ -47816,19 +47816,19 @@
         <v>754</v>
       </c>
       <c r="E291" s="19">
-        <f>D291-C291</f>
+        <f t="shared" si="16"/>
         <v>3.4722222222222793E-4</v>
       </c>
       <c r="F291" s="6">
-        <f>HOUR(E291) *3600 + MINUTE(E291) * 60 + SECOND(E291)</f>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="G291" s="22">
-        <f>HOUR(C291) *3600 + MINUTE(C291) * 60 + SECOND(C291)</f>
+        <f t="shared" si="18"/>
         <v>2730</v>
       </c>
       <c r="H291" s="22">
-        <f>HOUR(D291) *3600 + MINUTE(D291) * 60 + SECOND(D291)</f>
+        <f t="shared" si="19"/>
         <v>2760</v>
       </c>
       <c r="I291" s="27" t="str">
@@ -47861,19 +47861,19 @@
         <v>765</v>
       </c>
       <c r="E292" s="19">
-        <f>D292-C292</f>
+        <f t="shared" si="16"/>
         <v>2.3148148148148529E-4</v>
       </c>
       <c r="F292" s="6">
-        <f>HOUR(E292) *3600 + MINUTE(E292) * 60 + SECOND(E292)</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G292" s="22">
-        <f>HOUR(C292) *3600 + MINUTE(C292) * 60 + SECOND(C292)</f>
+        <f t="shared" si="18"/>
         <v>2768</v>
       </c>
       <c r="H292" s="22">
-        <f>HOUR(D292) *3600 + MINUTE(D292) * 60 + SECOND(D292)</f>
+        <f t="shared" si="19"/>
         <v>2788</v>
       </c>
       <c r="I292" s="27" t="str">
@@ -47906,19 +47906,19 @@
         <v>777</v>
       </c>
       <c r="E293" s="19">
-        <f>D293-C293</f>
+        <f t="shared" si="16"/>
         <v>1.3888888888888284E-4</v>
       </c>
       <c r="F293" s="6">
-        <f>HOUR(E293) *3600 + MINUTE(E293) * 60 + SECOND(E293)</f>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="G293" s="22">
-        <f>HOUR(C293) *3600 + MINUTE(C293) * 60 + SECOND(C293)</f>
+        <f t="shared" si="18"/>
         <v>2792</v>
       </c>
       <c r="H293" s="22">
-        <f>HOUR(D293) *3600 + MINUTE(D293) * 60 + SECOND(D293)</f>
+        <f t="shared" si="19"/>
         <v>2804</v>
       </c>
       <c r="I293" s="27" t="str">
@@ -47951,19 +47951,19 @@
         <v>788</v>
       </c>
       <c r="E294" s="19">
-        <f>D294-C294</f>
+        <f t="shared" si="16"/>
         <v>2.0833333333333814E-4</v>
       </c>
       <c r="F294" s="6">
-        <f>HOUR(E294) *3600 + MINUTE(E294) * 60 + SECOND(E294)</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="G294" s="22">
-        <f>HOUR(C294) *3600 + MINUTE(C294) * 60 + SECOND(C294)</f>
+        <f t="shared" si="18"/>
         <v>2854</v>
       </c>
       <c r="H294" s="22">
-        <f>HOUR(D294) *3600 + MINUTE(D294) * 60 + SECOND(D294)</f>
+        <f t="shared" si="19"/>
         <v>2872</v>
       </c>
       <c r="I294" s="27" t="str">
@@ -47996,19 +47996,19 @@
         <v>588</v>
       </c>
       <c r="E295" s="19">
-        <f>D295-C295</f>
+        <f t="shared" si="16"/>
         <v>3.2407407407408079E-4</v>
       </c>
       <c r="F295" s="6">
-        <f>HOUR(E295) *3600 + MINUTE(E295) * 60 + SECOND(E295)</f>
+        <f t="shared" si="17"/>
         <v>28</v>
       </c>
       <c r="G295" s="22">
-        <f>HOUR(C295) *3600 + MINUTE(C295) * 60 + SECOND(C295)</f>
+        <f t="shared" si="18"/>
         <v>1994</v>
       </c>
       <c r="H295" s="22">
-        <f>HOUR(D295) *3600 + MINUTE(D295) * 60 + SECOND(D295)</f>
+        <f t="shared" si="19"/>
         <v>2022</v>
       </c>
       <c r="I295" s="27" t="str">
@@ -48044,19 +48044,19 @@
         <v>913</v>
       </c>
       <c r="E296" s="19">
-        <f>D296-C296</f>
+        <f t="shared" si="16"/>
         <v>9.2592592592588563E-5</v>
       </c>
       <c r="F296" s="6">
-        <f>HOUR(E296) *3600 + MINUTE(E296) * 60 + SECOND(E296)</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="G296" s="22">
-        <f>HOUR(C296) *3600 + MINUTE(C296) * 60 + SECOND(C296)</f>
+        <f t="shared" si="18"/>
         <v>3672</v>
       </c>
       <c r="H296" s="22">
-        <f>HOUR(D296) *3600 + MINUTE(D296) * 60 + SECOND(D296)</f>
+        <f t="shared" si="19"/>
         <v>3680</v>
       </c>
       <c r="I296" s="27" t="str">
@@ -48089,19 +48089,19 @@
         <v>913</v>
       </c>
       <c r="E297" s="19">
-        <f>D297-C297</f>
+        <f t="shared" si="16"/>
         <v>1.1574074074074264E-4</v>
       </c>
       <c r="F297" s="6">
-        <f>HOUR(E297) *3600 + MINUTE(E297) * 60 + SECOND(E297)</f>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="G297" s="22">
-        <f>HOUR(C297) *3600 + MINUTE(C297) * 60 + SECOND(C297)</f>
+        <f t="shared" si="18"/>
         <v>3670</v>
       </c>
       <c r="H297" s="22">
-        <f>HOUR(D297) *3600 + MINUTE(D297) * 60 + SECOND(D297)</f>
+        <f t="shared" si="19"/>
         <v>3680</v>
       </c>
       <c r="I297" s="27" t="str">
@@ -48134,19 +48134,19 @@
         <v>902</v>
       </c>
       <c r="E298" s="19">
-        <f>D298-C298</f>
+        <f t="shared" si="16"/>
         <v>1.8518518518517713E-4</v>
       </c>
       <c r="F298" s="6">
-        <f>HOUR(E298) *3600 + MINUTE(E298) * 60 + SECOND(E298)</f>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="G298" s="22">
-        <f>HOUR(C298) *3600 + MINUTE(C298) * 60 + SECOND(C298)</f>
+        <f t="shared" si="18"/>
         <v>3648</v>
       </c>
       <c r="H298" s="22">
-        <f>HOUR(D298) *3600 + MINUTE(D298) * 60 + SECOND(D298)</f>
+        <f t="shared" si="19"/>
         <v>3664</v>
       </c>
       <c r="I298" s="27" t="str">
@@ -48179,19 +48179,19 @@
         <v>491</v>
       </c>
       <c r="E299" s="19">
-        <f>D299-C299</f>
+        <f t="shared" si="16"/>
         <v>4.3981481481481649E-4</v>
       </c>
       <c r="F299" s="6">
-        <f>HOUR(E299) *3600 + MINUTE(E299) * 60 + SECOND(E299)</f>
+        <f t="shared" si="17"/>
         <v>38</v>
       </c>
       <c r="G299" s="22">
-        <f>HOUR(C299) *3600 + MINUTE(C299) * 60 + SECOND(C299)</f>
+        <f t="shared" si="18"/>
         <v>1594</v>
       </c>
       <c r="H299" s="22">
-        <f>HOUR(D299) *3600 + MINUTE(D299) * 60 + SECOND(D299)</f>
+        <f t="shared" si="19"/>
         <v>1632</v>
       </c>
       <c r="I299" s="27" t="str">
@@ -48224,19 +48224,19 @@
         <v>504</v>
       </c>
       <c r="E300" s="19">
-        <f>D300-C300</f>
+        <f t="shared" si="16"/>
         <v>1.8518518518518406E-4</v>
       </c>
       <c r="F300" s="6">
-        <f>HOUR(E300) *3600 + MINUTE(E300) * 60 + SECOND(E300)</f>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="G300" s="22">
-        <f>HOUR(C300) *3600 + MINUTE(C300) * 60 + SECOND(C300)</f>
+        <f t="shared" si="18"/>
         <v>1634</v>
       </c>
       <c r="H300" s="22">
-        <f>HOUR(D300) *3600 + MINUTE(D300) * 60 + SECOND(D300)</f>
+        <f t="shared" si="19"/>
         <v>1650</v>
       </c>
       <c r="I300" s="27" t="str">
@@ -48269,19 +48269,19 @@
         <v>50</v>
       </c>
       <c r="E301" s="19">
-        <f>D301-C301</f>
+        <f t="shared" si="16"/>
         <v>4.6296296296296233E-5</v>
       </c>
       <c r="F301" s="6">
-        <f>HOUR(E301) *3600 + MINUTE(E301) * 60 + SECOND(E301)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="G301" s="22">
-        <f>HOUR(C301) *3600 + MINUTE(C301) * 60 + SECOND(C301)</f>
+        <f t="shared" si="18"/>
         <v>136</v>
       </c>
       <c r="H301" s="22">
-        <f>HOUR(D301) *3600 + MINUTE(D301) * 60 + SECOND(D301)</f>
+        <f t="shared" si="19"/>
         <v>140</v>
       </c>
       <c r="I301" s="27" t="str">
@@ -48314,19 +48314,19 @@
         <v>204</v>
       </c>
       <c r="E302" s="19">
-        <f>D302-C302</f>
+        <f t="shared" si="16"/>
         <v>3.2407407407407385E-4</v>
       </c>
       <c r="F302" s="6">
-        <f>HOUR(E302) *3600 + MINUTE(E302) * 60 + SECOND(E302)</f>
+        <f t="shared" si="17"/>
         <v>28</v>
       </c>
       <c r="G302" s="22">
-        <f>HOUR(C302) *3600 + MINUTE(C302) * 60 + SECOND(C302)</f>
+        <f t="shared" si="18"/>
         <v>684</v>
       </c>
       <c r="H302" s="22">
-        <f>HOUR(D302) *3600 + MINUTE(D302) * 60 + SECOND(D302)</f>
+        <f t="shared" si="19"/>
         <v>712</v>
       </c>
       <c r="I302" s="27" t="str">
@@ -48359,19 +48359,19 @@
         <v>711</v>
       </c>
       <c r="E303" s="19">
-        <f>D303-C303</f>
+        <f t="shared" si="16"/>
         <v>2.314814814815061E-5</v>
       </c>
       <c r="F303" s="6">
-        <f>HOUR(E303) *3600 + MINUTE(E303) * 60 + SECOND(E303)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="G303" s="22">
-        <f>HOUR(C303) *3600 + MINUTE(C303) * 60 + SECOND(C303)</f>
+        <f t="shared" si="18"/>
         <v>2590</v>
       </c>
       <c r="H303" s="22">
-        <f>HOUR(D303) *3600 + MINUTE(D303) * 60 + SECOND(D303)</f>
+        <f t="shared" si="19"/>
         <v>2592</v>
       </c>
       <c r="I303" s="27" t="str">
@@ -48404,19 +48404,19 @@
         <v>717</v>
       </c>
       <c r="E304" s="19">
-        <f>D304-C304</f>
+        <f t="shared" si="16"/>
         <v>6.7129629629629484E-4</v>
       </c>
       <c r="F304" s="6">
-        <f>HOUR(E304) *3600 + MINUTE(E304) * 60 + SECOND(E304)</f>
+        <f t="shared" si="17"/>
         <v>58</v>
       </c>
       <c r="G304" s="22">
-        <f>HOUR(C304) *3600 + MINUTE(C304) * 60 + SECOND(C304)</f>
+        <f t="shared" si="18"/>
         <v>2596</v>
       </c>
       <c r="H304" s="22">
-        <f>HOUR(D304) *3600 + MINUTE(D304) * 60 + SECOND(D304)</f>
+        <f t="shared" si="19"/>
         <v>2654</v>
       </c>
       <c r="I304" s="27" t="str">
@@ -48449,19 +48449,19 @@
         <v>729</v>
       </c>
       <c r="E305" s="19">
-        <f>D305-C305</f>
+        <f t="shared" si="16"/>
         <v>3.2407407407407385E-4</v>
       </c>
       <c r="F305" s="6">
-        <f>HOUR(E305) *3600 + MINUTE(E305) * 60 + SECOND(E305)</f>
+        <f t="shared" si="17"/>
         <v>28</v>
       </c>
       <c r="G305" s="22">
-        <f>HOUR(C305) *3600 + MINUTE(C305) * 60 + SECOND(C305)</f>
+        <f t="shared" si="18"/>
         <v>2670</v>
       </c>
       <c r="H305" s="22">
-        <f>HOUR(D305) *3600 + MINUTE(D305) * 60 + SECOND(D305)</f>
+        <f t="shared" si="19"/>
         <v>2698</v>
       </c>
       <c r="I305" s="27" t="str">
@@ -48494,19 +48494,19 @@
         <v>746</v>
       </c>
       <c r="E306" s="19">
-        <f>D306-C306</f>
+        <f t="shared" si="16"/>
         <v>2.0833333333332427E-4</v>
       </c>
       <c r="F306" s="6">
-        <f>HOUR(E306) *3600 + MINUTE(E306) * 60 + SECOND(E306)</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="G306" s="22">
-        <f>HOUR(C306) *3600 + MINUTE(C306) * 60 + SECOND(C306)</f>
+        <f t="shared" si="18"/>
         <v>2706</v>
       </c>
       <c r="H306" s="22">
-        <f>HOUR(D306) *3600 + MINUTE(D306) * 60 + SECOND(D306)</f>
+        <f t="shared" si="19"/>
         <v>2724</v>
       </c>
       <c r="I306" s="27" t="str">
@@ -48539,19 +48539,19 @@
         <v>754</v>
       </c>
       <c r="E307" s="19">
-        <f>D307-C307</f>
+        <f t="shared" si="16"/>
         <v>3.4722222222222793E-4</v>
       </c>
       <c r="F307" s="6">
-        <f>HOUR(E307) *3600 + MINUTE(E307) * 60 + SECOND(E307)</f>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="G307" s="22">
-        <f>HOUR(C307) *3600 + MINUTE(C307) * 60 + SECOND(C307)</f>
+        <f t="shared" si="18"/>
         <v>2730</v>
       </c>
       <c r="H307" s="22">
-        <f>HOUR(D307) *3600 + MINUTE(D307) * 60 + SECOND(D307)</f>
+        <f t="shared" si="19"/>
         <v>2760</v>
       </c>
       <c r="I307" s="27" t="str">
@@ -48584,19 +48584,19 @@
         <v>765</v>
       </c>
       <c r="E308" s="19">
-        <f>D308-C308</f>
+        <f t="shared" si="16"/>
         <v>2.3148148148148529E-4</v>
       </c>
       <c r="F308" s="6">
-        <f>HOUR(E308) *3600 + MINUTE(E308) * 60 + SECOND(E308)</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="G308" s="22">
-        <f>HOUR(C308) *3600 + MINUTE(C308) * 60 + SECOND(C308)</f>
+        <f t="shared" si="18"/>
         <v>2768</v>
       </c>
       <c r="H308" s="22">
-        <f>HOUR(D308) *3600 + MINUTE(D308) * 60 + SECOND(D308)</f>
+        <f t="shared" si="19"/>
         <v>2788</v>
       </c>
       <c r="I308" s="27" t="str">
@@ -48629,19 +48629,19 @@
         <v>78</v>
       </c>
       <c r="E309" s="19">
-        <f>D309-C309</f>
+        <f t="shared" si="16"/>
         <v>6.9444444444444892E-5</v>
       </c>
       <c r="F309" s="6">
-        <f>HOUR(E309) *3600 + MINUTE(E309) * 60 + SECOND(E309)</f>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="G309" s="22">
-        <f>HOUR(C309) *3600 + MINUTE(C309) * 60 + SECOND(C309)</f>
+        <f t="shared" si="18"/>
         <v>274</v>
       </c>
       <c r="H309" s="22">
-        <f>HOUR(D309) *3600 + MINUTE(D309) * 60 + SECOND(D309)</f>
+        <f t="shared" si="19"/>
         <v>280</v>
       </c>
       <c r="I309" s="27" t="str">
@@ -48674,19 +48674,19 @@
         <v>630</v>
       </c>
       <c r="E310" s="19">
-        <f>D310-C310</f>
+        <f t="shared" si="16"/>
         <v>3.2407407407408079E-4</v>
       </c>
       <c r="F310" s="6">
-        <f>HOUR(E310) *3600 + MINUTE(E310) * 60 + SECOND(E310)</f>
+        <f t="shared" si="17"/>
         <v>28</v>
       </c>
       <c r="G310" s="22">
-        <f>HOUR(C310) *3600 + MINUTE(C310) * 60 + SECOND(C310)</f>
+        <f t="shared" si="18"/>
         <v>2108</v>
       </c>
       <c r="H310" s="22">
-        <f>HOUR(D310) *3600 + MINUTE(D310) * 60 + SECOND(D310)</f>
+        <f t="shared" si="19"/>
         <v>2136</v>
       </c>
       <c r="I310" s="27" t="str">
@@ -48722,19 +48722,19 @@
         <v>630</v>
       </c>
       <c r="E311" s="19">
-        <f>D311-C311</f>
+        <f t="shared" si="16"/>
         <v>3.0092592592593365E-4</v>
       </c>
       <c r="F311" s="6">
-        <f>HOUR(E311) *3600 + MINUTE(E311) * 60 + SECOND(E311)</f>
+        <f t="shared" si="17"/>
         <v>26</v>
       </c>
       <c r="G311" s="22">
-        <f>HOUR(C311) *3600 + MINUTE(C311) * 60 + SECOND(C311)</f>
+        <f t="shared" si="18"/>
         <v>2110</v>
       </c>
       <c r="H311" s="22">
-        <f>HOUR(D311) *3600 + MINUTE(D311) * 60 + SECOND(D311)</f>
+        <f t="shared" si="19"/>
         <v>2136</v>
       </c>
       <c r="I311" s="27" t="str">
@@ -48767,19 +48767,19 @@
         <v>695</v>
       </c>
       <c r="E312" s="19">
-        <f>D312-C312</f>
+        <f t="shared" si="16"/>
         <v>9.9537037037036868E-4</v>
       </c>
       <c r="F312" s="6">
-        <f>HOUR(E312) *3600 + MINUTE(E312) * 60 + SECOND(E312)</f>
+        <f t="shared" si="17"/>
         <v>86</v>
       </c>
       <c r="G312" s="22">
-        <f>HOUR(C312) *3600 + MINUTE(C312) * 60 + SECOND(C312)</f>
+        <f t="shared" si="18"/>
         <v>2496</v>
       </c>
       <c r="H312" s="22">
-        <f>HOUR(D312) *3600 + MINUTE(D312) * 60 + SECOND(D312)</f>
+        <f t="shared" si="19"/>
         <v>2582</v>
       </c>
       <c r="I312" s="27" t="str">
@@ -48812,19 +48812,19 @@
         <v>819</v>
       </c>
       <c r="E313" s="19">
-        <f>D313-C313</f>
+        <f t="shared" si="16"/>
         <v>1.6203703703704386E-4</v>
       </c>
       <c r="F313" s="6">
-        <f>HOUR(E313) *3600 + MINUTE(E313) * 60 + SECOND(E313)</f>
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="G313" s="22">
-        <f>HOUR(C313) *3600 + MINUTE(C313) * 60 + SECOND(C313)</f>
+        <f t="shared" si="18"/>
         <v>3022</v>
       </c>
       <c r="H313" s="22">
-        <f>HOUR(D313) *3600 + MINUTE(D313) * 60 + SECOND(D313)</f>
+        <f t="shared" si="19"/>
         <v>3036</v>
       </c>
       <c r="I313" s="27" t="str">
@@ -48860,19 +48860,19 @@
         <v>78</v>
       </c>
       <c r="E314" s="19">
-        <f>D314-C314</f>
+        <f t="shared" si="16"/>
         <v>6.9444444444444892E-5</v>
       </c>
       <c r="F314" s="6">
-        <f>HOUR(E314) *3600 + MINUTE(E314) * 60 + SECOND(E314)</f>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="G314" s="22">
-        <f>HOUR(C314) *3600 + MINUTE(C314) * 60 + SECOND(C314)</f>
+        <f t="shared" si="18"/>
         <v>274</v>
       </c>
       <c r="H314" s="22">
-        <f>HOUR(D314) *3600 + MINUTE(D314) * 60 + SECOND(D314)</f>
+        <f t="shared" si="19"/>
         <v>280</v>
       </c>
       <c r="I314" s="27" t="str">
@@ -48905,19 +48905,19 @@
         <v>707</v>
       </c>
       <c r="E315" s="19">
-        <f>D315-C315</f>
+        <f t="shared" si="16"/>
         <v>1.3888888888888631E-4</v>
       </c>
       <c r="F315" s="6">
-        <f>HOUR(E315) *3600 + MINUTE(E315) * 60 + SECOND(E315)</f>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="G315" s="22">
-        <f>HOUR(C315) *3600 + MINUTE(C315) * 60 + SECOND(C315)</f>
+        <f t="shared" si="18"/>
         <v>2584</v>
       </c>
       <c r="H315" s="22">
-        <f>HOUR(D315) *3600 + MINUTE(D315) * 60 + SECOND(D315)</f>
+        <f t="shared" si="19"/>
         <v>2596</v>
       </c>
       <c r="I315" s="27" t="str">
@@ -48950,19 +48950,19 @@
         <v>9</v>
       </c>
       <c r="E316" s="19">
-        <f>D316-C316</f>
+        <f t="shared" si="16"/>
         <v>1.1574074074074073E-4</v>
       </c>
       <c r="F316" s="6">
-        <f>HOUR(E316) *3600 + MINUTE(E316) * 60 + SECOND(E316)</f>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="G316" s="22">
-        <f>HOUR(C316) *3600 + MINUTE(C316) * 60 + SECOND(C316)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H316" s="22">
-        <f>HOUR(D316) *3600 + MINUTE(D316) * 60 + SECOND(D316)</f>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="I316" s="27" t="str">
@@ -48998,19 +48998,19 @@
         <v>19</v>
       </c>
       <c r="E317" s="19">
-        <f>D317-C317</f>
+        <f t="shared" si="16"/>
         <v>3.0092592592592584E-4</v>
       </c>
       <c r="F317" s="6">
-        <f>HOUR(E317) *3600 + MINUTE(E317) * 60 + SECOND(E317)</f>
+        <f t="shared" si="17"/>
         <v>26</v>
       </c>
       <c r="G317" s="22">
-        <f>HOUR(C317) *3600 + MINUTE(C317) * 60 + SECOND(C317)</f>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="H317" s="22">
-        <f>HOUR(D317) *3600 + MINUTE(D317) * 60 + SECOND(D317)</f>
+        <f t="shared" si="19"/>
         <v>42</v>
       </c>
       <c r="I317" s="27" t="str">
@@ -49043,19 +49043,19 @@
         <v>28</v>
       </c>
       <c r="E318" s="19">
-        <f>D318-C318</f>
+        <f t="shared" si="16"/>
         <v>2.4537037037037036E-3</v>
       </c>
       <c r="F318" s="6">
-        <f>HOUR(E318) *3600 + MINUTE(E318) * 60 + SECOND(E318)</f>
+        <f t="shared" si="17"/>
         <v>212</v>
       </c>
       <c r="G318" s="22">
-        <f>HOUR(C318) *3600 + MINUTE(C318) * 60 + SECOND(C318)</f>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="H318" s="22">
-        <f>HOUR(D318) *3600 + MINUTE(D318) * 60 + SECOND(D318)</f>
+        <f t="shared" si="19"/>
         <v>262</v>
       </c>
       <c r="I318" s="27" t="str">
@@ -49088,19 +49088,19 @@
         <v>81</v>
       </c>
       <c r="E319" s="19">
-        <f>D319-C319</f>
+        <f t="shared" si="16"/>
         <v>2.3148148148148442E-5</v>
       </c>
       <c r="F319" s="6">
-        <f>HOUR(E319) *3600 + MINUTE(E319) * 60 + SECOND(E319)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="G319" s="22">
-        <f>HOUR(C319) *3600 + MINUTE(C319) * 60 + SECOND(C319)</f>
+        <f t="shared" si="18"/>
         <v>280</v>
       </c>
       <c r="H319" s="22">
-        <f>HOUR(D319) *3600 + MINUTE(D319) * 60 + SECOND(D319)</f>
+        <f t="shared" si="19"/>
         <v>282</v>
       </c>
       <c r="I319" s="27" t="str">
@@ -49133,19 +49133,19 @@
         <v>86</v>
       </c>
       <c r="E320" s="19">
-        <f>D320-C320</f>
+        <f t="shared" si="16"/>
         <v>2.3148148148148442E-5</v>
       </c>
       <c r="F320" s="6">
-        <f>HOUR(E320) *3600 + MINUTE(E320) * 60 + SECOND(E320)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="G320" s="22">
-        <f>HOUR(C320) *3600 + MINUTE(C320) * 60 + SECOND(C320)</f>
+        <f t="shared" si="18"/>
         <v>286</v>
       </c>
       <c r="H320" s="22">
-        <f>HOUR(D320) *3600 + MINUTE(D320) * 60 + SECOND(D320)</f>
+        <f t="shared" si="19"/>
         <v>288</v>
       </c>
       <c r="I320" s="27" t="str">
@@ -49178,19 +49178,19 @@
         <v>162</v>
       </c>
       <c r="E321" s="19">
-        <f>D321-C321</f>
+        <f t="shared" si="16"/>
         <v>1.3888888888888718E-4</v>
       </c>
       <c r="F321" s="6">
-        <f>HOUR(E321) *3600 + MINUTE(E321) * 60 + SECOND(E321)</f>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="G321" s="22">
-        <f>HOUR(C321) *3600 + MINUTE(C321) * 60 + SECOND(C321)</f>
+        <f t="shared" si="18"/>
         <v>536</v>
       </c>
       <c r="H321" s="22">
-        <f>HOUR(D321) *3600 + MINUTE(D321) * 60 + SECOND(D321)</f>
+        <f t="shared" si="19"/>
         <v>548</v>
       </c>
       <c r="I321" s="27" t="str">
@@ -49223,19 +49223,19 @@
         <v>172</v>
       </c>
       <c r="E322" s="19">
-        <f>D322-C322</f>
+        <f t="shared" ref="E322:E385" si="20">D322-C322</f>
         <v>1.1574074074074091E-4</v>
       </c>
       <c r="F322" s="6">
-        <f>HOUR(E322) *3600 + MINUTE(E322) * 60 + SECOND(E322)</f>
+        <f t="shared" ref="F322:F385" si="21">HOUR(E322) *3600 + MINUTE(E322) * 60 + SECOND(E322)</f>
         <v>10</v>
       </c>
       <c r="G322" s="22">
-        <f>HOUR(C322) *3600 + MINUTE(C322) * 60 + SECOND(C322)</f>
+        <f t="shared" ref="G322:G385" si="22">HOUR(C322) *3600 + MINUTE(C322) * 60 + SECOND(C322)</f>
         <v>560</v>
       </c>
       <c r="H322" s="22">
-        <f>HOUR(D322) *3600 + MINUTE(D322) * 60 + SECOND(D322)</f>
+        <f t="shared" ref="H322:H385" si="23">HOUR(D322) *3600 + MINUTE(D322) * 60 + SECOND(D322)</f>
         <v>570</v>
       </c>
       <c r="I322" s="27" t="str">
@@ -49268,19 +49268,19 @@
         <v>192</v>
       </c>
       <c r="E323" s="19">
-        <f>D323-C323</f>
+        <f t="shared" si="20"/>
         <v>1.6203703703703692E-4</v>
       </c>
       <c r="F323" s="6">
-        <f>HOUR(E323) *3600 + MINUTE(E323) * 60 + SECOND(E323)</f>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="G323" s="22">
-        <f>HOUR(C323) *3600 + MINUTE(C323) * 60 + SECOND(C323)</f>
+        <f t="shared" si="22"/>
         <v>660</v>
       </c>
       <c r="H323" s="22">
-        <f>HOUR(D323) *3600 + MINUTE(D323) * 60 + SECOND(D323)</f>
+        <f t="shared" si="23"/>
         <v>674</v>
       </c>
       <c r="I323" s="27" t="str">
@@ -49313,19 +49313,19 @@
         <v>218</v>
       </c>
       <c r="E324" s="19">
-        <f>D324-C324</f>
+        <f t="shared" si="20"/>
         <v>4.6296296296296016E-5</v>
       </c>
       <c r="F324" s="6">
-        <f>HOUR(E324) *3600 + MINUTE(E324) * 60 + SECOND(E324)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="G324" s="22">
-        <f>HOUR(C324) *3600 + MINUTE(C324) * 60 + SECOND(C324)</f>
+        <f t="shared" si="22"/>
         <v>730</v>
       </c>
       <c r="H324" s="22">
-        <f>HOUR(D324) *3600 + MINUTE(D324) * 60 + SECOND(D324)</f>
+        <f t="shared" si="23"/>
         <v>734</v>
       </c>
       <c r="I324" s="27" t="str">
@@ -49358,19 +49358,19 @@
         <v>249</v>
       </c>
       <c r="E325" s="19">
-        <f>D325-C325</f>
+        <f t="shared" si="20"/>
         <v>5.5555555555555393E-4</v>
       </c>
       <c r="F325" s="6">
-        <f>HOUR(E325) *3600 + MINUTE(E325) * 60 + SECOND(E325)</f>
+        <f t="shared" si="21"/>
         <v>48</v>
       </c>
       <c r="G325" s="22">
-        <f>HOUR(C325) *3600 + MINUTE(C325) * 60 + SECOND(C325)</f>
+        <f t="shared" si="22"/>
         <v>772</v>
       </c>
       <c r="H325" s="22">
-        <f>HOUR(D325) *3600 + MINUTE(D325) * 60 + SECOND(D325)</f>
+        <f t="shared" si="23"/>
         <v>820</v>
       </c>
       <c r="I325" s="27" t="str">
@@ -49403,19 +49403,19 @@
         <v>315</v>
       </c>
       <c r="E326" s="19">
-        <f>D326-C326</f>
+        <f t="shared" si="20"/>
         <v>4.6296296296297751E-5</v>
       </c>
       <c r="F326" s="6">
-        <f>HOUR(E326) *3600 + MINUTE(E326) * 60 + SECOND(E326)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="G326" s="22">
-        <f>HOUR(C326) *3600 + MINUTE(C326) * 60 + SECOND(C326)</f>
+        <f t="shared" si="22"/>
         <v>1038</v>
       </c>
       <c r="H326" s="22">
-        <f>HOUR(D326) *3600 + MINUTE(D326) * 60 + SECOND(D326)</f>
+        <f t="shared" si="23"/>
         <v>1042</v>
       </c>
       <c r="I326" s="27" t="str">
@@ -49448,19 +49448,19 @@
         <v>318</v>
       </c>
       <c r="E327" s="19">
-        <f>D327-C327</f>
+        <f t="shared" si="20"/>
         <v>9.2592592592593767E-5</v>
       </c>
       <c r="F327" s="6">
-        <f>HOUR(E327) *3600 + MINUTE(E327) * 60 + SECOND(E327)</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="G327" s="22">
-        <f>HOUR(C327) *3600 + MINUTE(C327) * 60 + SECOND(C327)</f>
+        <f t="shared" si="22"/>
         <v>1048</v>
       </c>
       <c r="H327" s="22">
-        <f>HOUR(D327) *3600 + MINUTE(D327) * 60 + SECOND(D327)</f>
+        <f t="shared" si="23"/>
         <v>1056</v>
       </c>
       <c r="I327" s="27" t="str">
@@ -49493,19 +49493,19 @@
         <v>367</v>
       </c>
       <c r="E328" s="19">
-        <f>D328-C328</f>
+        <f t="shared" si="20"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F328" s="6">
-        <f>HOUR(E328) *3600 + MINUTE(E328) * 60 + SECOND(E328)</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="G328" s="22">
-        <f>HOUR(C328) *3600 + MINUTE(C328) * 60 + SECOND(C328)</f>
+        <f t="shared" si="22"/>
         <v>1150</v>
       </c>
       <c r="H328" s="22">
-        <f>HOUR(D328) *3600 + MINUTE(D328) * 60 + SECOND(D328)</f>
+        <f t="shared" si="23"/>
         <v>1152</v>
       </c>
       <c r="I328" s="27" t="str">
@@ -49538,19 +49538,19 @@
         <v>372</v>
       </c>
       <c r="E329" s="19">
-        <f>D329-C329</f>
+        <f t="shared" si="20"/>
         <v>2.3148148148148875E-5</v>
       </c>
       <c r="F329" s="6">
-        <f>HOUR(E329) *3600 + MINUTE(E329) * 60 + SECOND(E329)</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="G329" s="22">
-        <f>HOUR(C329) *3600 + MINUTE(C329) * 60 + SECOND(C329)</f>
+        <f t="shared" si="22"/>
         <v>1156</v>
       </c>
       <c r="H329" s="22">
-        <f>HOUR(D329) *3600 + MINUTE(D329) * 60 + SECOND(D329)</f>
+        <f t="shared" si="23"/>
         <v>1158</v>
       </c>
       <c r="I329" s="27" t="str">
@@ -49583,19 +49583,19 @@
         <v>375</v>
       </c>
       <c r="E330" s="19">
-        <f>D330-C330</f>
+        <f t="shared" si="20"/>
         <v>4.629629629629619E-4</v>
       </c>
       <c r="F330" s="6">
-        <f>HOUR(E330) *3600 + MINUTE(E330) * 60 + SECOND(E330)</f>
+        <f t="shared" si="21"/>
         <v>40</v>
       </c>
       <c r="G330" s="22">
-        <f>HOUR(C330) *3600 + MINUTE(C330) * 60 + SECOND(C330)</f>
+        <f t="shared" si="22"/>
         <v>1172</v>
       </c>
       <c r="H330" s="22">
-        <f>HOUR(D330) *3600 + MINUTE(D330) * 60 + SECOND(D330)</f>
+        <f t="shared" si="23"/>
         <v>1212</v>
       </c>
       <c r="I330" s="27" t="str">
@@ -49628,19 +49628,19 @@
         <v>404</v>
       </c>
       <c r="E331" s="19">
-        <f>D331-C331</f>
+        <f t="shared" si="20"/>
         <v>6.9444444444446626E-5</v>
       </c>
       <c r="F331" s="6">
-        <f>HOUR(E331) *3600 + MINUTE(E331) * 60 + SECOND(E331)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="G331" s="22">
-        <f>HOUR(C331) *3600 + MINUTE(C331) * 60 + SECOND(C331)</f>
+        <f t="shared" si="22"/>
         <v>1242</v>
       </c>
       <c r="H331" s="22">
-        <f>HOUR(D331) *3600 + MINUTE(D331) * 60 + SECOND(D331)</f>
+        <f t="shared" si="23"/>
         <v>1248</v>
       </c>
       <c r="I331" s="27" t="str">
@@ -49673,19 +49673,19 @@
         <v>406</v>
       </c>
       <c r="E332" s="19">
-        <f>D332-C332</f>
+        <f t="shared" si="20"/>
         <v>1.3888888888889152E-4</v>
       </c>
       <c r="F332" s="6">
-        <f>HOUR(E332) *3600 + MINUTE(E332) * 60 + SECOND(E332)</f>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="G332" s="22">
-        <f>HOUR(C332) *3600 + MINUTE(C332) * 60 + SECOND(C332)</f>
+        <f t="shared" si="22"/>
         <v>1280</v>
       </c>
       <c r="H332" s="22">
-        <f>HOUR(D332) *3600 + MINUTE(D332) * 60 + SECOND(D332)</f>
+        <f t="shared" si="23"/>
         <v>1292</v>
       </c>
       <c r="I332" s="27" t="str">
@@ -49718,19 +49718,19 @@
         <v>455</v>
       </c>
       <c r="E333" s="19">
-        <f>D333-C333</f>
+        <f t="shared" si="20"/>
         <v>2.314814814815061E-5</v>
       </c>
       <c r="F333" s="6">
-        <f>HOUR(E333) *3600 + MINUTE(E333) * 60 + SECOND(E333)</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="G333" s="22">
-        <f>HOUR(C333) *3600 + MINUTE(C333) * 60 + SECOND(C333)</f>
+        <f t="shared" si="22"/>
         <v>1554</v>
       </c>
       <c r="H333" s="22">
-        <f>HOUR(D333) *3600 + MINUTE(D333) * 60 + SECOND(D333)</f>
+        <f t="shared" si="23"/>
         <v>1556</v>
       </c>
       <c r="I333" s="27" t="str">
@@ -49763,19 +49763,19 @@
         <v>535</v>
       </c>
       <c r="E334" s="19">
-        <f>D334-C334</f>
+        <f t="shared" si="20"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F334" s="6">
-        <f>HOUR(E334) *3600 + MINUTE(E334) * 60 + SECOND(E334)</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="G334" s="22">
-        <f>HOUR(C334) *3600 + MINUTE(C334) * 60 + SECOND(C334)</f>
+        <f t="shared" si="22"/>
         <v>1814</v>
       </c>
       <c r="H334" s="22">
-        <f>HOUR(D334) *3600 + MINUTE(D334) * 60 + SECOND(D334)</f>
+        <f t="shared" si="23"/>
         <v>1816</v>
       </c>
       <c r="I334" s="27" t="str">
@@ -49808,19 +49808,19 @@
         <v>615</v>
       </c>
       <c r="E335" s="19">
-        <f>D335-C335</f>
+        <f t="shared" si="20"/>
         <v>4.6296296296297751E-5</v>
       </c>
       <c r="F335" s="6">
-        <f>HOUR(E335) *3600 + MINUTE(E335) * 60 + SECOND(E335)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="G335" s="22">
-        <f>HOUR(C335) *3600 + MINUTE(C335) * 60 + SECOND(C335)</f>
+        <f t="shared" si="22"/>
         <v>2096</v>
       </c>
       <c r="H335" s="22">
-        <f>HOUR(D335) *3600 + MINUTE(D335) * 60 + SECOND(D335)</f>
+        <f t="shared" si="23"/>
         <v>2100</v>
       </c>
       <c r="I335" s="27" t="str">
@@ -49853,19 +49853,19 @@
         <v>677</v>
       </c>
       <c r="E336" s="19">
-        <f>D336-C336</f>
+        <f t="shared" si="20"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F336" s="6">
-        <f>HOUR(E336) *3600 + MINUTE(E336) * 60 + SECOND(E336)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="G336" s="22">
-        <f>HOUR(C336) *3600 + MINUTE(C336) * 60 + SECOND(C336)</f>
+        <f t="shared" si="22"/>
         <v>2406</v>
       </c>
       <c r="H336" s="22">
-        <f>HOUR(D336) *3600 + MINUTE(D336) * 60 + SECOND(D336)</f>
+        <f t="shared" si="23"/>
         <v>2410</v>
       </c>
       <c r="I336" s="27" t="str">
@@ -49898,19 +49898,19 @@
         <v>228</v>
       </c>
       <c r="E337" s="19">
-        <f>D337-C337</f>
+        <f t="shared" si="20"/>
         <v>9.2592592592592032E-5</v>
       </c>
       <c r="F337" s="6">
-        <f>HOUR(E337) *3600 + MINUTE(E337) * 60 + SECOND(E337)</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="G337" s="22">
-        <f>HOUR(C337) *3600 + MINUTE(C337) * 60 + SECOND(C337)</f>
+        <f t="shared" si="22"/>
         <v>740</v>
       </c>
       <c r="H337" s="22">
-        <f>HOUR(D337) *3600 + MINUTE(D337) * 60 + SECOND(D337)</f>
+        <f t="shared" si="23"/>
         <v>748</v>
       </c>
       <c r="I337" s="27" t="str">
@@ -49943,19 +49943,19 @@
         <v>107</v>
       </c>
       <c r="E338" s="19">
-        <f>D338-C338</f>
+        <f t="shared" si="20"/>
         <v>4.8611111111111034E-4</v>
       </c>
       <c r="F338" s="6">
-        <f>HOUR(E338) *3600 + MINUTE(E338) * 60 + SECOND(E338)</f>
+        <f t="shared" si="21"/>
         <v>42</v>
       </c>
       <c r="G338" s="22">
-        <f>HOUR(C338) *3600 + MINUTE(C338) * 60 + SECOND(C338)</f>
+        <f t="shared" si="22"/>
         <v>308</v>
       </c>
       <c r="H338" s="22">
-        <f>HOUR(D338) *3600 + MINUTE(D338) * 60 + SECOND(D338)</f>
+        <f t="shared" si="23"/>
         <v>350</v>
       </c>
       <c r="I338" s="27" t="str">
@@ -49988,19 +49988,19 @@
         <v>263</v>
       </c>
       <c r="E339" s="19">
-        <f>D339-C339</f>
+        <f t="shared" si="20"/>
         <v>1.3888888888888978E-4</v>
       </c>
       <c r="F339" s="6">
-        <f>HOUR(E339) *3600 + MINUTE(E339) * 60 + SECOND(E339)</f>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="G339" s="22">
-        <f>HOUR(C339) *3600 + MINUTE(C339) * 60 + SECOND(C339)</f>
+        <f t="shared" si="22"/>
         <v>830</v>
       </c>
       <c r="H339" s="22">
-        <f>HOUR(D339) *3600 + MINUTE(D339) * 60 + SECOND(D339)</f>
+        <f t="shared" si="23"/>
         <v>842</v>
       </c>
       <c r="I339" s="27" t="str">
@@ -50033,19 +50033,19 @@
         <v>662</v>
       </c>
       <c r="E340" s="19">
-        <f>D340-C340</f>
+        <f t="shared" si="20"/>
         <v>6.9444444444448361E-5</v>
       </c>
       <c r="F340" s="6">
-        <f>HOUR(E340) *3600 + MINUTE(E340) * 60 + SECOND(E340)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="G340" s="22">
-        <f>HOUR(C340) *3600 + MINUTE(C340) * 60 + SECOND(C340)</f>
+        <f t="shared" si="22"/>
         <v>2324</v>
       </c>
       <c r="H340" s="22">
-        <f>HOUR(D340) *3600 + MINUTE(D340) * 60 + SECOND(D340)</f>
+        <f t="shared" si="23"/>
         <v>2330</v>
       </c>
       <c r="I340" s="27" t="str">
@@ -50078,19 +50078,19 @@
         <v>249</v>
       </c>
       <c r="E341" s="19">
-        <f>D341-C341</f>
+        <f t="shared" si="20"/>
         <v>6.2499999999999882E-4</v>
       </c>
       <c r="F341" s="6">
-        <f>HOUR(E341) *3600 + MINUTE(E341) * 60 + SECOND(E341)</f>
+        <f t="shared" si="21"/>
         <v>54</v>
       </c>
       <c r="G341" s="22">
-        <f>HOUR(C341) *3600 + MINUTE(C341) * 60 + SECOND(C341)</f>
+        <f t="shared" si="22"/>
         <v>766</v>
       </c>
       <c r="H341" s="22">
-        <f>HOUR(D341) *3600 + MINUTE(D341) * 60 + SECOND(D341)</f>
+        <f t="shared" si="23"/>
         <v>820</v>
       </c>
       <c r="I341" s="27" t="str">
@@ -50123,19 +50123,19 @@
         <v>408</v>
       </c>
       <c r="E342" s="19">
-        <f>D342-C342</f>
+        <f t="shared" si="20"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F342" s="6">
-        <f>HOUR(E342) *3600 + MINUTE(E342) * 60 + SECOND(E342)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="G342" s="22">
-        <f>HOUR(C342) *3600 + MINUTE(C342) * 60 + SECOND(C342)</f>
+        <f t="shared" si="22"/>
         <v>1298</v>
       </c>
       <c r="H342" s="22">
-        <f>HOUR(D342) *3600 + MINUTE(D342) * 60 + SECOND(D342)</f>
+        <f t="shared" si="23"/>
         <v>1302</v>
       </c>
       <c r="I342" s="27" t="str">
@@ -50168,19 +50168,19 @@
         <v>605</v>
       </c>
       <c r="E343" s="19">
-        <f>D343-C343</f>
+        <f t="shared" si="20"/>
         <v>2.314814814815061E-5</v>
       </c>
       <c r="F343" s="6">
-        <f>HOUR(E343) *3600 + MINUTE(E343) * 60 + SECOND(E343)</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="G343" s="22">
-        <f>HOUR(C343) *3600 + MINUTE(C343) * 60 + SECOND(C343)</f>
+        <f t="shared" si="22"/>
         <v>2058</v>
       </c>
       <c r="H343" s="22">
-        <f>HOUR(D343) *3600 + MINUTE(D343) * 60 + SECOND(D343)</f>
+        <f t="shared" si="23"/>
         <v>2060</v>
       </c>
       <c r="I343" s="27" t="str">
@@ -50213,19 +50213,19 @@
         <v>648</v>
       </c>
       <c r="E344" s="19">
-        <f>D344-C344</f>
+        <f t="shared" si="20"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F344" s="6">
-        <f>HOUR(E344) *3600 + MINUTE(E344) * 60 + SECOND(E344)</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="G344" s="22">
-        <f>HOUR(C344) *3600 + MINUTE(C344) * 60 + SECOND(C344)</f>
+        <f t="shared" si="22"/>
         <v>2266</v>
       </c>
       <c r="H344" s="22">
-        <f>HOUR(D344) *3600 + MINUTE(D344) * 60 + SECOND(D344)</f>
+        <f t="shared" si="23"/>
         <v>2268</v>
       </c>
       <c r="I344" s="27" t="str">
@@ -50258,19 +50258,19 @@
         <v>656</v>
       </c>
       <c r="E345" s="19">
-        <f>D345-C345</f>
+        <f t="shared" si="20"/>
         <v>6.9444444444444892E-5</v>
       </c>
       <c r="F345" s="6">
-        <f>HOUR(E345) *3600 + MINUTE(E345) * 60 + SECOND(E345)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="G345" s="22">
-        <f>HOUR(C345) *3600 + MINUTE(C345) * 60 + SECOND(C345)</f>
+        <f t="shared" si="22"/>
         <v>2316</v>
       </c>
       <c r="H345" s="22">
-        <f>HOUR(D345) *3600 + MINUTE(D345) * 60 + SECOND(D345)</f>
+        <f t="shared" si="23"/>
         <v>2322</v>
       </c>
       <c r="I345" s="27" t="str">
@@ -50303,19 +50303,19 @@
         <v>116</v>
       </c>
       <c r="E346" s="19">
-        <f>D346-C346</f>
+        <f t="shared" si="20"/>
         <v>9.2592592592592032E-5</v>
       </c>
       <c r="F346" s="6">
-        <f>HOUR(E346) *3600 + MINUTE(E346) * 60 + SECOND(E346)</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="G346" s="22">
-        <f>HOUR(C346) *3600 + MINUTE(C346) * 60 + SECOND(C346)</f>
+        <f t="shared" si="22"/>
         <v>352</v>
       </c>
       <c r="H346" s="22">
-        <f>HOUR(D346) *3600 + MINUTE(D346) * 60 + SECOND(D346)</f>
+        <f t="shared" si="23"/>
         <v>360</v>
       </c>
       <c r="I346" s="27" t="str">
@@ -50351,19 +50351,19 @@
         <v>833</v>
       </c>
       <c r="E347" s="19">
-        <f>D347-C347</f>
+        <f t="shared" si="20"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F347" s="6">
-        <f>HOUR(E347) *3600 + MINUTE(E347) * 60 + SECOND(E347)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="G347" s="22">
-        <f>HOUR(C347) *3600 + MINUTE(C347) * 60 + SECOND(C347)</f>
+        <f t="shared" si="22"/>
         <v>3044</v>
       </c>
       <c r="H347" s="22">
-        <f>HOUR(D347) *3600 + MINUTE(D347) * 60 + SECOND(D347)</f>
+        <f t="shared" si="23"/>
         <v>3048</v>
       </c>
       <c r="I347" s="27" t="str">
@@ -50396,19 +50396,19 @@
         <v>841</v>
       </c>
       <c r="E348" s="19">
-        <f>D348-C348</f>
+        <f t="shared" si="20"/>
         <v>9.2592592592588563E-5</v>
       </c>
       <c r="F348" s="6">
-        <f>HOUR(E348) *3600 + MINUTE(E348) * 60 + SECOND(E348)</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="G348" s="22">
-        <f>HOUR(C348) *3600 + MINUTE(C348) * 60 + SECOND(C348)</f>
+        <f t="shared" si="22"/>
         <v>3048</v>
       </c>
       <c r="H348" s="22">
-        <f>HOUR(D348) *3600 + MINUTE(D348) * 60 + SECOND(D348)</f>
+        <f t="shared" si="23"/>
         <v>3056</v>
       </c>
       <c r="I348" s="27" t="str">
@@ -50441,19 +50441,19 @@
         <v>866</v>
       </c>
       <c r="E349" s="19">
-        <f>D349-C349</f>
+        <f t="shared" si="20"/>
         <v>9.2592592592595502E-5</v>
       </c>
       <c r="F349" s="6">
-        <f>HOUR(E349) *3600 + MINUTE(E349) * 60 + SECOND(E349)</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="G349" s="22">
-        <f>HOUR(C349) *3600 + MINUTE(C349) * 60 + SECOND(C349)</f>
+        <f t="shared" si="22"/>
         <v>3116</v>
       </c>
       <c r="H349" s="22">
-        <f>HOUR(D349) *3600 + MINUTE(D349) * 60 + SECOND(D349)</f>
+        <f t="shared" si="23"/>
         <v>3124</v>
       </c>
       <c r="I349" s="27" t="str">
@@ -50486,19 +50486,19 @@
         <v>346</v>
       </c>
       <c r="E350" s="19">
-        <f>D350-C350</f>
+        <f t="shared" si="20"/>
         <v>2.1689814814814815E-2</v>
       </c>
       <c r="F350" s="6">
-        <f>HOUR(E350) *3600 + MINUTE(E350) * 60 + SECOND(E350)</f>
+        <f t="shared" si="21"/>
         <v>1874</v>
       </c>
       <c r="G350" s="22">
-        <f>HOUR(C350) *3600 + MINUTE(C350) * 60 + SECOND(C350)</f>
+        <f t="shared" si="22"/>
         <v>1134</v>
       </c>
       <c r="H350" s="22">
-        <f>HOUR(D350) *3600 + MINUTE(D350) * 60 + SECOND(D350)</f>
+        <f t="shared" si="23"/>
         <v>3008</v>
       </c>
       <c r="I350" s="27" t="str">
@@ -50531,19 +50531,19 @@
         <v>347</v>
       </c>
       <c r="E351" s="19">
-        <f>D351-C351</f>
+        <f t="shared" si="20"/>
         <v>6.9444444444444892E-5</v>
       </c>
       <c r="F351" s="6">
-        <f>HOUR(E351) *3600 + MINUTE(E351) * 60 + SECOND(E351)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="G351" s="22">
-        <f>HOUR(C351) *3600 + MINUTE(C351) * 60 + SECOND(C351)</f>
+        <f t="shared" si="22"/>
         <v>1134</v>
       </c>
       <c r="H351" s="22">
-        <f>HOUR(D351) *3600 + MINUTE(D351) * 60 + SECOND(D351)</f>
+        <f t="shared" si="23"/>
         <v>1140</v>
       </c>
       <c r="I351" s="27" t="str">
@@ -50576,19 +50576,19 @@
         <v>451</v>
       </c>
       <c r="E352" s="19">
-        <f>D352-C352</f>
+        <f t="shared" si="20"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F352" s="6">
-        <f>HOUR(E352) *3600 + MINUTE(E352) * 60 + SECOND(E352)</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="G352" s="22">
-        <f>HOUR(C352) *3600 + MINUTE(C352) * 60 + SECOND(C352)</f>
+        <f t="shared" si="22"/>
         <v>1436</v>
       </c>
       <c r="H352" s="22">
-        <f>HOUR(D352) *3600 + MINUTE(D352) * 60 + SECOND(D352)</f>
+        <f t="shared" si="23"/>
         <v>1438</v>
       </c>
       <c r="I352" s="27" t="str">
@@ -50621,19 +50621,19 @@
         <v>655</v>
       </c>
       <c r="E353" s="19">
-        <f>D353-C353</f>
+        <f t="shared" si="20"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F353" s="6">
-        <f>HOUR(E353) *3600 + MINUTE(E353) * 60 + SECOND(E353)</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="G353" s="22">
-        <f>HOUR(C353) *3600 + MINUTE(C353) * 60 + SECOND(C353)</f>
+        <f t="shared" si="22"/>
         <v>2314</v>
       </c>
       <c r="H353" s="22">
-        <f>HOUR(D353) *3600 + MINUTE(D353) * 60 + SECOND(D353)</f>
+        <f t="shared" si="23"/>
         <v>2316</v>
       </c>
       <c r="I353" s="27" t="str">
@@ -50666,19 +50666,19 @@
         <v>699</v>
       </c>
       <c r="E354" s="19">
-        <f>D354-C354</f>
+        <f t="shared" si="20"/>
         <v>9.2592592592588563E-5</v>
       </c>
       <c r="F354" s="6">
-        <f>HOUR(E354) *3600 + MINUTE(E354) * 60 + SECOND(E354)</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="G354" s="22">
-        <f>HOUR(C354) *3600 + MINUTE(C354) * 60 + SECOND(C354)</f>
+        <f t="shared" si="22"/>
         <v>2508</v>
       </c>
       <c r="H354" s="22">
-        <f>HOUR(D354) *3600 + MINUTE(D354) * 60 + SECOND(D354)</f>
+        <f t="shared" si="23"/>
         <v>2516</v>
       </c>
       <c r="I354" s="27" t="str">
@@ -50711,19 +50711,19 @@
         <v>805</v>
       </c>
       <c r="E355" s="19">
-        <f>D355-C355</f>
+        <f t="shared" si="20"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F355" s="6">
-        <f>HOUR(E355) *3600 + MINUTE(E355) * 60 + SECOND(E355)</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="G355" s="22">
-        <f>HOUR(C355) *3600 + MINUTE(C355) * 60 + SECOND(C355)</f>
+        <f t="shared" si="22"/>
         <v>2930</v>
       </c>
       <c r="H355" s="22">
-        <f>HOUR(D355) *3600 + MINUTE(D355) * 60 + SECOND(D355)</f>
+        <f t="shared" si="23"/>
         <v>2932</v>
       </c>
       <c r="I355" s="27" t="str">
@@ -50756,19 +50756,19 @@
         <v>346</v>
       </c>
       <c r="E356" s="19">
-        <f>D356-C356</f>
+        <f t="shared" si="20"/>
         <v>2.3148148148140202E-5</v>
       </c>
       <c r="F356" s="6">
-        <f>HOUR(E356) *3600 + MINUTE(E356) * 60 + SECOND(E356)</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="G356" s="22">
-        <f>HOUR(C356) *3600 + MINUTE(C356) * 60 + SECOND(C356)</f>
+        <f t="shared" si="22"/>
         <v>3006</v>
       </c>
       <c r="H356" s="22">
-        <f>HOUR(D356) *3600 + MINUTE(D356) * 60 + SECOND(D356)</f>
+        <f t="shared" si="23"/>
         <v>3008</v>
       </c>
       <c r="I356" s="27" t="str">
@@ -50804,19 +50804,19 @@
         <v>45</v>
       </c>
       <c r="E357" s="19">
-        <f>D357-C357</f>
+        <f t="shared" si="20"/>
         <v>6.9444444444444675E-5</v>
       </c>
       <c r="F357" s="6">
-        <f>HOUR(E357) *3600 + MINUTE(E357) * 60 + SECOND(E357)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="G357" s="22">
-        <f>HOUR(C357) *3600 + MINUTE(C357) * 60 + SECOND(C357)</f>
+        <f t="shared" si="22"/>
         <v>130</v>
       </c>
       <c r="H357" s="22">
-        <f>HOUR(D357) *3600 + MINUTE(D357) * 60 + SECOND(D357)</f>
+        <f t="shared" si="23"/>
         <v>136</v>
       </c>
       <c r="I357" s="27" t="str">
@@ -50849,19 +50849,19 @@
         <v>54</v>
       </c>
       <c r="E358" s="19">
-        <f>D358-C358</f>
+        <f t="shared" si="20"/>
         <v>6.9444444444444675E-5</v>
       </c>
       <c r="F358" s="6">
-        <f>HOUR(E358) *3600 + MINUTE(E358) * 60 + SECOND(E358)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="G358" s="22">
-        <f>HOUR(C358) *3600 + MINUTE(C358) * 60 + SECOND(C358)</f>
+        <f t="shared" si="22"/>
         <v>164</v>
       </c>
       <c r="H358" s="22">
-        <f>HOUR(D358) *3600 + MINUTE(D358) * 60 + SECOND(D358)</f>
+        <f t="shared" si="23"/>
         <v>170</v>
       </c>
       <c r="I358" s="27" t="str">
@@ -50894,19 +50894,19 @@
         <v>326</v>
       </c>
       <c r="E359" s="19">
-        <f>D359-C359</f>
+        <f t="shared" si="20"/>
         <v>2.7777777777777957E-4</v>
       </c>
       <c r="F359" s="6">
-        <f>HOUR(E359) *3600 + MINUTE(E359) * 60 + SECOND(E359)</f>
+        <f t="shared" si="21"/>
         <v>24</v>
       </c>
       <c r="G359" s="22">
-        <f>HOUR(C359) *3600 + MINUTE(C359) * 60 + SECOND(C359)</f>
+        <f t="shared" si="22"/>
         <v>1062</v>
       </c>
       <c r="H359" s="22">
-        <f>HOUR(D359) *3600 + MINUTE(D359) * 60 + SECOND(D359)</f>
+        <f t="shared" si="23"/>
         <v>1086</v>
       </c>
       <c r="I359" s="27" t="str">
@@ -50939,19 +50939,19 @@
         <v>508</v>
       </c>
       <c r="E360" s="19">
-        <f>D360-C360</f>
+        <f t="shared" si="20"/>
         <v>9.2592592592595502E-5</v>
       </c>
       <c r="F360" s="6">
-        <f>HOUR(E360) *3600 + MINUTE(E360) * 60 + SECOND(E360)</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="G360" s="22">
-        <f>HOUR(C360) *3600 + MINUTE(C360) * 60 + SECOND(C360)</f>
+        <f t="shared" si="22"/>
         <v>1650</v>
       </c>
       <c r="H360" s="22">
-        <f>HOUR(D360) *3600 + MINUTE(D360) * 60 + SECOND(D360)</f>
+        <f t="shared" si="23"/>
         <v>1658</v>
       </c>
       <c r="I360" s="27" t="str">
@@ -50984,19 +50984,19 @@
         <v>546</v>
       </c>
       <c r="E361" s="19">
-        <f>D361-C361</f>
+        <f t="shared" si="20"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F361" s="6">
-        <f>HOUR(E361) *3600 + MINUTE(E361) * 60 + SECOND(E361)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="G361" s="22">
-        <f>HOUR(C361) *3600 + MINUTE(C361) * 60 + SECOND(C361)</f>
+        <f t="shared" si="22"/>
         <v>1880</v>
       </c>
       <c r="H361" s="22">
-        <f>HOUR(D361) *3600 + MINUTE(D361) * 60 + SECOND(D361)</f>
+        <f t="shared" si="23"/>
         <v>1884</v>
       </c>
       <c r="I361" s="27" t="str">
@@ -51029,19 +51029,19 @@
         <v>552</v>
       </c>
       <c r="E362" s="19">
-        <f>D362-C362</f>
+        <f t="shared" si="20"/>
         <v>6.9444444444441422E-5</v>
       </c>
       <c r="F362" s="6">
-        <f>HOUR(E362) *3600 + MINUTE(E362) * 60 + SECOND(E362)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="G362" s="22">
-        <f>HOUR(C362) *3600 + MINUTE(C362) * 60 + SECOND(C362)</f>
+        <f t="shared" si="22"/>
         <v>1896</v>
       </c>
       <c r="H362" s="22">
-        <f>HOUR(D362) *3600 + MINUTE(D362) * 60 + SECOND(D362)</f>
+        <f t="shared" si="23"/>
         <v>1902</v>
       </c>
       <c r="I362" s="27" t="str">
@@ -51074,19 +51074,19 @@
         <v>553</v>
       </c>
       <c r="E363" s="19">
-        <f>D363-C363</f>
+        <f t="shared" si="20"/>
         <v>1.8518518518518753E-4</v>
       </c>
       <c r="F363" s="6">
-        <f>HOUR(E363) *3600 + MINUTE(E363) * 60 + SECOND(E363)</f>
+        <f t="shared" si="21"/>
         <v>16</v>
       </c>
       <c r="G363" s="22">
-        <f>HOUR(C363) *3600 + MINUTE(C363) * 60 + SECOND(C363)</f>
+        <f t="shared" si="22"/>
         <v>1912</v>
       </c>
       <c r="H363" s="22">
-        <f>HOUR(D363) *3600 + MINUTE(D363) * 60 + SECOND(D363)</f>
+        <f t="shared" si="23"/>
         <v>1928</v>
       </c>
       <c r="I363" s="27" t="str">
@@ -51119,19 +51119,19 @@
         <v>54</v>
       </c>
       <c r="E364" s="19">
-        <f>D364-C364</f>
+        <f t="shared" si="20"/>
         <v>6.9444444444444675E-5</v>
       </c>
       <c r="F364" s="6">
-        <f>HOUR(E364) *3600 + MINUTE(E364) * 60 + SECOND(E364)</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="G364" s="22">
-        <f>HOUR(C364) *3600 + MINUTE(C364) * 60 + SECOND(C364)</f>
+        <f t="shared" si="22"/>
         <v>164</v>
       </c>
       <c r="H364" s="22">
-        <f>HOUR(D364) *3600 + MINUTE(D364) * 60 + SECOND(D364)</f>
+        <f t="shared" si="23"/>
         <v>170</v>
       </c>
       <c r="I364" s="27" t="str">
@@ -51164,19 +51164,19 @@
         <v>330</v>
       </c>
       <c r="E365" s="19">
-        <f>D365-C365</f>
+        <f t="shared" si="20"/>
         <v>3.7037037037036986E-4</v>
       </c>
       <c r="F365" s="6">
-        <f>HOUR(E365) *3600 + MINUTE(E365) * 60 + SECOND(E365)</f>
+        <f t="shared" si="21"/>
         <v>32</v>
       </c>
       <c r="G365" s="22">
-        <f>HOUR(C365) *3600 + MINUTE(C365) * 60 + SECOND(C365)</f>
+        <f t="shared" si="22"/>
         <v>1088</v>
       </c>
       <c r="H365" s="22">
-        <f>HOUR(D365) *3600 + MINUTE(D365) * 60 + SECOND(D365)</f>
+        <f t="shared" si="23"/>
         <v>1120</v>
       </c>
       <c r="I365" s="27" t="str">
@@ -51209,19 +51209,19 @@
         <v>513</v>
       </c>
       <c r="E366" s="19">
-        <f>D366-C366</f>
+        <f t="shared" si="20"/>
         <v>3.2407407407407385E-4</v>
       </c>
       <c r="F366" s="6">
-        <f>HOUR(E366) *3600 + MINUTE(E366) * 60 + SECOND(E366)</f>
+        <f t="shared" si="21"/>
         <v>28</v>
       </c>
       <c r="G366" s="22">
-        <f>HOUR(C366) *3600 + MINUTE(C366) * 60 + SECOND(C366)</f>
+        <f t="shared" si="22"/>
         <v>1660</v>
       </c>
       <c r="H366" s="22">
-        <f>HOUR(D366) *3600 + MINUTE(D366) * 60 + SECOND(D366)</f>
+        <f t="shared" si="23"/>
         <v>1688</v>
       </c>
       <c r="I366" s="27" t="str">
@@ -51254,19 +51254,19 @@
         <v>553</v>
       </c>
       <c r="E367" s="19">
-        <f>D367-C367</f>
+        <f t="shared" si="20"/>
         <v>3.0092592592592671E-4</v>
       </c>
       <c r="F367" s="6">
-        <f>HOUR(E367) *3600 + MINUTE(E367) * 60 + SECOND(E367)</f>
+        <f t="shared" si="21"/>
         <v>26</v>
       </c>
       <c r="G367" s="22">
-        <f>HOUR(C367) *3600 + MINUTE(C367) * 60 + SECOND(C367)</f>
+        <f t="shared" si="22"/>
         <v>1902</v>
       </c>
       <c r="H367" s="22">
-        <f>HOUR(D367) *3600 + MINUTE(D367) * 60 + SECOND(D367)</f>
+        <f t="shared" si="23"/>
         <v>1928</v>
       </c>
       <c r="I367" s="27" t="str">
@@ -51299,19 +51299,19 @@
         <v>62</v>
       </c>
       <c r="E368" s="19">
-        <f>D368-C368</f>
+        <f t="shared" si="20"/>
         <v>4.6296296296296016E-5</v>
       </c>
       <c r="F368" s="6">
-        <f>HOUR(E368) *3600 + MINUTE(E368) * 60 + SECOND(E368)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="G368" s="22">
-        <f>HOUR(C368) *3600 + MINUTE(C368) * 60 + SECOND(C368)</f>
+        <f t="shared" si="22"/>
         <v>176</v>
       </c>
       <c r="H368" s="22">
-        <f>HOUR(D368) *3600 + MINUTE(D368) * 60 + SECOND(D368)</f>
+        <f t="shared" si="23"/>
         <v>180</v>
       </c>
       <c r="I368" s="27" t="str">
@@ -51344,19 +51344,19 @@
         <v>670</v>
       </c>
       <c r="E369" s="19">
-        <f>D369-C369</f>
+        <f t="shared" si="20"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F369" s="6">
-        <f>HOUR(E369) *3600 + MINUTE(E369) * 60 + SECOND(E369)</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="G369" s="22">
-        <f>HOUR(C369) *3600 + MINUTE(C369) * 60 + SECOND(C369)</f>
+        <f t="shared" si="22"/>
         <v>2346</v>
       </c>
       <c r="H369" s="22">
-        <f>HOUR(D369) *3600 + MINUTE(D369) * 60 + SECOND(D369)</f>
+        <f t="shared" si="23"/>
         <v>2348</v>
       </c>
       <c r="I369" s="27" t="str">
@@ -51389,19 +51389,19 @@
         <v>204</v>
       </c>
       <c r="E370" s="19">
-        <f>D370-C370</f>
+        <f t="shared" si="20"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F370" s="6">
-        <f>HOUR(E370) *3600 + MINUTE(E370) * 60 + SECOND(E370)</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="G370" s="22">
-        <f>HOUR(C370) *3600 + MINUTE(C370) * 60 + SECOND(C370)</f>
+        <f t="shared" si="22"/>
         <v>710</v>
       </c>
       <c r="H370" s="22">
-        <f>HOUR(D370) *3600 + MINUTE(D370) * 60 + SECOND(D370)</f>
+        <f t="shared" si="23"/>
         <v>712</v>
       </c>
       <c r="I370" s="27" t="str">
@@ -51437,19 +51437,19 @@
         <v>289</v>
       </c>
       <c r="E371" s="19">
-        <f>D371-C371</f>
+        <f t="shared" si="20"/>
         <v>4.6296296296296016E-5</v>
       </c>
       <c r="F371" s="6">
-        <f>HOUR(E371) *3600 + MINUTE(E371) * 60 + SECOND(E371)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="G371" s="22">
-        <f>HOUR(C371) *3600 + MINUTE(C371) * 60 + SECOND(C371)</f>
+        <f t="shared" si="22"/>
         <v>1028</v>
       </c>
       <c r="H371" s="22">
-        <f>HOUR(D371) *3600 + MINUTE(D371) * 60 + SECOND(D371)</f>
+        <f t="shared" si="23"/>
         <v>1032</v>
       </c>
       <c r="I371" s="27" t="str">
@@ -51485,19 +51485,19 @@
         <v>522</v>
       </c>
       <c r="E372" s="19">
-        <f>D372-C372</f>
+        <f t="shared" si="20"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F372" s="6">
-        <f>HOUR(E372) *3600 + MINUTE(E372) * 60 + SECOND(E372)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="G372" s="22">
-        <f>HOUR(C372) *3600 + MINUTE(C372) * 60 + SECOND(C372)</f>
+        <f t="shared" si="22"/>
         <v>1820</v>
       </c>
       <c r="H372" s="22">
-        <f>HOUR(D372) *3600 + MINUTE(D372) * 60 + SECOND(D372)</f>
+        <f t="shared" si="23"/>
         <v>1824</v>
       </c>
       <c r="I372" s="27" t="str">
@@ -51533,19 +51533,19 @@
         <v>553</v>
       </c>
       <c r="E373" s="19">
-        <f>D373-C373</f>
+        <f t="shared" si="20"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F373" s="6">
-        <f>HOUR(E373) *3600 + MINUTE(E373) * 60 + SECOND(E373)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="G373" s="22">
-        <f>HOUR(C373) *3600 + MINUTE(C373) * 60 + SECOND(C373)</f>
+        <f t="shared" si="22"/>
         <v>1924</v>
       </c>
       <c r="H373" s="22">
-        <f>HOUR(D373) *3600 + MINUTE(D373) * 60 + SECOND(D373)</f>
+        <f t="shared" si="23"/>
         <v>1928</v>
       </c>
       <c r="I373" s="27" t="str">
@@ -51578,19 +51578,19 @@
         <v>591</v>
       </c>
       <c r="E374" s="19">
-        <f>D374-C374</f>
+        <f t="shared" si="20"/>
         <v>9.2592592592592032E-5</v>
       </c>
       <c r="F374" s="6">
-        <f>HOUR(E374) *3600 + MINUTE(E374) * 60 + SECOND(E374)</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="G374" s="22">
-        <f>HOUR(C374) *3600 + MINUTE(C374) * 60 + SECOND(C374)</f>
+        <f t="shared" si="22"/>
         <v>2002</v>
       </c>
       <c r="H374" s="22">
-        <f>HOUR(D374) *3600 + MINUTE(D374) * 60 + SECOND(D374)</f>
+        <f t="shared" si="23"/>
         <v>2010</v>
       </c>
       <c r="I374" s="27" t="str">
@@ -51623,19 +51623,19 @@
         <v>819</v>
       </c>
       <c r="E375" s="19">
-        <f>D375-C375</f>
+        <f t="shared" si="20"/>
         <v>4.629629629630122E-5</v>
       </c>
       <c r="F375" s="6">
-        <f>HOUR(E375) *3600 + MINUTE(E375) * 60 + SECOND(E375)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="G375" s="22">
-        <f>HOUR(C375) *3600 + MINUTE(C375) * 60 + SECOND(C375)</f>
+        <f t="shared" si="22"/>
         <v>3032</v>
       </c>
       <c r="H375" s="22">
-        <f>HOUR(D375) *3600 + MINUTE(D375) * 60 + SECOND(D375)</f>
+        <f t="shared" si="23"/>
         <v>3036</v>
       </c>
       <c r="I375" s="27" t="str">
@@ -51668,19 +51668,19 @@
         <v>888</v>
       </c>
       <c r="E376" s="19">
-        <f>D376-C376</f>
+        <f t="shared" si="20"/>
         <v>4.629629629630122E-5</v>
       </c>
       <c r="F376" s="6">
-        <f>HOUR(E376) *3600 + MINUTE(E376) * 60 + SECOND(E376)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="G376" s="22">
-        <f>HOUR(C376) *3600 + MINUTE(C376) * 60 + SECOND(C376)</f>
+        <f t="shared" si="22"/>
         <v>3644</v>
       </c>
       <c r="H376" s="22">
-        <f>HOUR(D376) *3600 + MINUTE(D376) * 60 + SECOND(D376)</f>
+        <f t="shared" si="23"/>
         <v>3648</v>
       </c>
       <c r="I376" s="27" t="str">
@@ -51713,19 +51713,19 @@
         <v>125</v>
       </c>
       <c r="E377" s="19">
-        <f>D377-C377</f>
+        <f t="shared" si="20"/>
         <v>1.1574074074074091E-4</v>
       </c>
       <c r="F377" s="6">
-        <f>HOUR(E377) *3600 + MINUTE(E377) * 60 + SECOND(E377)</f>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="G377" s="22">
-        <f>HOUR(C377) *3600 + MINUTE(C377) * 60 + SECOND(C377)</f>
+        <f t="shared" si="22"/>
         <v>380</v>
       </c>
       <c r="H377" s="22">
-        <f>HOUR(D377) *3600 + MINUTE(D377) * 60 + SECOND(D377)</f>
+        <f t="shared" si="23"/>
         <v>390</v>
       </c>
       <c r="I377" s="27" t="str">
@@ -51758,19 +51758,19 @@
         <v>148</v>
       </c>
       <c r="E378" s="19">
-        <f>D378-C378</f>
+        <f t="shared" si="20"/>
         <v>2.3148148148148875E-5</v>
       </c>
       <c r="F378" s="6">
-        <f>HOUR(E378) *3600 + MINUTE(E378) * 60 + SECOND(E378)</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="G378" s="22">
-        <f>HOUR(C378) *3600 + MINUTE(C378) * 60 + SECOND(C378)</f>
+        <f t="shared" si="22"/>
         <v>498</v>
       </c>
       <c r="H378" s="22">
-        <f>HOUR(D378) *3600 + MINUTE(D378) * 60 + SECOND(D378)</f>
+        <f t="shared" si="23"/>
         <v>500</v>
       </c>
       <c r="I378" s="27" t="str">
@@ -51803,19 +51803,19 @@
         <v>159</v>
       </c>
       <c r="E379" s="19">
-        <f>D379-C379</f>
+        <f t="shared" si="20"/>
         <v>2.3148148148148008E-5</v>
       </c>
       <c r="F379" s="6">
-        <f>HOUR(E379) *3600 + MINUTE(E379) * 60 + SECOND(E379)</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="G379" s="22">
-        <f>HOUR(C379) *3600 + MINUTE(C379) * 60 + SECOND(C379)</f>
+        <f t="shared" si="22"/>
         <v>534</v>
       </c>
       <c r="H379" s="22">
-        <f>HOUR(D379) *3600 + MINUTE(D379) * 60 + SECOND(D379)</f>
+        <f t="shared" si="23"/>
         <v>536</v>
       </c>
       <c r="I379" s="27" t="str">
@@ -51848,19 +51848,19 @@
         <v>887</v>
       </c>
       <c r="E380" s="19">
-        <f>D380-C380</f>
+        <f t="shared" si="20"/>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F380" s="6">
-        <f>HOUR(E380) *3600 + MINUTE(E380) * 60 + SECOND(E380)</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="G380" s="22">
-        <f>HOUR(C380) *3600 + MINUTE(C380) * 60 + SECOND(C380)</f>
+        <f t="shared" si="22"/>
         <v>3538</v>
       </c>
       <c r="H380" s="22">
-        <f>HOUR(D380) *3600 + MINUTE(D380) * 60 + SECOND(D380)</f>
+        <f t="shared" si="23"/>
         <v>3540</v>
       </c>
       <c r="I380" s="27" t="str">
@@ -51893,19 +51893,19 @@
         <v>100</v>
       </c>
       <c r="E381" s="19">
-        <f>D381-C381</f>
+        <f t="shared" si="20"/>
         <v>5.7870370370370411E-4</v>
       </c>
       <c r="F381" s="6">
-        <f>HOUR(E381) *3600 + MINUTE(E381) * 60 + SECOND(E381)</f>
+        <f t="shared" si="21"/>
         <v>50</v>
       </c>
       <c r="G381" s="22">
-        <f>HOUR(C381) *3600 + MINUTE(C381) * 60 + SECOND(C381)</f>
+        <f t="shared" si="22"/>
         <v>306</v>
       </c>
       <c r="H381" s="22">
-        <f>HOUR(D381) *3600 + MINUTE(D381) * 60 + SECOND(D381)</f>
+        <f t="shared" si="23"/>
         <v>356</v>
       </c>
       <c r="I381" s="27" t="str">
@@ -51938,19 +51938,19 @@
         <v>123</v>
       </c>
       <c r="E382" s="19">
-        <f>D382-C382</f>
+        <f t="shared" si="20"/>
         <v>1.1574074074074091E-4</v>
       </c>
       <c r="F382" s="6">
-        <f>HOUR(E382) *3600 + MINUTE(E382) * 60 + SECOND(E382)</f>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="G382" s="22">
-        <f>HOUR(C382) *3600 + MINUTE(C382) * 60 + SECOND(C382)</f>
+        <f t="shared" si="22"/>
         <v>364</v>
       </c>
       <c r="H382" s="22">
-        <f>HOUR(D382) *3600 + MINUTE(D382) * 60 + SECOND(D382)</f>
+        <f t="shared" si="23"/>
         <v>374</v>
       </c>
       <c r="I382" s="27" t="str">
@@ -51983,19 +51983,19 @@
         <v>179</v>
       </c>
       <c r="E383" s="19">
-        <f>D383-C383</f>
+        <f t="shared" si="20"/>
         <v>1.1574074074074091E-4</v>
       </c>
       <c r="F383" s="6">
-        <f>HOUR(E383) *3600 + MINUTE(E383) * 60 + SECOND(E383)</f>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="G383" s="22">
-        <f>HOUR(C383) *3600 + MINUTE(C383) * 60 + SECOND(C383)</f>
+        <f t="shared" si="22"/>
         <v>576</v>
       </c>
       <c r="H383" s="22">
-        <f>HOUR(D383) *3600 + MINUTE(D383) * 60 + SECOND(D383)</f>
+        <f t="shared" si="23"/>
         <v>586</v>
       </c>
       <c r="I383" s="27" t="str">
@@ -52028,19 +52028,19 @@
         <v>198</v>
       </c>
       <c r="E384" s="19">
-        <f>D384-C384</f>
+        <f t="shared" si="20"/>
         <v>4.6296296296296884E-5</v>
       </c>
       <c r="F384" s="6">
-        <f>HOUR(E384) *3600 + MINUTE(E384) * 60 + SECOND(E384)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="G384" s="22">
-        <f>HOUR(C384) *3600 + MINUTE(C384) * 60 + SECOND(C384)</f>
+        <f t="shared" si="22"/>
         <v>674</v>
       </c>
       <c r="H384" s="22">
-        <f>HOUR(D384) *3600 + MINUTE(D384) * 60 + SECOND(D384)</f>
+        <f t="shared" si="23"/>
         <v>678</v>
       </c>
       <c r="I384" s="27" t="str">
@@ -52073,19 +52073,19 @@
         <v>221</v>
       </c>
       <c r="E385" s="19">
-        <f>D385-C385</f>
+        <f t="shared" si="20"/>
         <v>2.3148148148148875E-5</v>
       </c>
       <c r="F385" s="6">
-        <f>HOUR(E385) *3600 + MINUTE(E385) * 60 + SECOND(E385)</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="G385" s="22">
-        <f>HOUR(C385) *3600 + MINUTE(C385) * 60 + SECOND(C385)</f>
+        <f t="shared" si="22"/>
         <v>736</v>
       </c>
       <c r="H385" s="22">
-        <f>HOUR(D385) *3600 + MINUTE(D385) * 60 + SECOND(D385)</f>
+        <f t="shared" si="23"/>
         <v>738</v>
       </c>
       <c r="I385" s="27" t="str">
@@ -52118,19 +52118,19 @@
         <v>258</v>
       </c>
       <c r="E386" s="19">
-        <f>D386-C386</f>
+        <f t="shared" ref="E386:E449" si="24">D386-C386</f>
         <v>2.3148148148148008E-4</v>
       </c>
       <c r="F386" s="6">
-        <f>HOUR(E386) *3600 + MINUTE(E386) * 60 + SECOND(E386)</f>
+        <f t="shared" ref="F386:F449" si="25">HOUR(E386) *3600 + MINUTE(E386) * 60 + SECOND(E386)</f>
         <v>20</v>
       </c>
       <c r="G386" s="22">
-        <f>HOUR(C386) *3600 + MINUTE(C386) * 60 + SECOND(C386)</f>
+        <f t="shared" ref="G386:G396" si="26">HOUR(C386) *3600 + MINUTE(C386) * 60 + SECOND(C386)</f>
         <v>826</v>
       </c>
       <c r="H386" s="22">
-        <f>HOUR(D386) *3600 + MINUTE(D386) * 60 + SECOND(D386)</f>
+        <f t="shared" ref="H386:H396" si="27">HOUR(D386) *3600 + MINUTE(D386) * 60 + SECOND(D386)</f>
         <v>846</v>
       </c>
       <c r="I386" s="27" t="str">
@@ -52163,19 +52163,19 @@
         <v>283</v>
       </c>
       <c r="E387" s="19">
-        <f>D387-C387</f>
+        <f t="shared" si="24"/>
         <v>1.1574074074074091E-4</v>
       </c>
       <c r="F387" s="6">
-        <f>HOUR(E387) *3600 + MINUTE(E387) * 60 + SECOND(E387)</f>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="G387" s="22">
-        <f>HOUR(C387) *3600 + MINUTE(C387) * 60 + SECOND(C387)</f>
+        <f t="shared" si="26"/>
         <v>926</v>
       </c>
       <c r="H387" s="22">
-        <f>HOUR(D387) *3600 + MINUTE(D387) * 60 + SECOND(D387)</f>
+        <f t="shared" si="27"/>
         <v>936</v>
       </c>
       <c r="I387" s="27" t="str">
@@ -52208,19 +52208,19 @@
         <v>291</v>
       </c>
       <c r="E388" s="19">
-        <f>D388-C388</f>
+        <f t="shared" si="24"/>
         <v>2.5462962962962896E-4</v>
       </c>
       <c r="F388" s="6">
-        <f>HOUR(E388) *3600 + MINUTE(E388) * 60 + SECOND(E388)</f>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="G388" s="22">
-        <f>HOUR(C388) *3600 + MINUTE(C388) * 60 + SECOND(C388)</f>
+        <f t="shared" si="26"/>
         <v>986</v>
       </c>
       <c r="H388" s="22">
-        <f>HOUR(D388) *3600 + MINUTE(D388) * 60 + SECOND(D388)</f>
+        <f t="shared" si="27"/>
         <v>1008</v>
       </c>
       <c r="I388" s="27" t="str">
@@ -52253,19 +52253,19 @@
         <v>299</v>
       </c>
       <c r="E389" s="19">
-        <f>D389-C389</f>
+        <f t="shared" si="24"/>
         <v>4.6296296296294281E-5</v>
       </c>
       <c r="F389" s="6">
-        <f>HOUR(E389) *3600 + MINUTE(E389) * 60 + SECOND(E389)</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="G389" s="22">
-        <f>HOUR(C389) *3600 + MINUTE(C389) * 60 + SECOND(C389)</f>
+        <f t="shared" si="26"/>
         <v>1010</v>
       </c>
       <c r="H389" s="22">
-        <f>HOUR(D389) *3600 + MINUTE(D389) * 60 + SECOND(D389)</f>
+        <f t="shared" si="27"/>
         <v>1014</v>
       </c>
       <c r="I389" s="27" t="str">
@@ -52299,19 +52299,19 @@
         <v>547</v>
       </c>
       <c r="E390" s="19">
-        <f>D390-C390</f>
+        <f t="shared" si="24"/>
         <v>3.2407407407407385E-4</v>
       </c>
       <c r="F390" s="6">
-        <f>HOUR(E390) *3600 + MINUTE(E390) * 60 + SECOND(E390)</f>
+        <f t="shared" si="25"/>
         <v>28</v>
       </c>
       <c r="G390" s="22">
-        <f>HOUR(C390) *3600 + MINUTE(C390) * 60 + SECOND(C390)</f>
+        <f t="shared" si="26"/>
         <v>1884</v>
       </c>
       <c r="H390" s="22">
-        <f>HOUR(D390) *3600 + MINUTE(D390) * 60 + SECOND(D390)</f>
+        <f t="shared" si="27"/>
         <v>1912</v>
       </c>
       <c r="I390" s="27" t="str">
@@ -52344,19 +52344,19 @@
         <v>660</v>
       </c>
       <c r="E391" s="19">
-        <f>D391-C391</f>
+        <f t="shared" si="24"/>
         <v>2.5462962962963243E-4</v>
       </c>
       <c r="F391" s="6">
-        <f>HOUR(E391) *3600 + MINUTE(E391) * 60 + SECOND(E391)</f>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="G391" s="22">
-        <f>HOUR(C391) *3600 + MINUTE(C391) * 60 + SECOND(C391)</f>
+        <f t="shared" si="26"/>
         <v>2322</v>
       </c>
       <c r="H391" s="22">
-        <f>HOUR(D391) *3600 + MINUTE(D391) * 60 + SECOND(D391)</f>
+        <f t="shared" si="27"/>
         <v>2344</v>
       </c>
       <c r="I391" s="27" t="str">
@@ -52389,19 +52389,19 @@
         <v>849</v>
       </c>
       <c r="E392" s="19">
-        <f>D392-C392</f>
+        <f t="shared" si="24"/>
         <v>2.314814814815408E-5</v>
       </c>
       <c r="F392" s="6">
-        <f>HOUR(E392) *3600 + MINUTE(E392) * 60 + SECOND(E392)</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="G392" s="22">
-        <f>HOUR(C392) *3600 + MINUTE(C392) * 60 + SECOND(C392)</f>
+        <f t="shared" si="26"/>
         <v>3062</v>
       </c>
       <c r="H392" s="22">
-        <f>HOUR(D392) *3600 + MINUTE(D392) * 60 + SECOND(D392)</f>
+        <f t="shared" si="27"/>
         <v>3064</v>
       </c>
       <c r="I392" s="27" t="str">
@@ -52434,19 +52434,19 @@
         <v>890</v>
       </c>
       <c r="E393" s="19">
-        <f>D393-C393</f>
+        <f t="shared" si="24"/>
         <v>3.0092592592592671E-4</v>
       </c>
       <c r="F393" s="6">
-        <f>HOUR(E393) *3600 + MINUTE(E393) * 60 + SECOND(E393)</f>
+        <f t="shared" si="25"/>
         <v>26</v>
       </c>
       <c r="G393" s="22">
-        <f>HOUR(C393) *3600 + MINUTE(C393) * 60 + SECOND(C393)</f>
+        <f t="shared" si="26"/>
         <v>3544</v>
       </c>
       <c r="H393" s="22">
-        <f>HOUR(D393) *3600 + MINUTE(D393) * 60 + SECOND(D393)</f>
+        <f t="shared" si="27"/>
         <v>3570</v>
       </c>
       <c r="I393" s="27" t="str">
@@ -52479,19 +52479,19 @@
         <v>897</v>
       </c>
       <c r="E394" s="19">
-        <f>D394-C394</f>
+        <f t="shared" si="24"/>
         <v>9.2592592592602441E-5</v>
       </c>
       <c r="F394" s="6">
-        <f>HOUR(E394) *3600 + MINUTE(E394) * 60 + SECOND(E394)</f>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="G394" s="22">
-        <f>HOUR(C394) *3600 + MINUTE(C394) * 60 + SECOND(C394)</f>
+        <f t="shared" si="26"/>
         <v>3634</v>
       </c>
       <c r="H394" s="22">
-        <f>HOUR(D394) *3600 + MINUTE(D394) * 60 + SECOND(D394)</f>
+        <f t="shared" si="27"/>
         <v>3642</v>
       </c>
       <c r="I394" s="27" t="str">
@@ -52524,19 +52524,19 @@
         <v>878</v>
       </c>
       <c r="E395" s="19">
-        <f>D395-C395</f>
+        <f t="shared" si="24"/>
         <v>3.7037037037037507E-4</v>
       </c>
       <c r="F395" s="6">
-        <f>HOUR(E395) *3600 + MINUTE(E395) * 60 + SECOND(E395)</f>
+        <f t="shared" si="25"/>
         <v>32</v>
       </c>
       <c r="G395" s="22">
-        <f>HOUR(C395) *3600 + MINUTE(C395) * 60 + SECOND(C395)</f>
+        <f t="shared" si="26"/>
         <v>3172</v>
       </c>
       <c r="H395" s="22">
-        <f>HOUR(D395) *3600 + MINUTE(D395) * 60 + SECOND(D395)</f>
+        <f t="shared" si="27"/>
         <v>3204</v>
       </c>
       <c r="I395" s="27" t="str">
@@ -52569,19 +52569,19 @@
         <v>885</v>
       </c>
       <c r="E396" s="19">
-        <f>D396-C396</f>
+        <f t="shared" si="24"/>
         <v>3.9351851851852221E-4</v>
       </c>
       <c r="F396" s="6">
-        <f>HOUR(E396) *3600 + MINUTE(E396) * 60 + SECOND(E396)</f>
+        <f t="shared" si="25"/>
         <v>34</v>
       </c>
       <c r="G396" s="22">
-        <f>HOUR(C396) *3600 + MINUTE(C396) * 60 + SECOND(C396)</f>
+        <f t="shared" si="26"/>
         <v>3504</v>
       </c>
       <c r="H396" s="22">
-        <f>HOUR(D396) *3600 + MINUTE(D396) * 60 + SECOND(D396)</f>
+        <f t="shared" si="27"/>
         <v>3538</v>
       </c>
       <c r="I396" s="27" t="str">
